--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CC9B5-69E0-4AF9-8D87-CAE99A9912EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8583407-A339-4146-86C5-0DFD7CD7B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="238">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -467,27 +467,6 @@
     <t>78897</t>
   </si>
   <si>
-    <t>600R Ferrite bead - 1.3A - 1 - 150mΩ - ±25%</t>
-  </si>
-  <si>
-    <t>600R@100MHz</t>
-  </si>
-  <si>
-    <t>SUNLORD</t>
-  </si>
-  <si>
-    <t>UPZ1608U601-1R3TF</t>
-  </si>
-  <si>
-    <t>C97000</t>
-  </si>
-  <si>
-    <t>$0.0062</t>
-  </si>
-  <si>
-    <t>52889</t>
-  </si>
-  <si>
     <t>INTEGRATED CIRCUITS</t>
   </si>
   <si>
@@ -904,22 +883,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -942,9 +917,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1021,6 +993,11 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1241,10 +1218,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V950"/>
+  <dimension ref="A1:V949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1"/>
@@ -1261,28 +1238,28 @@
     <col min="13" max="13" width="21.26953125" customWidth="1"/>
     <col min="14" max="14" width="50.36328125" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" hidden="1"/>
-    <col min="17" max="17" width="9.26953125" hidden="1"/>
+    <col min="16" max="16" width="12.6328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.26953125" hidden="1" customWidth="1"/>
     <col min="18" max="16384" width="12.6328125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1293,46 +1270,46 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="1"/>
@@ -1345,22 +1322,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="12.5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1370,419 +1347,419 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="46" customFormat="1" ht="12.5">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" s="63" customFormat="1" ht="12.5">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" s="58" customFormat="1" ht="12.5">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="D5" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="61">
+      <c r="I5" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="56">
         <v>4500</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-    </row>
-    <row r="6" spans="1:22" s="46" customFormat="1" ht="12.5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+    </row>
+    <row r="6" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A6" s="42"/>
+      <c r="B6" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="43" t="s">
+      <c r="I6" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="50">
+      <c r="K6" s="42"/>
+      <c r="L6" s="45">
         <v>751492</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-    </row>
-    <row r="7" spans="1:22" s="63" customFormat="1" ht="12.5">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57" t="s">
+      <c r="N6" s="42"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+    </row>
+    <row r="7" spans="1:22" s="58" customFormat="1" ht="12.5">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="65" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-    </row>
-    <row r="8" spans="1:22" s="46" customFormat="1" ht="12.5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="52" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+    </row>
+    <row r="8" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A8" s="42"/>
+      <c r="B8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="55" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-    </row>
-    <row r="9" spans="1:22" s="63" customFormat="1" ht="12.5">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57" t="s">
+      <c r="N8" s="42"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+    </row>
+    <row r="9" spans="1:22" s="58" customFormat="1" ht="12.5">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="65" t="s">
+      <c r="K9" s="51"/>
+      <c r="L9" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-    </row>
-    <row r="10" spans="1:22" s="46" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="52" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+    </row>
+    <row r="10" spans="1:22" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="55" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-    </row>
-    <row r="11" spans="1:22" s="63" customFormat="1" ht="12.5">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+    </row>
+    <row r="11" spans="1:22" s="58" customFormat="1" ht="12.5">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="51"/>
+      <c r="F11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="65" t="s">
+      <c r="K11" s="51"/>
+      <c r="L11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-    </row>
-    <row r="12" spans="1:22" s="46" customFormat="1" ht="12.5">
-      <c r="A12" s="47"/>
-      <c r="B12" s="52" t="s">
+      <c r="N11" s="51"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+    </row>
+    <row r="12" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A12" s="42"/>
+      <c r="B12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="55" t="s">
+      <c r="K12" s="42"/>
+      <c r="L12" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22" ht="12.5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1793,40 +1770,40 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="12.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1837,40 +1814,40 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="12.5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="22" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1881,40 +1858,40 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="12.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="13" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1925,40 +1902,40 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="12.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="22" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1969,40 +1946,40 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="12.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2013,40 +1990,40 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="12.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="22" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2057,40 +2034,40 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="12.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2101,40 +2078,40 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="12.5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="15"/>
+      <c r="L21" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2145,40 +2122,40 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="12.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="7"/>
+      <c r="L22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="7"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2189,40 +2166,40 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="12.5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2233,22 +2210,22 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="12.5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2259,40 +2236,40 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="12.5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="11" t="s">
+      <c r="K25" s="7"/>
+      <c r="L25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="9"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2303,40 +2280,40 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="12.5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="22" t="s">
+      <c r="K26" s="15"/>
+      <c r="L26" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2347,22 +2324,22 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="12.5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2373,40 +2350,40 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="12.5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="13" t="s">
+      <c r="K28" s="7"/>
+      <c r="L28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="9"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2417,40 +2394,22 @@
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22" ht="12.5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="23"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2461,22 +2420,40 @@
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="12.5">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
+      <c r="M30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2486,281 +2463,281 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="12.5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="10" t="s">
+    <row r="31" spans="1:22" s="70" customFormat="1" ht="12.5">
+      <c r="A31" s="65"/>
+      <c r="B31" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="68"/>
+      <c r="L31" s="56">
+        <v>1266</v>
+      </c>
+      <c r="M31" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="67"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+    </row>
+    <row r="32" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="10" t="s">
+      <c r="C32" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="D32" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I32" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="63"/>
+      <c r="L32" s="50">
+        <v>280</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+    </row>
+    <row r="33" spans="1:22" s="58" customFormat="1" ht="12.5">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="M31" s="31" t="s">
+      <c r="G33" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="71"/>
+      <c r="L33" s="53">
+        <v>2304</v>
+      </c>
+      <c r="M33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" s="75" customFormat="1" ht="12.5">
-      <c r="A32" s="70"/>
-      <c r="B32" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="72" t="s">
+      <c r="N33" s="51"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+    </row>
+    <row r="34" spans="1:22" ht="12.5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="61">
-        <v>1266</v>
-      </c>
-      <c r="M32" s="74" t="s">
+      <c r="I34" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="14">
+        <v>5850</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="72"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-    </row>
-    <row r="33" spans="1:22" s="46" customFormat="1" ht="12.5">
-      <c r="A33" s="47"/>
-      <c r="B33" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="47" t="s">
+      <c r="N34" s="7"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" s="70" customFormat="1" ht="12.5">
+      <c r="A35" s="51"/>
+      <c r="B35" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="66" t="s">
+      <c r="I35" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" s="71"/>
+      <c r="L35" s="56">
+        <v>4376</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+    </row>
+    <row r="36" spans="1:22" ht="12.5">
+      <c r="A36" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="55">
-        <v>280</v>
-      </c>
-      <c r="M33" s="48" t="s">
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22" ht="12.5">
+      <c r="A37" s="7"/>
+      <c r="B37" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-    </row>
-    <row r="34" spans="1:22" s="63" customFormat="1" ht="12.5">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="76"/>
-      <c r="L34" s="58">
-        <v>2304</v>
-      </c>
-      <c r="M34" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-    </row>
-    <row r="35" spans="1:22" ht="12.5">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="16">
-        <v>5850</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="9"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" s="75" customFormat="1" ht="12.5">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="61">
-        <v>4376</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-    </row>
-    <row r="37" spans="1:22" ht="12.5">
-      <c r="A37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="N37" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2770,125 +2747,107 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="12.5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="34" t="s">
+    <row r="38" spans="1:22" s="70" customFormat="1" ht="12.5">
+      <c r="A38" s="51"/>
+      <c r="B38" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="71"/>
+      <c r="L38" s="56">
+        <v>392</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="51"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+    </row>
+    <row r="39" spans="1:22" s="4" customFormat="1" ht="12.5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="14">
+        <v>41306</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="12.5">
+      <c r="A40" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" s="75" customFormat="1" ht="12.5">
-      <c r="A39" s="56"/>
-      <c r="B39" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="G39" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="H39" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="K39" s="76"/>
-      <c r="L39" s="61">
-        <v>392</v>
-      </c>
-      <c r="M39" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-    </row>
-    <row r="40" spans="1:22" s="4" customFormat="1" ht="12.5">
-      <c r="A40" s="9"/>
-      <c r="B40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="16">
-        <v>41306</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N40" s="9"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -2899,22 +2858,42 @@
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22" ht="12.5">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J41" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -2925,42 +2904,40 @@
       <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22" ht="12.5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10" t="s">
+      <c r="C42" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="D42" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="J42" s="37" t="s">
+      <c r="I42" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="38" t="s">
+      <c r="J42" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="K42" s="15"/>
+      <c r="L42" s="18">
+        <v>2019</v>
+      </c>
+      <c r="M42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="N42" s="15"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -2968,43 +2945,24 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22" ht="12.5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="20">
-        <v>2019</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N43" s="17"/>
+      <c r="A43" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3012,64 +2970,63 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="12.5">
-      <c r="A44" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" s="4" customFormat="1" ht="12.5">
-      <c r="A45" s="39"/>
-      <c r="B45" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="9" t="s">
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" s="4" customFormat="1" ht="12.5">
+      <c r="A44" s="34"/>
+      <c r="B44" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="16">
+      <c r="I44" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="34"/>
+      <c r="L44" s="14">
         <v>4957</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M44" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N45" s="39"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" ht="12.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -24775,36 +24732,12 @@
       <c r="U949" s="1"/>
       <c r="V949" s="1"/>
     </row>
-    <row r="950" spans="1:22" ht="12.5">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="1"/>
-      <c r="G950" s="1"/>
-      <c r="H950" s="1"/>
-      <c r="I950" s="1"/>
-      <c r="J950" s="1"/>
-      <c r="K950" s="1"/>
-      <c r="L950" s="1"/>
-      <c r="M950" s="1"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
-      <c r="P950" s="1"/>
-      <c r="Q950" s="1"/>
-      <c r="R950" s="1"/>
-      <c r="S950" s="1"/>
-      <c r="T950" s="1"/>
-      <c r="U950" s="1"/>
-      <c r="V950" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A43:N43"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A13:N13"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8583407-A339-4146-86C5-0DFD7CD7B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB375AA-0B1E-4CBB-839C-42F31AE1C519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:V949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB375AA-0B1E-4CBB-839C-42F31AE1C519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41107968-3B36-49D1-9B12-1A6FD06F1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="255">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -735,6 +735,57 @@
   </si>
   <si>
     <t>WQFN-32-EP(5x5) Audio Interface ICs ROHS</t>
+  </si>
+  <si>
+    <t>MLG1005S10NHT000</t>
+  </si>
+  <si>
+    <t>$0.0101</t>
+  </si>
+  <si>
+    <t>C76760</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>10nH</t>
+  </si>
+  <si>
+    <t>500mA 10nH ±3% 220mΩ 0402 Inductors</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>0603WAF2200T5E</t>
+  </si>
+  <si>
+    <t>543484</t>
+  </si>
+  <si>
+    <t>C22962</t>
+  </si>
+  <si>
+    <t>100mW Thick Film Resistors ±1% 220Ω 0603 Chip Resistor</t>
+  </si>
+  <si>
+    <t>TPS79333DBVR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>200mA 70dB@(100Hz),43dB@(100kHz) Fixed 3.3V~3.3V</t>
+  </si>
+  <si>
+    <t>C9840</t>
+  </si>
+  <si>
+    <t>$0.1364</t>
+  </si>
+  <si>
+    <t>2988</t>
   </si>
 </sst>
 </file>
@@ -782,7 +833,7 @@
       <name val="Lora"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +906,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFBBC04"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -883,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -956,11 +1019,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -993,6 +1052,34 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1218,10 +1305,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V949"/>
+  <dimension ref="A1:V952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1"/>
@@ -1244,22 +1331,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1322,22 +1409,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="12.5">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1391,463 +1478,463 @@
       <c r="U4" s="40"/>
       <c r="V4" s="40"/>
     </row>
-    <row r="5" spans="1:22" s="58" customFormat="1" ht="12.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="49"/>
+      <c r="L5" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+    </row>
+    <row r="6" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D6" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G6" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I6" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J6" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="56">
+      <c r="K6" s="35"/>
+      <c r="L6" s="45">
         <v>4500</v>
       </c>
-      <c r="M5" s="53" t="s">
+      <c r="M6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-    </row>
-    <row r="6" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="36" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+    </row>
+    <row r="7" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A7" s="80"/>
+      <c r="B7" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G7" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I7" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="45">
+      <c r="K7" s="80"/>
+      <c r="L7" s="54">
         <v>751492</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" s="58" customFormat="1" ht="12.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="N7" s="80"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+    </row>
+    <row r="8" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="60" t="s">
+      <c r="K8" s="35"/>
+      <c r="L8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-    </row>
-    <row r="8" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="47" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+    </row>
+    <row r="9" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A9" s="80"/>
+      <c r="B9" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D9" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G9" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J9" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="50" t="s">
+      <c r="K9" s="80"/>
+      <c r="L9" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-    </row>
-    <row r="9" spans="1:22" s="58" customFormat="1" ht="12.5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52" t="s">
+      <c r="N9" s="80"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+    </row>
+    <row r="10" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="60" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-    </row>
-    <row r="10" spans="1:22" s="41" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="47" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+    </row>
+    <row r="11" spans="1:22" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="80"/>
+      <c r="B11" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C11" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D11" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
+      <c r="E11" s="80"/>
+      <c r="F11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G11" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I11" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J11" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="50" t="s">
+      <c r="K11" s="80"/>
+      <c r="L11" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M11" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-    </row>
-    <row r="11" spans="1:22" s="58" customFormat="1" ht="12.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="N11" s="80"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+    </row>
+    <row r="12" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="60" t="s">
+      <c r="K12" s="35"/>
+      <c r="L12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-    </row>
-    <row r="12" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A12" s="42"/>
-      <c r="B12" s="47" t="s">
+      <c r="N12" s="35"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+    </row>
+    <row r="13" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A13" s="80"/>
+      <c r="B13" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C13" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D13" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="E13" s="80"/>
+      <c r="F13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G13" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H13" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I13" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J13" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="50" t="s">
+      <c r="K13" s="80"/>
+      <c r="L13" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M13" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-    </row>
-    <row r="13" spans="1:22" ht="12.5">
-      <c r="A13" s="76" t="s">
+      <c r="N13" s="80"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.5">
+      <c r="A14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="12.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="15"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1858,40 +1945,40 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="12.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="7"/>
+      <c r="I16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="15"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1902,40 +1989,40 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="12.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="16" t="s">
+      <c r="I17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1946,40 +2033,40 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="12.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="I18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1990,40 +2077,40 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="12.5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="16" t="s">
+      <c r="I19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="15"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2034,40 +2121,40 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="12.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="I20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2078,40 +2165,40 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="12.5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M21" s="16" t="s">
+      <c r="I21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="15"/>
+      <c r="N21" s="7"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2122,40 +2209,40 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="12.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M22" s="9" t="s">
+      <c r="I22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2166,40 +2253,40 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="12.5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="16" t="s">
+      <c r="I23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="15"/>
+      <c r="N23" s="7"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2210,22 +2297,40 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="12.5">
-      <c r="A24" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="15"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2236,40 +2341,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="12.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="7"/>
+      <c r="A25" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2279,137 +2366,155 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="12.5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A26" s="73"/>
+      <c r="B26" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="73"/>
+      <c r="L26" s="76">
+        <v>20488</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="73"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+    </row>
+    <row r="27" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="49"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+    </row>
+    <row r="28" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D28" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G28" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H28" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I28" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J28" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="20" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M28" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" ht="12.5">
-      <c r="A27" s="76" t="s">
+      <c r="N28" s="42"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.5">
+      <c r="A29" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" ht="12.5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" ht="12.5">
-      <c r="A29" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2420,40 +2525,40 @@
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22" ht="12.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" s="26" t="s">
+      <c r="I30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="24" t="s">
-        <v>156</v>
-      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2463,365 +2568,351 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" s="70" customFormat="1" ht="12.5">
-      <c r="A31" s="65"/>
-      <c r="B31" s="54" t="s">
+    <row r="31" spans="1:22" ht="12.5">
+      <c r="A31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.5">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:22" s="68" customFormat="1" ht="12.5">
+      <c r="A33" s="63"/>
+      <c r="B33" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C33" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="54" t="s">
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G33" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H33" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="54" t="s">
+      <c r="I33" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J33" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="K31" s="68"/>
-      <c r="L31" s="56">
+      <c r="K33" s="66"/>
+      <c r="L33" s="54">
         <v>1266</v>
       </c>
-      <c r="M31" s="69" t="s">
+      <c r="M33" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="67"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-    </row>
-    <row r="32" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="61" t="s">
+      <c r="N33" s="65"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+    </row>
+    <row r="34" spans="1:22" s="41" customFormat="1" ht="12.5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D34" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42" t="s">
+      <c r="E34" s="42"/>
+      <c r="F34" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G34" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H34" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I34" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J34" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="50">
+      <c r="K34" s="61"/>
+      <c r="L34" s="48">
         <v>280</v>
       </c>
-      <c r="M32" s="43" t="s">
+      <c r="M34" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-    </row>
-    <row r="33" spans="1:22" s="58" customFormat="1" ht="12.5">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51" t="s">
+      <c r="N34" s="42"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+    </row>
+    <row r="35" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C35" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D35" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51" t="s">
+      <c r="E35" s="49"/>
+      <c r="F35" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G35" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="I35" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J35" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="53">
+      <c r="K35" s="69"/>
+      <c r="L35" s="51">
         <v>2304</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="M35" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-    </row>
-    <row r="34" spans="1:22" ht="12.5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12" t="s">
+      <c r="N35" s="49"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+    </row>
+    <row r="36" spans="1:22" ht="12.5">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="12" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J36" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="14">
+      <c r="K36" s="27"/>
+      <c r="L36" s="14">
         <v>5850</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" s="70" customFormat="1" ht="12.5">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54" t="s">
+      <c r="N36" s="7"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" s="68" customFormat="1" ht="12.5">
+      <c r="A37" s="49"/>
+      <c r="B37" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C37" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="54" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G37" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H37" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I37" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="J35" s="55" t="s">
+      <c r="J37" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="56">
+      <c r="K37" s="69"/>
+      <c r="L37" s="54">
         <v>4376</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="M37" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-    </row>
-    <row r="36" spans="1:22" ht="12.5">
-      <c r="A36" s="76" t="s">
+      <c r="N37" s="49"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+    </row>
+    <row r="38" spans="1:22" ht="12.5">
+      <c r="A38" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-    </row>
-    <row r="37" spans="1:22" ht="12.5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="28" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="12.5">
+      <c r="A39" s="7"/>
+      <c r="B39" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>172</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" s="70" customFormat="1" ht="12.5">
-      <c r="A38" s="51"/>
-      <c r="B38" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="J38" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="56">
-        <v>392</v>
-      </c>
-      <c r="M38" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-    </row>
-    <row r="39" spans="1:22" s="4" customFormat="1" ht="12.5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>226</v>
+      <c r="F39" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>231</v>
+      <c r="I39" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>176</v>
       </c>
       <c r="K39" s="27"/>
-      <c r="L39" s="14">
-        <v>41306</v>
+      <c r="L39" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2831,138 +2922,149 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="12.5">
-      <c r="A40" s="76" t="s">
+    <row r="40" spans="1:22" s="56" customFormat="1" ht="12.5">
+      <c r="A40" s="49"/>
+      <c r="B40" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+    </row>
+    <row r="41" spans="1:22" s="89" customFormat="1" ht="12.5">
+      <c r="A41" s="35"/>
+      <c r="B41" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="K41" s="88"/>
+      <c r="L41" s="45">
+        <v>392</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="35"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+    </row>
+    <row r="42" spans="1:22" s="68" customFormat="1" ht="12.5">
+      <c r="A42" s="49"/>
+      <c r="B42" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K42" s="69"/>
+      <c r="L42" s="54">
+        <v>41306</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="49"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+    </row>
+    <row r="43" spans="1:22" ht="12.5">
+      <c r="A43" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.5">
-      <c r="A41" s="7"/>
-      <c r="B41" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" ht="12.5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="18">
-        <v>2019</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.5">
-      <c r="A43" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -2972,109 +3074,152 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" s="4" customFormat="1" ht="12.5">
-      <c r="A44" s="34"/>
-      <c r="B44" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>222</v>
+    <row r="44" spans="1:22" ht="12.5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="14">
-        <v>4957</v>
+      <c r="I44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="N44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" ht="12.5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="18">
+        <v>2019</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="15"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="12.5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" ht="12.5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="A46" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" s="4" customFormat="1" ht="12.5">
+      <c r="A47" s="34"/>
+      <c r="B47" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="14">
+        <v>4957</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="34"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -24732,17 +24877,89 @@
       <c r="U949" s="1"/>
       <c r="V949" s="1"/>
     </row>
+    <row r="950" spans="1:22" ht="12.5">
+      <c r="A950" s="1"/>
+      <c r="B950" s="1"/>
+      <c r="C950" s="1"/>
+      <c r="D950" s="1"/>
+      <c r="E950" s="1"/>
+      <c r="F950" s="1"/>
+      <c r="G950" s="1"/>
+      <c r="H950" s="1"/>
+      <c r="I950" s="1"/>
+      <c r="J950" s="1"/>
+      <c r="K950" s="1"/>
+      <c r="L950" s="1"/>
+      <c r="M950" s="1"/>
+      <c r="N950" s="1"/>
+      <c r="O950" s="1"/>
+      <c r="P950" s="1"/>
+      <c r="Q950" s="1"/>
+      <c r="R950" s="1"/>
+      <c r="S950" s="1"/>
+      <c r="T950" s="1"/>
+      <c r="U950" s="1"/>
+      <c r="V950" s="1"/>
+    </row>
+    <row r="951" spans="1:22" ht="12.5">
+      <c r="A951" s="1"/>
+      <c r="B951" s="1"/>
+      <c r="C951" s="1"/>
+      <c r="D951" s="1"/>
+      <c r="E951" s="1"/>
+      <c r="F951" s="1"/>
+      <c r="G951" s="1"/>
+      <c r="H951" s="1"/>
+      <c r="I951" s="1"/>
+      <c r="J951" s="1"/>
+      <c r="K951" s="1"/>
+      <c r="L951" s="1"/>
+      <c r="M951" s="1"/>
+      <c r="N951" s="1"/>
+      <c r="O951" s="1"/>
+      <c r="P951" s="1"/>
+      <c r="Q951" s="1"/>
+      <c r="R951" s="1"/>
+      <c r="S951" s="1"/>
+      <c r="T951" s="1"/>
+      <c r="U951" s="1"/>
+      <c r="V951" s="1"/>
+    </row>
+    <row r="952" spans="1:22" ht="12.5">
+      <c r="A952" s="1"/>
+      <c r="B952" s="1"/>
+      <c r="C952" s="1"/>
+      <c r="D952" s="1"/>
+      <c r="E952" s="1"/>
+      <c r="F952" s="1"/>
+      <c r="G952" s="1"/>
+      <c r="H952" s="1"/>
+      <c r="I952" s="1"/>
+      <c r="J952" s="1"/>
+      <c r="K952" s="1"/>
+      <c r="L952" s="1"/>
+      <c r="M952" s="1"/>
+      <c r="N952" s="1"/>
+      <c r="O952" s="1"/>
+      <c r="P952" s="1"/>
+      <c r="Q952" s="1"/>
+      <c r="R952" s="1"/>
+      <c r="S952" s="1"/>
+      <c r="T952" s="1"/>
+      <c r="U952" s="1"/>
+      <c r="V952" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A38:N38"/>
     <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A46:N46"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41107968-3B36-49D1-9B12-1A6FD06F1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69896A39-81A7-41EB-A152-AC1DDB1A8F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,10 +1308,10 @@
   <dimension ref="A1:V952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.6328125" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" customWidth="1"/>
@@ -3229,7 +3229,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.5">
+    <row r="48" spans="1:22" ht="12.5" hidden="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3253,7 +3253,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:22" ht="12.5">
+    <row r="49" spans="1:22" ht="12.5" hidden="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3277,7 +3277,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="1:22" ht="12.5">
+    <row r="50" spans="1:22" ht="12.5" hidden="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3301,7 +3301,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" ht="12.5">
+    <row r="51" spans="1:22" ht="12.5" hidden="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3325,7 +3325,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:22" ht="12.5">
+    <row r="52" spans="1:22" ht="12.5" hidden="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3349,7 +3349,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:22" ht="12.5">
+    <row r="53" spans="1:22" ht="12.5" hidden="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3373,7 +3373,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:22" ht="12.5">
+    <row r="54" spans="1:22" ht="12.5" hidden="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3397,7 +3397,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22" ht="12.5">
+    <row r="55" spans="1:22" ht="12.5" hidden="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3421,7 +3421,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="1:22" ht="12.5">
+    <row r="56" spans="1:22" ht="12.5" hidden="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3445,7 +3445,7 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="1:22" ht="12.5">
+    <row r="57" spans="1:22" ht="12.5" hidden="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3469,7 +3469,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="1:22" ht="12.5">
+    <row r="58" spans="1:22" ht="12.5" hidden="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3493,7 +3493,7 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="1:22" ht="12.5">
+    <row r="59" spans="1:22" ht="12.5" hidden="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3517,7 +3517,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" ht="12.5">
+    <row r="60" spans="1:22" ht="12.5" hidden="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3541,7 +3541,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:22" ht="12.5">
+    <row r="61" spans="1:22" ht="12.5" hidden="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3565,7 +3565,7 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22" ht="12.5">
+    <row r="62" spans="1:22" ht="12.5" hidden="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3589,7 +3589,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="1:22" ht="12.5">
+    <row r="63" spans="1:22" ht="12.5" hidden="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3613,7 +3613,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="1:22" ht="12.5">
+    <row r="64" spans="1:22" ht="12.5" hidden="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3637,7 +3637,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="1:22" ht="12.5">
+    <row r="65" spans="1:22" ht="12.5" hidden="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3661,7 +3661,7 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="1:22" ht="12.5">
+    <row r="66" spans="1:22" ht="12.5" hidden="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3685,7 +3685,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" ht="12.5">
+    <row r="67" spans="1:22" ht="12.5" hidden="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="1:22" ht="12.5">
+    <row r="68" spans="1:22" ht="12.5" hidden="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69" spans="1:22" ht="12.5">
+    <row r="69" spans="1:22" ht="12.5" hidden="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3757,7 +3757,7 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70" spans="1:22" ht="12.5">
+    <row r="70" spans="1:22" ht="12.5" hidden="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3781,7 +3781,7 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71" spans="1:22" ht="12.5">
+    <row r="71" spans="1:22" ht="12.5" hidden="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3805,7 +3805,7 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72" spans="1:22" ht="12.5">
+    <row r="72" spans="1:22" ht="12.5" hidden="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73" spans="1:22" ht="12.5">
+    <row r="73" spans="1:22" ht="12.5" hidden="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3853,7 +3853,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" spans="1:22" ht="12.5">
+    <row r="74" spans="1:22" ht="12.5" hidden="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="12.5">
+    <row r="75" spans="1:22" ht="12.5" hidden="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3901,7 +3901,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="12.5">
+    <row r="76" spans="1:22" ht="12.5" hidden="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3925,7 +3925,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:22" ht="12.5">
+    <row r="77" spans="1:22" ht="12.5" hidden="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3949,7 +3949,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22" ht="12.5">
+    <row r="78" spans="1:22" ht="12.5" hidden="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3973,7 +3973,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:22" ht="12.5">
+    <row r="79" spans="1:22" ht="12.5" hidden="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3997,7 +3997,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:22" ht="12.5">
+    <row r="80" spans="1:22" ht="12.5" hidden="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4021,7 +4021,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81" spans="1:22" ht="12.5">
+    <row r="81" spans="1:22" ht="12.5" hidden="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4045,7 +4045,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="1:22" ht="12.5">
+    <row r="82" spans="1:22" ht="12.5" hidden="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4069,7 +4069,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83" spans="1:22" ht="12.5">
+    <row r="83" spans="1:22" ht="12.5" hidden="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4093,7 +4093,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84" spans="1:22" ht="12.5">
+    <row r="84" spans="1:22" ht="12.5" hidden="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4117,7 +4117,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:22" ht="12.5">
+    <row r="85" spans="1:22" ht="12.5" hidden="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4141,7 +4141,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:22" ht="12.5">
+    <row r="86" spans="1:22" ht="12.5" hidden="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4165,7 +4165,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87" spans="1:22" ht="12.5">
+    <row r="87" spans="1:22" ht="12.5" hidden="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4189,7 +4189,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:22" ht="12.5">
+    <row r="88" spans="1:22" ht="12.5" hidden="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4213,7 +4213,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="1:22" ht="12.5">
+    <row r="89" spans="1:22" ht="12.5" hidden="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4237,7 +4237,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="1:22" ht="12.5">
+    <row r="90" spans="1:22" ht="12.5" hidden="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4261,7 +4261,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="1:22" ht="12.5">
+    <row r="91" spans="1:22" ht="12.5" hidden="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4285,7 +4285,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="1:22" ht="12.5">
+    <row r="92" spans="1:22" ht="12.5" hidden="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4309,7 +4309,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="1:22" ht="12.5">
+    <row r="93" spans="1:22" ht="12.5" hidden="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4333,7 +4333,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="1:22" ht="12.5">
+    <row r="94" spans="1:22" ht="12.5" hidden="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4357,7 +4357,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95" spans="1:22" ht="12.5">
+    <row r="95" spans="1:22" ht="12.5" hidden="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4381,7 +4381,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
     </row>
-    <row r="96" spans="1:22" ht="12.5">
+    <row r="96" spans="1:22" ht="12.5" hidden="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4405,7 +4405,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
     </row>
-    <row r="97" spans="1:22" ht="12.5">
+    <row r="97" spans="1:22" ht="12.5" hidden="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4429,7 +4429,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
     </row>
-    <row r="98" spans="1:22" ht="12.5">
+    <row r="98" spans="1:22" ht="12.5" hidden="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4453,7 +4453,7 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
     </row>
-    <row r="99" spans="1:22" ht="12.5">
+    <row r="99" spans="1:22" ht="12.5" hidden="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4477,7 +4477,7 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
     </row>
-    <row r="100" spans="1:22" ht="12.5">
+    <row r="100" spans="1:22" ht="12.5" hidden="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4501,7 +4501,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
     </row>
-    <row r="101" spans="1:22" ht="12.5">
+    <row r="101" spans="1:22" ht="12.5" hidden="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4525,7 +4525,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
     </row>
-    <row r="102" spans="1:22" ht="12.5">
+    <row r="102" spans="1:22" ht="12.5" hidden="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
     </row>
-    <row r="103" spans="1:22" ht="12.5">
+    <row r="103" spans="1:22" ht="12.5" hidden="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4573,7 +4573,7 @@
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
     </row>
-    <row r="104" spans="1:22" ht="12.5">
+    <row r="104" spans="1:22" ht="12.5" hidden="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4597,7 +4597,7 @@
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
     </row>
-    <row r="105" spans="1:22" ht="12.5">
+    <row r="105" spans="1:22" ht="12.5" hidden="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4621,7 +4621,7 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
     </row>
-    <row r="106" spans="1:22" ht="12.5">
+    <row r="106" spans="1:22" ht="12.5" hidden="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4645,7 +4645,7 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
     </row>
-    <row r="107" spans="1:22" ht="12.5">
+    <row r="107" spans="1:22" ht="12.5" hidden="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4669,7 +4669,7 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
     </row>
-    <row r="108" spans="1:22" ht="12.5">
+    <row r="108" spans="1:22" ht="12.5" hidden="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4693,7 +4693,7 @@
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
     </row>
-    <row r="109" spans="1:22" ht="12.5">
+    <row r="109" spans="1:22" ht="12.5" hidden="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4717,7 +4717,7 @@
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
     </row>
-    <row r="110" spans="1:22" ht="12.5">
+    <row r="110" spans="1:22" ht="12.5" hidden="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4741,7 +4741,7 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
     </row>
-    <row r="111" spans="1:22" ht="12.5">
+    <row r="111" spans="1:22" ht="12.5" hidden="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4765,7 +4765,7 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
     </row>
-    <row r="112" spans="1:22" ht="12.5">
+    <row r="112" spans="1:22" ht="12.5" hidden="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4789,7 +4789,7 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
     </row>
-    <row r="113" spans="1:22" ht="12.5">
+    <row r="113" spans="1:22" ht="12.5" hidden="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4813,7 +4813,7 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
     </row>
-    <row r="114" spans="1:22" ht="12.5">
+    <row r="114" spans="1:22" ht="12.5" hidden="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4837,7 +4837,7 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
     </row>
-    <row r="115" spans="1:22" ht="12.5">
+    <row r="115" spans="1:22" ht="12.5" hidden="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
     </row>
-    <row r="116" spans="1:22" ht="12.5">
+    <row r="116" spans="1:22" ht="12.5" hidden="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4885,7 +4885,7 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
     </row>
-    <row r="117" spans="1:22" ht="12.5">
+    <row r="117" spans="1:22" ht="12.5" hidden="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4909,7 +4909,7 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
     </row>
-    <row r="118" spans="1:22" ht="12.5">
+    <row r="118" spans="1:22" ht="12.5" hidden="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4933,7 +4933,7 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
     </row>
-    <row r="119" spans="1:22" ht="12.5">
+    <row r="119" spans="1:22" ht="12.5" hidden="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4957,7 +4957,7 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
     </row>
-    <row r="120" spans="1:22" ht="12.5">
+    <row r="120" spans="1:22" ht="12.5" hidden="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4981,7 +4981,7 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
     </row>
-    <row r="121" spans="1:22" ht="12.5">
+    <row r="121" spans="1:22" ht="12.5" hidden="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5005,7 +5005,7 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" spans="1:22" ht="12.5">
+    <row r="122" spans="1:22" ht="12.5" hidden="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5029,7 +5029,7 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123" spans="1:22" ht="12.5">
+    <row r="123" spans="1:22" ht="12.5" hidden="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5053,7 +5053,7 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
     </row>
-    <row r="124" spans="1:22" ht="12.5">
+    <row r="124" spans="1:22" ht="12.5" hidden="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5077,7 +5077,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" ht="12.5">
+    <row r="125" spans="1:22" ht="12.5" hidden="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5101,7 +5101,7 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
     </row>
-    <row r="126" spans="1:22" ht="12.5">
+    <row r="126" spans="1:22" ht="12.5" hidden="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5125,7 +5125,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" spans="1:22" ht="12.5">
+    <row r="127" spans="1:22" ht="12.5" hidden="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5149,7 +5149,7 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
     </row>
-    <row r="128" spans="1:22" ht="12.5">
+    <row r="128" spans="1:22" ht="12.5" hidden="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5173,7 +5173,7 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
     </row>
-    <row r="129" spans="1:22" ht="12.5">
+    <row r="129" spans="1:22" ht="12.5" hidden="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5197,7 +5197,7 @@
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
     </row>
-    <row r="130" spans="1:22" ht="12.5">
+    <row r="130" spans="1:22" ht="12.5" hidden="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5221,7 +5221,7 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
     </row>
-    <row r="131" spans="1:22" ht="12.5">
+    <row r="131" spans="1:22" ht="12.5" hidden="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5245,7 +5245,7 @@
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
     </row>
-    <row r="132" spans="1:22" ht="12.5">
+    <row r="132" spans="1:22" ht="12.5" hidden="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5269,7 +5269,7 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
     </row>
-    <row r="133" spans="1:22" ht="12.5">
+    <row r="133" spans="1:22" ht="12.5" hidden="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5293,7 +5293,7 @@
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
     </row>
-    <row r="134" spans="1:22" ht="12.5">
+    <row r="134" spans="1:22" ht="12.5" hidden="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5317,7 +5317,7 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
     </row>
-    <row r="135" spans="1:22" ht="12.5">
+    <row r="135" spans="1:22" ht="12.5" hidden="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5341,7 +5341,7 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
     </row>
-    <row r="136" spans="1:22" ht="12.5">
+    <row r="136" spans="1:22" ht="12.5" hidden="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5365,7 +5365,7 @@
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
     </row>
-    <row r="137" spans="1:22" ht="12.5">
+    <row r="137" spans="1:22" ht="12.5" hidden="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5389,7 +5389,7 @@
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
     </row>
-    <row r="138" spans="1:22" ht="12.5">
+    <row r="138" spans="1:22" ht="12.5" hidden="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5413,7 +5413,7 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
     </row>
-    <row r="139" spans="1:22" ht="12.5">
+    <row r="139" spans="1:22" ht="12.5" hidden="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5437,7 +5437,7 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
     </row>
-    <row r="140" spans="1:22" ht="12.5">
+    <row r="140" spans="1:22" ht="12.5" hidden="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5461,7 +5461,7 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
     </row>
-    <row r="141" spans="1:22" ht="12.5">
+    <row r="141" spans="1:22" ht="12.5" hidden="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5485,7 +5485,7 @@
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
     </row>
-    <row r="142" spans="1:22" ht="12.5">
+    <row r="142" spans="1:22" ht="12.5" hidden="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5509,7 +5509,7 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
     </row>
-    <row r="143" spans="1:22" ht="12.5">
+    <row r="143" spans="1:22" ht="12.5" hidden="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5533,7 +5533,7 @@
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
     </row>
-    <row r="144" spans="1:22" ht="12.5">
+    <row r="144" spans="1:22" ht="12.5" hidden="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5557,7 +5557,7 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
     </row>
-    <row r="145" spans="1:22" ht="12.5">
+    <row r="145" spans="1:22" ht="12.5" hidden="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5581,7 +5581,7 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
     </row>
-    <row r="146" spans="1:22" ht="12.5">
+    <row r="146" spans="1:22" ht="12.5" hidden="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5605,7 +5605,7 @@
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
     </row>
-    <row r="147" spans="1:22" ht="12.5">
+    <row r="147" spans="1:22" ht="12.5" hidden="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5629,7 +5629,7 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
     </row>
-    <row r="148" spans="1:22" ht="12.5">
+    <row r="148" spans="1:22" ht="12.5" hidden="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5653,7 +5653,7 @@
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
     </row>
-    <row r="149" spans="1:22" ht="12.5">
+    <row r="149" spans="1:22" ht="12.5" hidden="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5677,7 +5677,7 @@
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
     </row>
-    <row r="150" spans="1:22" ht="12.5">
+    <row r="150" spans="1:22" ht="12.5" hidden="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5701,7 +5701,7 @@
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
     </row>
-    <row r="151" spans="1:22" ht="12.5">
+    <row r="151" spans="1:22" ht="12.5" hidden="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5725,7 +5725,7 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
     </row>
-    <row r="152" spans="1:22" ht="12.5">
+    <row r="152" spans="1:22" ht="12.5" hidden="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
     </row>
-    <row r="153" spans="1:22" ht="12.5">
+    <row r="153" spans="1:22" ht="12.5" hidden="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5773,7 +5773,7 @@
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
     </row>
-    <row r="154" spans="1:22" ht="12.5">
+    <row r="154" spans="1:22" ht="12.5" hidden="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5797,7 +5797,7 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
     </row>
-    <row r="155" spans="1:22" ht="12.5">
+    <row r="155" spans="1:22" ht="12.5" hidden="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5821,7 +5821,7 @@
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
     </row>
-    <row r="156" spans="1:22" ht="12.5">
+    <row r="156" spans="1:22" ht="12.5" hidden="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5845,7 +5845,7 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
     </row>
-    <row r="157" spans="1:22" ht="12.5">
+    <row r="157" spans="1:22" ht="12.5" hidden="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5869,7 +5869,7 @@
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
     </row>
-    <row r="158" spans="1:22" ht="12.5">
+    <row r="158" spans="1:22" ht="12.5" hidden="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5893,7 +5893,7 @@
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
     </row>
-    <row r="159" spans="1:22" ht="12.5">
+    <row r="159" spans="1:22" ht="12.5" hidden="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5917,7 +5917,7 @@
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
     </row>
-    <row r="160" spans="1:22" ht="12.5">
+    <row r="160" spans="1:22" ht="12.5" hidden="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5941,7 +5941,7 @@
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
     </row>
-    <row r="161" spans="1:22" ht="12.5">
+    <row r="161" spans="1:22" ht="12.5" hidden="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5965,7 +5965,7 @@
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
     </row>
-    <row r="162" spans="1:22" ht="12.5">
+    <row r="162" spans="1:22" ht="12.5" hidden="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5989,7 +5989,7 @@
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
     </row>
-    <row r="163" spans="1:22" ht="12.5">
+    <row r="163" spans="1:22" ht="12.5" hidden="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6013,7 +6013,7 @@
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
     </row>
-    <row r="164" spans="1:22" ht="12.5">
+    <row r="164" spans="1:22" ht="12.5" hidden="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6037,7 +6037,7 @@
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
     </row>
-    <row r="165" spans="1:22" ht="12.5">
+    <row r="165" spans="1:22" ht="12.5" hidden="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6061,7 +6061,7 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
     </row>
-    <row r="166" spans="1:22" ht="12.5">
+    <row r="166" spans="1:22" ht="12.5" hidden="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6085,7 +6085,7 @@
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
     </row>
-    <row r="167" spans="1:22" ht="12.5">
+    <row r="167" spans="1:22" ht="12.5" hidden="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6109,7 +6109,7 @@
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
     </row>
-    <row r="168" spans="1:22" ht="12.5">
+    <row r="168" spans="1:22" ht="12.5" hidden="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6133,7 +6133,7 @@
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
     </row>
-    <row r="169" spans="1:22" ht="12.5">
+    <row r="169" spans="1:22" ht="12.5" hidden="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6157,7 +6157,7 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
     </row>
-    <row r="170" spans="1:22" ht="12.5">
+    <row r="170" spans="1:22" ht="12.5" hidden="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6181,7 +6181,7 @@
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
     </row>
-    <row r="171" spans="1:22" ht="12.5">
+    <row r="171" spans="1:22" ht="12.5" hidden="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6205,7 +6205,7 @@
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
     </row>
-    <row r="172" spans="1:22" ht="12.5">
+    <row r="172" spans="1:22" ht="12.5" hidden="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6229,7 +6229,7 @@
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
     </row>
-    <row r="173" spans="1:22" ht="12.5">
+    <row r="173" spans="1:22" ht="12.5" hidden="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6253,7 +6253,7 @@
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
     </row>
-    <row r="174" spans="1:22" ht="12.5">
+    <row r="174" spans="1:22" ht="12.5" hidden="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6277,7 +6277,7 @@
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
     </row>
-    <row r="175" spans="1:22" ht="12.5">
+    <row r="175" spans="1:22" ht="12.5" hidden="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6301,7 +6301,7 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
     </row>
-    <row r="176" spans="1:22" ht="12.5">
+    <row r="176" spans="1:22" ht="12.5" hidden="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6325,7 +6325,7 @@
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
     </row>
-    <row r="177" spans="1:22" ht="12.5">
+    <row r="177" spans="1:22" ht="12.5" hidden="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6349,7 +6349,7 @@
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
     </row>
-    <row r="178" spans="1:22" ht="12.5">
+    <row r="178" spans="1:22" ht="12.5" hidden="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6373,7 +6373,7 @@
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
     </row>
-    <row r="179" spans="1:22" ht="12.5">
+    <row r="179" spans="1:22" ht="12.5" hidden="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6397,7 +6397,7 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
     </row>
-    <row r="180" spans="1:22" ht="12.5">
+    <row r="180" spans="1:22" ht="12.5" hidden="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6421,7 +6421,7 @@
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
     </row>
-    <row r="181" spans="1:22" ht="12.5">
+    <row r="181" spans="1:22" ht="12.5" hidden="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6445,7 +6445,7 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
     </row>
-    <row r="182" spans="1:22" ht="12.5">
+    <row r="182" spans="1:22" ht="12.5" hidden="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6469,7 +6469,7 @@
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
     </row>
-    <row r="183" spans="1:22" ht="12.5">
+    <row r="183" spans="1:22" ht="12.5" hidden="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6493,7 +6493,7 @@
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
     </row>
-    <row r="184" spans="1:22" ht="12.5">
+    <row r="184" spans="1:22" ht="12.5" hidden="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6517,7 +6517,7 @@
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
     </row>
-    <row r="185" spans="1:22" ht="12.5">
+    <row r="185" spans="1:22" ht="12.5" hidden="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6541,7 +6541,7 @@
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
     </row>
-    <row r="186" spans="1:22" ht="12.5">
+    <row r="186" spans="1:22" ht="12.5" hidden="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6565,7 +6565,7 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
     </row>
-    <row r="187" spans="1:22" ht="12.5">
+    <row r="187" spans="1:22" ht="12.5" hidden="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6589,7 +6589,7 @@
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
     </row>
-    <row r="188" spans="1:22" ht="12.5">
+    <row r="188" spans="1:22" ht="12.5" hidden="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6613,7 +6613,7 @@
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
     </row>
-    <row r="189" spans="1:22" ht="12.5">
+    <row r="189" spans="1:22" ht="12.5" hidden="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6637,7 +6637,7 @@
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
     </row>
-    <row r="190" spans="1:22" ht="12.5">
+    <row r="190" spans="1:22" ht="12.5" hidden="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6661,7 +6661,7 @@
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
     </row>
-    <row r="191" spans="1:22" ht="12.5">
+    <row r="191" spans="1:22" ht="12.5" hidden="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6685,7 +6685,7 @@
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
     </row>
-    <row r="192" spans="1:22" ht="12.5">
+    <row r="192" spans="1:22" ht="12.5" hidden="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6709,7 +6709,7 @@
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
     </row>
-    <row r="193" spans="1:22" ht="12.5">
+    <row r="193" spans="1:22" ht="12.5" hidden="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6733,7 +6733,7 @@
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
     </row>
-    <row r="194" spans="1:22" ht="12.5">
+    <row r="194" spans="1:22" ht="12.5" hidden="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6757,7 +6757,7 @@
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
     </row>
-    <row r="195" spans="1:22" ht="12.5">
+    <row r="195" spans="1:22" ht="12.5" hidden="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6781,7 +6781,7 @@
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
     </row>
-    <row r="196" spans="1:22" ht="12.5">
+    <row r="196" spans="1:22" ht="12.5" hidden="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6805,7 +6805,7 @@
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
     </row>
-    <row r="197" spans="1:22" ht="12.5">
+    <row r="197" spans="1:22" ht="12.5" hidden="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6829,7 +6829,7 @@
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
     </row>
-    <row r="198" spans="1:22" ht="12.5">
+    <row r="198" spans="1:22" ht="12.5" hidden="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6853,7 +6853,7 @@
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
     </row>
-    <row r="199" spans="1:22" ht="12.5">
+    <row r="199" spans="1:22" ht="12.5" hidden="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6877,7 +6877,7 @@
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
     </row>
-    <row r="200" spans="1:22" ht="12.5">
+    <row r="200" spans="1:22" ht="12.5" hidden="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6901,7 +6901,7 @@
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
     </row>
-    <row r="201" spans="1:22" ht="12.5">
+    <row r="201" spans="1:22" ht="12.5" hidden="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6925,7 +6925,7 @@
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
     </row>
-    <row r="202" spans="1:22" ht="12.5">
+    <row r="202" spans="1:22" ht="12.5" hidden="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6949,7 +6949,7 @@
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
     </row>
-    <row r="203" spans="1:22" ht="12.5">
+    <row r="203" spans="1:22" ht="12.5" hidden="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6973,7 +6973,7 @@
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
     </row>
-    <row r="204" spans="1:22" ht="12.5">
+    <row r="204" spans="1:22" ht="12.5" hidden="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6997,7 +6997,7 @@
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
     </row>
-    <row r="205" spans="1:22" ht="12.5">
+    <row r="205" spans="1:22" ht="12.5" hidden="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7021,7 +7021,7 @@
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
     </row>
-    <row r="206" spans="1:22" ht="12.5">
+    <row r="206" spans="1:22" ht="12.5" hidden="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7045,7 +7045,7 @@
       <c r="U206" s="1"/>
       <c r="V206" s="1"/>
     </row>
-    <row r="207" spans="1:22" ht="12.5">
+    <row r="207" spans="1:22" ht="12.5" hidden="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7069,7 +7069,7 @@
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
     </row>
-    <row r="208" spans="1:22" ht="12.5">
+    <row r="208" spans="1:22" ht="12.5" hidden="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7093,7 +7093,7 @@
       <c r="U208" s="1"/>
       <c r="V208" s="1"/>
     </row>
-    <row r="209" spans="1:22" ht="12.5">
+    <row r="209" spans="1:22" ht="12.5" hidden="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7117,7 +7117,7 @@
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
     </row>
-    <row r="210" spans="1:22" ht="12.5">
+    <row r="210" spans="1:22" ht="12.5" hidden="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7141,7 +7141,7 @@
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
     </row>
-    <row r="211" spans="1:22" ht="12.5">
+    <row r="211" spans="1:22" ht="12.5" hidden="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7165,7 +7165,7 @@
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
     </row>
-    <row r="212" spans="1:22" ht="12.5">
+    <row r="212" spans="1:22" ht="12.5" hidden="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7189,7 +7189,7 @@
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
     </row>
-    <row r="213" spans="1:22" ht="12.5">
+    <row r="213" spans="1:22" ht="12.5" hidden="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7213,7 +7213,7 @@
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
     </row>
-    <row r="214" spans="1:22" ht="12.5">
+    <row r="214" spans="1:22" ht="12.5" hidden="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7237,7 +7237,7 @@
       <c r="U214" s="1"/>
       <c r="V214" s="1"/>
     </row>
-    <row r="215" spans="1:22" ht="12.5">
+    <row r="215" spans="1:22" ht="12.5" hidden="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7261,7 +7261,7 @@
       <c r="U215" s="1"/>
       <c r="V215" s="1"/>
     </row>
-    <row r="216" spans="1:22" ht="12.5">
+    <row r="216" spans="1:22" ht="12.5" hidden="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7285,7 +7285,7 @@
       <c r="U216" s="1"/>
       <c r="V216" s="1"/>
     </row>
-    <row r="217" spans="1:22" ht="12.5">
+    <row r="217" spans="1:22" ht="12.5" hidden="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7309,7 +7309,7 @@
       <c r="U217" s="1"/>
       <c r="V217" s="1"/>
     </row>
-    <row r="218" spans="1:22" ht="12.5">
+    <row r="218" spans="1:22" ht="12.5" hidden="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7333,7 +7333,7 @@
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
     </row>
-    <row r="219" spans="1:22" ht="12.5">
+    <row r="219" spans="1:22" ht="12.5" hidden="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7357,7 +7357,7 @@
       <c r="U219" s="1"/>
       <c r="V219" s="1"/>
     </row>
-    <row r="220" spans="1:22" ht="12.5">
+    <row r="220" spans="1:22" ht="12.5" hidden="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7381,7 +7381,7 @@
       <c r="U220" s="1"/>
       <c r="V220" s="1"/>
     </row>
-    <row r="221" spans="1:22" ht="12.5">
+    <row r="221" spans="1:22" ht="12.5" hidden="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7405,7 +7405,7 @@
       <c r="U221" s="1"/>
       <c r="V221" s="1"/>
     </row>
-    <row r="222" spans="1:22" ht="12.5">
+    <row r="222" spans="1:22" ht="12.5" hidden="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7429,7 +7429,7 @@
       <c r="U222" s="1"/>
       <c r="V222" s="1"/>
     </row>
-    <row r="223" spans="1:22" ht="12.5">
+    <row r="223" spans="1:22" ht="12.5" hidden="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7453,7 +7453,7 @@
       <c r="U223" s="1"/>
       <c r="V223" s="1"/>
     </row>
-    <row r="224" spans="1:22" ht="12.5">
+    <row r="224" spans="1:22" ht="12.5" hidden="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7477,7 +7477,7 @@
       <c r="U224" s="1"/>
       <c r="V224" s="1"/>
     </row>
-    <row r="225" spans="1:22" ht="12.5">
+    <row r="225" spans="1:22" ht="12.5" hidden="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7501,7 +7501,7 @@
       <c r="U225" s="1"/>
       <c r="V225" s="1"/>
     </row>
-    <row r="226" spans="1:22" ht="12.5">
+    <row r="226" spans="1:22" ht="12.5" hidden="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7525,7 +7525,7 @@
       <c r="U226" s="1"/>
       <c r="V226" s="1"/>
     </row>
-    <row r="227" spans="1:22" ht="12.5">
+    <row r="227" spans="1:22" ht="12.5" hidden="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7549,7 +7549,7 @@
       <c r="U227" s="1"/>
       <c r="V227" s="1"/>
     </row>
-    <row r="228" spans="1:22" ht="12.5">
+    <row r="228" spans="1:22" ht="12.5" hidden="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7573,7 +7573,7 @@
       <c r="U228" s="1"/>
       <c r="V228" s="1"/>
     </row>
-    <row r="229" spans="1:22" ht="12.5">
+    <row r="229" spans="1:22" ht="12.5" hidden="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7597,7 +7597,7 @@
       <c r="U229" s="1"/>
       <c r="V229" s="1"/>
     </row>
-    <row r="230" spans="1:22" ht="12.5">
+    <row r="230" spans="1:22" ht="12.5" hidden="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7621,7 +7621,7 @@
       <c r="U230" s="1"/>
       <c r="V230" s="1"/>
     </row>
-    <row r="231" spans="1:22" ht="12.5">
+    <row r="231" spans="1:22" ht="12.5" hidden="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7645,7 +7645,7 @@
       <c r="U231" s="1"/>
       <c r="V231" s="1"/>
     </row>
-    <row r="232" spans="1:22" ht="12.5">
+    <row r="232" spans="1:22" ht="12.5" hidden="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7669,7 +7669,7 @@
       <c r="U232" s="1"/>
       <c r="V232" s="1"/>
     </row>
-    <row r="233" spans="1:22" ht="12.5">
+    <row r="233" spans="1:22" ht="12.5" hidden="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7693,7 +7693,7 @@
       <c r="U233" s="1"/>
       <c r="V233" s="1"/>
     </row>
-    <row r="234" spans="1:22" ht="12.5">
+    <row r="234" spans="1:22" ht="12.5" hidden="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7717,7 +7717,7 @@
       <c r="U234" s="1"/>
       <c r="V234" s="1"/>
     </row>
-    <row r="235" spans="1:22" ht="12.5">
+    <row r="235" spans="1:22" ht="12.5" hidden="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7741,7 +7741,7 @@
       <c r="U235" s="1"/>
       <c r="V235" s="1"/>
     </row>
-    <row r="236" spans="1:22" ht="12.5">
+    <row r="236" spans="1:22" ht="12.5" hidden="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7765,7 +7765,7 @@
       <c r="U236" s="1"/>
       <c r="V236" s="1"/>
     </row>
-    <row r="237" spans="1:22" ht="12.5">
+    <row r="237" spans="1:22" ht="12.5" hidden="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7789,7 +7789,7 @@
       <c r="U237" s="1"/>
       <c r="V237" s="1"/>
     </row>
-    <row r="238" spans="1:22" ht="12.5">
+    <row r="238" spans="1:22" ht="12.5" hidden="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7813,7 +7813,7 @@
       <c r="U238" s="1"/>
       <c r="V238" s="1"/>
     </row>
-    <row r="239" spans="1:22" ht="12.5">
+    <row r="239" spans="1:22" ht="12.5" hidden="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7837,7 +7837,7 @@
       <c r="U239" s="1"/>
       <c r="V239" s="1"/>
     </row>
-    <row r="240" spans="1:22" ht="12.5">
+    <row r="240" spans="1:22" ht="12.5" hidden="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7861,7 +7861,7 @@
       <c r="U240" s="1"/>
       <c r="V240" s="1"/>
     </row>
-    <row r="241" spans="1:22" ht="12.5">
+    <row r="241" spans="1:22" ht="12.5" hidden="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7885,7 +7885,7 @@
       <c r="U241" s="1"/>
       <c r="V241" s="1"/>
     </row>
-    <row r="242" spans="1:22" ht="12.5">
+    <row r="242" spans="1:22" ht="12.5" hidden="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7909,7 +7909,7 @@
       <c r="U242" s="1"/>
       <c r="V242" s="1"/>
     </row>
-    <row r="243" spans="1:22" ht="12.5">
+    <row r="243" spans="1:22" ht="12.5" hidden="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7933,7 +7933,7 @@
       <c r="U243" s="1"/>
       <c r="V243" s="1"/>
     </row>
-    <row r="244" spans="1:22" ht="12.5">
+    <row r="244" spans="1:22" ht="12.5" hidden="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7957,7 +7957,7 @@
       <c r="U244" s="1"/>
       <c r="V244" s="1"/>
     </row>
-    <row r="245" spans="1:22" ht="12.5">
+    <row r="245" spans="1:22" ht="12.5" hidden="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7981,7 +7981,7 @@
       <c r="U245" s="1"/>
       <c r="V245" s="1"/>
     </row>
-    <row r="246" spans="1:22" ht="12.5">
+    <row r="246" spans="1:22" ht="12.5" hidden="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8005,7 +8005,7 @@
       <c r="U246" s="1"/>
       <c r="V246" s="1"/>
     </row>
-    <row r="247" spans="1:22" ht="12.5">
+    <row r="247" spans="1:22" ht="12.5" hidden="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8029,7 +8029,7 @@
       <c r="U247" s="1"/>
       <c r="V247" s="1"/>
     </row>
-    <row r="248" spans="1:22" ht="12.5">
+    <row r="248" spans="1:22" ht="12.5" hidden="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8053,7 +8053,7 @@
       <c r="U248" s="1"/>
       <c r="V248" s="1"/>
     </row>
-    <row r="249" spans="1:22" ht="12.5">
+    <row r="249" spans="1:22" ht="12.5" hidden="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8077,7 +8077,7 @@
       <c r="U249" s="1"/>
       <c r="V249" s="1"/>
     </row>
-    <row r="250" spans="1:22" ht="12.5">
+    <row r="250" spans="1:22" ht="12.5" hidden="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8101,7 +8101,7 @@
       <c r="U250" s="1"/>
       <c r="V250" s="1"/>
     </row>
-    <row r="251" spans="1:22" ht="12.5">
+    <row r="251" spans="1:22" ht="12.5" hidden="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8125,7 +8125,7 @@
       <c r="U251" s="1"/>
       <c r="V251" s="1"/>
     </row>
-    <row r="252" spans="1:22" ht="12.5">
+    <row r="252" spans="1:22" ht="12.5" hidden="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8149,7 +8149,7 @@
       <c r="U252" s="1"/>
       <c r="V252" s="1"/>
     </row>
-    <row r="253" spans="1:22" ht="12.5">
+    <row r="253" spans="1:22" ht="12.5" hidden="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8173,7 +8173,7 @@
       <c r="U253" s="1"/>
       <c r="V253" s="1"/>
     </row>
-    <row r="254" spans="1:22" ht="12.5">
+    <row r="254" spans="1:22" ht="12.5" hidden="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8197,7 +8197,7 @@
       <c r="U254" s="1"/>
       <c r="V254" s="1"/>
     </row>
-    <row r="255" spans="1:22" ht="12.5">
+    <row r="255" spans="1:22" ht="12.5" hidden="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8221,7 +8221,7 @@
       <c r="U255" s="1"/>
       <c r="V255" s="1"/>
     </row>
-    <row r="256" spans="1:22" ht="12.5">
+    <row r="256" spans="1:22" ht="12.5" hidden="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8245,7 +8245,7 @@
       <c r="U256" s="1"/>
       <c r="V256" s="1"/>
     </row>
-    <row r="257" spans="1:22" ht="12.5">
+    <row r="257" spans="1:22" ht="12.5" hidden="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8269,7 +8269,7 @@
       <c r="U257" s="1"/>
       <c r="V257" s="1"/>
     </row>
-    <row r="258" spans="1:22" ht="12.5">
+    <row r="258" spans="1:22" ht="12.5" hidden="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8293,7 +8293,7 @@
       <c r="U258" s="1"/>
       <c r="V258" s="1"/>
     </row>
-    <row r="259" spans="1:22" ht="12.5">
+    <row r="259" spans="1:22" ht="12.5" hidden="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8317,7 +8317,7 @@
       <c r="U259" s="1"/>
       <c r="V259" s="1"/>
     </row>
-    <row r="260" spans="1:22" ht="12.5">
+    <row r="260" spans="1:22" ht="12.5" hidden="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8341,7 +8341,7 @@
       <c r="U260" s="1"/>
       <c r="V260" s="1"/>
     </row>
-    <row r="261" spans="1:22" ht="12.5">
+    <row r="261" spans="1:22" ht="12.5" hidden="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8365,7 +8365,7 @@
       <c r="U261" s="1"/>
       <c r="V261" s="1"/>
     </row>
-    <row r="262" spans="1:22" ht="12.5">
+    <row r="262" spans="1:22" ht="12.5" hidden="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8389,7 +8389,7 @@
       <c r="U262" s="1"/>
       <c r="V262" s="1"/>
     </row>
-    <row r="263" spans="1:22" ht="12.5">
+    <row r="263" spans="1:22" ht="12.5" hidden="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8413,7 +8413,7 @@
       <c r="U263" s="1"/>
       <c r="V263" s="1"/>
     </row>
-    <row r="264" spans="1:22" ht="12.5">
+    <row r="264" spans="1:22" ht="12.5" hidden="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8437,7 +8437,7 @@
       <c r="U264" s="1"/>
       <c r="V264" s="1"/>
     </row>
-    <row r="265" spans="1:22" ht="12.5">
+    <row r="265" spans="1:22" ht="12.5" hidden="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8461,7 +8461,7 @@
       <c r="U265" s="1"/>
       <c r="V265" s="1"/>
     </row>
-    <row r="266" spans="1:22" ht="12.5">
+    <row r="266" spans="1:22" ht="12.5" hidden="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8485,7 +8485,7 @@
       <c r="U266" s="1"/>
       <c r="V266" s="1"/>
     </row>
-    <row r="267" spans="1:22" ht="12.5">
+    <row r="267" spans="1:22" ht="12.5" hidden="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8509,7 +8509,7 @@
       <c r="U267" s="1"/>
       <c r="V267" s="1"/>
     </row>
-    <row r="268" spans="1:22" ht="12.5">
+    <row r="268" spans="1:22" ht="12.5" hidden="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8533,7 +8533,7 @@
       <c r="U268" s="1"/>
       <c r="V268" s="1"/>
     </row>
-    <row r="269" spans="1:22" ht="12.5">
+    <row r="269" spans="1:22" ht="12.5" hidden="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8557,7 +8557,7 @@
       <c r="U269" s="1"/>
       <c r="V269" s="1"/>
     </row>
-    <row r="270" spans="1:22" ht="12.5">
+    <row r="270" spans="1:22" ht="12.5" hidden="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8581,7 +8581,7 @@
       <c r="U270" s="1"/>
       <c r="V270" s="1"/>
     </row>
-    <row r="271" spans="1:22" ht="12.5">
+    <row r="271" spans="1:22" ht="12.5" hidden="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8605,7 +8605,7 @@
       <c r="U271" s="1"/>
       <c r="V271" s="1"/>
     </row>
-    <row r="272" spans="1:22" ht="12.5">
+    <row r="272" spans="1:22" ht="12.5" hidden="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8629,7 +8629,7 @@
       <c r="U272" s="1"/>
       <c r="V272" s="1"/>
     </row>
-    <row r="273" spans="1:22" ht="12.5">
+    <row r="273" spans="1:22" ht="12.5" hidden="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8653,7 +8653,7 @@
       <c r="U273" s="1"/>
       <c r="V273" s="1"/>
     </row>
-    <row r="274" spans="1:22" ht="12.5">
+    <row r="274" spans="1:22" ht="12.5" hidden="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8677,7 +8677,7 @@
       <c r="U274" s="1"/>
       <c r="V274" s="1"/>
     </row>
-    <row r="275" spans="1:22" ht="12.5">
+    <row r="275" spans="1:22" ht="12.5" hidden="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8701,7 +8701,7 @@
       <c r="U275" s="1"/>
       <c r="V275" s="1"/>
     </row>
-    <row r="276" spans="1:22" ht="12.5">
+    <row r="276" spans="1:22" ht="12.5" hidden="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8725,7 +8725,7 @@
       <c r="U276" s="1"/>
       <c r="V276" s="1"/>
     </row>
-    <row r="277" spans="1:22" ht="12.5">
+    <row r="277" spans="1:22" ht="12.5" hidden="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8749,7 +8749,7 @@
       <c r="U277" s="1"/>
       <c r="V277" s="1"/>
     </row>
-    <row r="278" spans="1:22" ht="12.5">
+    <row r="278" spans="1:22" ht="12.5" hidden="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8773,7 +8773,7 @@
       <c r="U278" s="1"/>
       <c r="V278" s="1"/>
     </row>
-    <row r="279" spans="1:22" ht="12.5">
+    <row r="279" spans="1:22" ht="12.5" hidden="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8797,7 +8797,7 @@
       <c r="U279" s="1"/>
       <c r="V279" s="1"/>
     </row>
-    <row r="280" spans="1:22" ht="12.5">
+    <row r="280" spans="1:22" ht="12.5" hidden="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8821,7 +8821,7 @@
       <c r="U280" s="1"/>
       <c r="V280" s="1"/>
     </row>
-    <row r="281" spans="1:22" ht="12.5">
+    <row r="281" spans="1:22" ht="12.5" hidden="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8845,7 +8845,7 @@
       <c r="U281" s="1"/>
       <c r="V281" s="1"/>
     </row>
-    <row r="282" spans="1:22" ht="12.5">
+    <row r="282" spans="1:22" ht="12.5" hidden="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8869,7 +8869,7 @@
       <c r="U282" s="1"/>
       <c r="V282" s="1"/>
     </row>
-    <row r="283" spans="1:22" ht="12.5">
+    <row r="283" spans="1:22" ht="12.5" hidden="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8893,7 +8893,7 @@
       <c r="U283" s="1"/>
       <c r="V283" s="1"/>
     </row>
-    <row r="284" spans="1:22" ht="12.5">
+    <row r="284" spans="1:22" ht="12.5" hidden="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8917,7 +8917,7 @@
       <c r="U284" s="1"/>
       <c r="V284" s="1"/>
     </row>
-    <row r="285" spans="1:22" ht="12.5">
+    <row r="285" spans="1:22" ht="12.5" hidden="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8941,7 +8941,7 @@
       <c r="U285" s="1"/>
       <c r="V285" s="1"/>
     </row>
-    <row r="286" spans="1:22" ht="12.5">
+    <row r="286" spans="1:22" ht="12.5" hidden="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8965,7 +8965,7 @@
       <c r="U286" s="1"/>
       <c r="V286" s="1"/>
     </row>
-    <row r="287" spans="1:22" ht="12.5">
+    <row r="287" spans="1:22" ht="12.5" hidden="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8989,7 +8989,7 @@
       <c r="U287" s="1"/>
       <c r="V287" s="1"/>
     </row>
-    <row r="288" spans="1:22" ht="12.5">
+    <row r="288" spans="1:22" ht="12.5" hidden="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9013,7 +9013,7 @@
       <c r="U288" s="1"/>
       <c r="V288" s="1"/>
     </row>
-    <row r="289" spans="1:22" ht="12.5">
+    <row r="289" spans="1:22" ht="12.5" hidden="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9037,7 +9037,7 @@
       <c r="U289" s="1"/>
       <c r="V289" s="1"/>
     </row>
-    <row r="290" spans="1:22" ht="12.5">
+    <row r="290" spans="1:22" ht="12.5" hidden="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9061,7 +9061,7 @@
       <c r="U290" s="1"/>
       <c r="V290" s="1"/>
     </row>
-    <row r="291" spans="1:22" ht="12.5">
+    <row r="291" spans="1:22" ht="12.5" hidden="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9085,7 +9085,7 @@
       <c r="U291" s="1"/>
       <c r="V291" s="1"/>
     </row>
-    <row r="292" spans="1:22" ht="12.5">
+    <row r="292" spans="1:22" ht="12.5" hidden="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9109,7 +9109,7 @@
       <c r="U292" s="1"/>
       <c r="V292" s="1"/>
     </row>
-    <row r="293" spans="1:22" ht="12.5">
+    <row r="293" spans="1:22" ht="12.5" hidden="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9133,7 +9133,7 @@
       <c r="U293" s="1"/>
       <c r="V293" s="1"/>
     </row>
-    <row r="294" spans="1:22" ht="12.5">
+    <row r="294" spans="1:22" ht="12.5" hidden="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9157,7 +9157,7 @@
       <c r="U294" s="1"/>
       <c r="V294" s="1"/>
     </row>
-    <row r="295" spans="1:22" ht="12.5">
+    <row r="295" spans="1:22" ht="12.5" hidden="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9181,7 +9181,7 @@
       <c r="U295" s="1"/>
       <c r="V295" s="1"/>
     </row>
-    <row r="296" spans="1:22" ht="12.5">
+    <row r="296" spans="1:22" ht="12.5" hidden="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9205,7 +9205,7 @@
       <c r="U296" s="1"/>
       <c r="V296" s="1"/>
     </row>
-    <row r="297" spans="1:22" ht="12.5">
+    <row r="297" spans="1:22" ht="12.5" hidden="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9229,7 +9229,7 @@
       <c r="U297" s="1"/>
       <c r="V297" s="1"/>
     </row>
-    <row r="298" spans="1:22" ht="12.5">
+    <row r="298" spans="1:22" ht="12.5" hidden="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9253,7 +9253,7 @@
       <c r="U298" s="1"/>
       <c r="V298" s="1"/>
     </row>
-    <row r="299" spans="1:22" ht="12.5">
+    <row r="299" spans="1:22" ht="12.5" hidden="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9277,7 +9277,7 @@
       <c r="U299" s="1"/>
       <c r="V299" s="1"/>
     </row>
-    <row r="300" spans="1:22" ht="12.5">
+    <row r="300" spans="1:22" ht="12.5" hidden="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9301,7 +9301,7 @@
       <c r="U300" s="1"/>
       <c r="V300" s="1"/>
     </row>
-    <row r="301" spans="1:22" ht="12.5">
+    <row r="301" spans="1:22" ht="12.5" hidden="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9325,7 +9325,7 @@
       <c r="U301" s="1"/>
       <c r="V301" s="1"/>
     </row>
-    <row r="302" spans="1:22" ht="12.5">
+    <row r="302" spans="1:22" ht="12.5" hidden="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="U302" s="1"/>
       <c r="V302" s="1"/>
     </row>
-    <row r="303" spans="1:22" ht="12.5">
+    <row r="303" spans="1:22" ht="12.5" hidden="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9373,7 +9373,7 @@
       <c r="U303" s="1"/>
       <c r="V303" s="1"/>
     </row>
-    <row r="304" spans="1:22" ht="12.5">
+    <row r="304" spans="1:22" ht="12.5" hidden="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9397,7 +9397,7 @@
       <c r="U304" s="1"/>
       <c r="V304" s="1"/>
     </row>
-    <row r="305" spans="1:22" ht="12.5">
+    <row r="305" spans="1:22" ht="12.5" hidden="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9421,7 +9421,7 @@
       <c r="U305" s="1"/>
       <c r="V305" s="1"/>
     </row>
-    <row r="306" spans="1:22" ht="12.5">
+    <row r="306" spans="1:22" ht="12.5" hidden="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9445,7 +9445,7 @@
       <c r="U306" s="1"/>
       <c r="V306" s="1"/>
     </row>
-    <row r="307" spans="1:22" ht="12.5">
+    <row r="307" spans="1:22" ht="12.5" hidden="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9469,7 +9469,7 @@
       <c r="U307" s="1"/>
       <c r="V307" s="1"/>
     </row>
-    <row r="308" spans="1:22" ht="12.5">
+    <row r="308" spans="1:22" ht="12.5" hidden="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9493,7 +9493,7 @@
       <c r="U308" s="1"/>
       <c r="V308" s="1"/>
     </row>
-    <row r="309" spans="1:22" ht="12.5">
+    <row r="309" spans="1:22" ht="12.5" hidden="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9517,7 +9517,7 @@
       <c r="U309" s="1"/>
       <c r="V309" s="1"/>
     </row>
-    <row r="310" spans="1:22" ht="12.5">
+    <row r="310" spans="1:22" ht="12.5" hidden="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9541,7 +9541,7 @@
       <c r="U310" s="1"/>
       <c r="V310" s="1"/>
     </row>
-    <row r="311" spans="1:22" ht="12.5">
+    <row r="311" spans="1:22" ht="12.5" hidden="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9565,7 +9565,7 @@
       <c r="U311" s="1"/>
       <c r="V311" s="1"/>
     </row>
-    <row r="312" spans="1:22" ht="12.5">
+    <row r="312" spans="1:22" ht="12.5" hidden="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9589,7 +9589,7 @@
       <c r="U312" s="1"/>
       <c r="V312" s="1"/>
     </row>
-    <row r="313" spans="1:22" ht="12.5">
+    <row r="313" spans="1:22" ht="12.5" hidden="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9613,7 +9613,7 @@
       <c r="U313" s="1"/>
       <c r="V313" s="1"/>
     </row>
-    <row r="314" spans="1:22" ht="12.5">
+    <row r="314" spans="1:22" ht="12.5" hidden="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9637,7 +9637,7 @@
       <c r="U314" s="1"/>
       <c r="V314" s="1"/>
     </row>
-    <row r="315" spans="1:22" ht="12.5">
+    <row r="315" spans="1:22" ht="12.5" hidden="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9661,7 +9661,7 @@
       <c r="U315" s="1"/>
       <c r="V315" s="1"/>
     </row>
-    <row r="316" spans="1:22" ht="12.5">
+    <row r="316" spans="1:22" ht="12.5" hidden="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9685,7 +9685,7 @@
       <c r="U316" s="1"/>
       <c r="V316" s="1"/>
     </row>
-    <row r="317" spans="1:22" ht="12.5">
+    <row r="317" spans="1:22" ht="12.5" hidden="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9709,7 +9709,7 @@
       <c r="U317" s="1"/>
       <c r="V317" s="1"/>
     </row>
-    <row r="318" spans="1:22" ht="12.5">
+    <row r="318" spans="1:22" ht="12.5" hidden="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9733,7 +9733,7 @@
       <c r="U318" s="1"/>
       <c r="V318" s="1"/>
     </row>
-    <row r="319" spans="1:22" ht="12.5">
+    <row r="319" spans="1:22" ht="12.5" hidden="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9757,7 +9757,7 @@
       <c r="U319" s="1"/>
       <c r="V319" s="1"/>
     </row>
-    <row r="320" spans="1:22" ht="12.5">
+    <row r="320" spans="1:22" ht="12.5" hidden="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9781,7 +9781,7 @@
       <c r="U320" s="1"/>
       <c r="V320" s="1"/>
     </row>
-    <row r="321" spans="1:22" ht="12.5">
+    <row r="321" spans="1:22" ht="12.5" hidden="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9805,7 +9805,7 @@
       <c r="U321" s="1"/>
       <c r="V321" s="1"/>
     </row>
-    <row r="322" spans="1:22" ht="12.5">
+    <row r="322" spans="1:22" ht="12.5" hidden="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9829,7 +9829,7 @@
       <c r="U322" s="1"/>
       <c r="V322" s="1"/>
     </row>
-    <row r="323" spans="1:22" ht="12.5">
+    <row r="323" spans="1:22" ht="12.5" hidden="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9853,7 +9853,7 @@
       <c r="U323" s="1"/>
       <c r="V323" s="1"/>
     </row>
-    <row r="324" spans="1:22" ht="12.5">
+    <row r="324" spans="1:22" ht="12.5" hidden="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9877,7 +9877,7 @@
       <c r="U324" s="1"/>
       <c r="V324" s="1"/>
     </row>
-    <row r="325" spans="1:22" ht="12.5">
+    <row r="325" spans="1:22" ht="12.5" hidden="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9901,7 +9901,7 @@
       <c r="U325" s="1"/>
       <c r="V325" s="1"/>
     </row>
-    <row r="326" spans="1:22" ht="12.5">
+    <row r="326" spans="1:22" ht="12.5" hidden="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9925,7 +9925,7 @@
       <c r="U326" s="1"/>
       <c r="V326" s="1"/>
     </row>
-    <row r="327" spans="1:22" ht="12.5">
+    <row r="327" spans="1:22" ht="12.5" hidden="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9949,7 +9949,7 @@
       <c r="U327" s="1"/>
       <c r="V327" s="1"/>
     </row>
-    <row r="328" spans="1:22" ht="12.5">
+    <row r="328" spans="1:22" ht="12.5" hidden="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9973,7 +9973,7 @@
       <c r="U328" s="1"/>
       <c r="V328" s="1"/>
     </row>
-    <row r="329" spans="1:22" ht="12.5">
+    <row r="329" spans="1:22" ht="12.5" hidden="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9997,7 +9997,7 @@
       <c r="U329" s="1"/>
       <c r="V329" s="1"/>
     </row>
-    <row r="330" spans="1:22" ht="12.5">
+    <row r="330" spans="1:22" ht="12.5" hidden="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10021,7 +10021,7 @@
       <c r="U330" s="1"/>
       <c r="V330" s="1"/>
     </row>
-    <row r="331" spans="1:22" ht="12.5">
+    <row r="331" spans="1:22" ht="12.5" hidden="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10045,7 +10045,7 @@
       <c r="U331" s="1"/>
       <c r="V331" s="1"/>
     </row>
-    <row r="332" spans="1:22" ht="12.5">
+    <row r="332" spans="1:22" ht="12.5" hidden="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10069,7 +10069,7 @@
       <c r="U332" s="1"/>
       <c r="V332" s="1"/>
     </row>
-    <row r="333" spans="1:22" ht="12.5">
+    <row r="333" spans="1:22" ht="12.5" hidden="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10093,7 +10093,7 @@
       <c r="U333" s="1"/>
       <c r="V333" s="1"/>
     </row>
-    <row r="334" spans="1:22" ht="12.5">
+    <row r="334" spans="1:22" ht="12.5" hidden="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10117,7 +10117,7 @@
       <c r="U334" s="1"/>
       <c r="V334" s="1"/>
     </row>
-    <row r="335" spans="1:22" ht="12.5">
+    <row r="335" spans="1:22" ht="12.5" hidden="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10141,7 +10141,7 @@
       <c r="U335" s="1"/>
       <c r="V335" s="1"/>
     </row>
-    <row r="336" spans="1:22" ht="12.5">
+    <row r="336" spans="1:22" ht="12.5" hidden="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10165,7 +10165,7 @@
       <c r="U336" s="1"/>
       <c r="V336" s="1"/>
     </row>
-    <row r="337" spans="1:22" ht="12.5">
+    <row r="337" spans="1:22" ht="12.5" hidden="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10189,7 +10189,7 @@
       <c r="U337" s="1"/>
       <c r="V337" s="1"/>
     </row>
-    <row r="338" spans="1:22" ht="12.5">
+    <row r="338" spans="1:22" ht="12.5" hidden="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10213,7 +10213,7 @@
       <c r="U338" s="1"/>
       <c r="V338" s="1"/>
     </row>
-    <row r="339" spans="1:22" ht="12.5">
+    <row r="339" spans="1:22" ht="12.5" hidden="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10237,7 +10237,7 @@
       <c r="U339" s="1"/>
       <c r="V339" s="1"/>
     </row>
-    <row r="340" spans="1:22" ht="12.5">
+    <row r="340" spans="1:22" ht="12.5" hidden="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10261,7 +10261,7 @@
       <c r="U340" s="1"/>
       <c r="V340" s="1"/>
     </row>
-    <row r="341" spans="1:22" ht="12.5">
+    <row r="341" spans="1:22" ht="12.5" hidden="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10285,7 +10285,7 @@
       <c r="U341" s="1"/>
       <c r="V341" s="1"/>
     </row>
-    <row r="342" spans="1:22" ht="12.5">
+    <row r="342" spans="1:22" ht="12.5" hidden="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10309,7 +10309,7 @@
       <c r="U342" s="1"/>
       <c r="V342" s="1"/>
     </row>
-    <row r="343" spans="1:22" ht="12.5">
+    <row r="343" spans="1:22" ht="12.5" hidden="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10333,7 +10333,7 @@
       <c r="U343" s="1"/>
       <c r="V343" s="1"/>
     </row>
-    <row r="344" spans="1:22" ht="12.5">
+    <row r="344" spans="1:22" ht="12.5" hidden="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10357,7 +10357,7 @@
       <c r="U344" s="1"/>
       <c r="V344" s="1"/>
     </row>
-    <row r="345" spans="1:22" ht="12.5">
+    <row r="345" spans="1:22" ht="12.5" hidden="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10381,7 +10381,7 @@
       <c r="U345" s="1"/>
       <c r="V345" s="1"/>
     </row>
-    <row r="346" spans="1:22" ht="12.5">
+    <row r="346" spans="1:22" ht="12.5" hidden="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10405,7 +10405,7 @@
       <c r="U346" s="1"/>
       <c r="V346" s="1"/>
     </row>
-    <row r="347" spans="1:22" ht="12.5">
+    <row r="347" spans="1:22" ht="12.5" hidden="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10429,7 +10429,7 @@
       <c r="U347" s="1"/>
       <c r="V347" s="1"/>
     </row>
-    <row r="348" spans="1:22" ht="12.5">
+    <row r="348" spans="1:22" ht="12.5" hidden="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10453,7 +10453,7 @@
       <c r="U348" s="1"/>
       <c r="V348" s="1"/>
     </row>
-    <row r="349" spans="1:22" ht="12.5">
+    <row r="349" spans="1:22" ht="12.5" hidden="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10477,7 +10477,7 @@
       <c r="U349" s="1"/>
       <c r="V349" s="1"/>
     </row>
-    <row r="350" spans="1:22" ht="12.5">
+    <row r="350" spans="1:22" ht="12.5" hidden="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10501,7 +10501,7 @@
       <c r="U350" s="1"/>
       <c r="V350" s="1"/>
     </row>
-    <row r="351" spans="1:22" ht="12.5">
+    <row r="351" spans="1:22" ht="12.5" hidden="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10525,7 +10525,7 @@
       <c r="U351" s="1"/>
       <c r="V351" s="1"/>
     </row>
-    <row r="352" spans="1:22" ht="12.5">
+    <row r="352" spans="1:22" ht="12.5" hidden="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10549,7 +10549,7 @@
       <c r="U352" s="1"/>
       <c r="V352" s="1"/>
     </row>
-    <row r="353" spans="1:22" ht="12.5">
+    <row r="353" spans="1:22" ht="12.5" hidden="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10573,7 +10573,7 @@
       <c r="U353" s="1"/>
       <c r="V353" s="1"/>
     </row>
-    <row r="354" spans="1:22" ht="12.5">
+    <row r="354" spans="1:22" ht="12.5" hidden="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10597,7 +10597,7 @@
       <c r="U354" s="1"/>
       <c r="V354" s="1"/>
     </row>
-    <row r="355" spans="1:22" ht="12.5">
+    <row r="355" spans="1:22" ht="12.5" hidden="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10621,7 +10621,7 @@
       <c r="U355" s="1"/>
       <c r="V355" s="1"/>
     </row>
-    <row r="356" spans="1:22" ht="12.5">
+    <row r="356" spans="1:22" ht="12.5" hidden="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10645,7 +10645,7 @@
       <c r="U356" s="1"/>
       <c r="V356" s="1"/>
     </row>
-    <row r="357" spans="1:22" ht="12.5">
+    <row r="357" spans="1:22" ht="12.5" hidden="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10669,7 +10669,7 @@
       <c r="U357" s="1"/>
       <c r="V357" s="1"/>
     </row>
-    <row r="358" spans="1:22" ht="12.5">
+    <row r="358" spans="1:22" ht="12.5" hidden="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10693,7 +10693,7 @@
       <c r="U358" s="1"/>
       <c r="V358" s="1"/>
     </row>
-    <row r="359" spans="1:22" ht="12.5">
+    <row r="359" spans="1:22" ht="12.5" hidden="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10717,7 +10717,7 @@
       <c r="U359" s="1"/>
       <c r="V359" s="1"/>
     </row>
-    <row r="360" spans="1:22" ht="12.5">
+    <row r="360" spans="1:22" ht="12.5" hidden="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10741,7 +10741,7 @@
       <c r="U360" s="1"/>
       <c r="V360" s="1"/>
     </row>
-    <row r="361" spans="1:22" ht="12.5">
+    <row r="361" spans="1:22" ht="12.5" hidden="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10765,7 +10765,7 @@
       <c r="U361" s="1"/>
       <c r="V361" s="1"/>
     </row>
-    <row r="362" spans="1:22" ht="12.5">
+    <row r="362" spans="1:22" ht="12.5" hidden="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10789,7 +10789,7 @@
       <c r="U362" s="1"/>
       <c r="V362" s="1"/>
     </row>
-    <row r="363" spans="1:22" ht="12.5">
+    <row r="363" spans="1:22" ht="12.5" hidden="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10813,7 +10813,7 @@
       <c r="U363" s="1"/>
       <c r="V363" s="1"/>
     </row>
-    <row r="364" spans="1:22" ht="12.5">
+    <row r="364" spans="1:22" ht="12.5" hidden="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10837,7 +10837,7 @@
       <c r="U364" s="1"/>
       <c r="V364" s="1"/>
     </row>
-    <row r="365" spans="1:22" ht="12.5">
+    <row r="365" spans="1:22" ht="12.5" hidden="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10861,7 +10861,7 @@
       <c r="U365" s="1"/>
       <c r="V365" s="1"/>
     </row>
-    <row r="366" spans="1:22" ht="12.5">
+    <row r="366" spans="1:22" ht="12.5" hidden="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10885,7 +10885,7 @@
       <c r="U366" s="1"/>
       <c r="V366" s="1"/>
     </row>
-    <row r="367" spans="1:22" ht="12.5">
+    <row r="367" spans="1:22" ht="12.5" hidden="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10909,7 +10909,7 @@
       <c r="U367" s="1"/>
       <c r="V367" s="1"/>
     </row>
-    <row r="368" spans="1:22" ht="12.5">
+    <row r="368" spans="1:22" ht="12.5" hidden="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10933,7 +10933,7 @@
       <c r="U368" s="1"/>
       <c r="V368" s="1"/>
     </row>
-    <row r="369" spans="1:22" ht="12.5">
+    <row r="369" spans="1:22" ht="12.5" hidden="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10957,7 +10957,7 @@
       <c r="U369" s="1"/>
       <c r="V369" s="1"/>
     </row>
-    <row r="370" spans="1:22" ht="12.5">
+    <row r="370" spans="1:22" ht="12.5" hidden="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10981,7 +10981,7 @@
       <c r="U370" s="1"/>
       <c r="V370" s="1"/>
     </row>
-    <row r="371" spans="1:22" ht="12.5">
+    <row r="371" spans="1:22" ht="12.5" hidden="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11005,7 +11005,7 @@
       <c r="U371" s="1"/>
       <c r="V371" s="1"/>
     </row>
-    <row r="372" spans="1:22" ht="12.5">
+    <row r="372" spans="1:22" ht="12.5" hidden="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11029,7 +11029,7 @@
       <c r="U372" s="1"/>
       <c r="V372" s="1"/>
     </row>
-    <row r="373" spans="1:22" ht="12.5">
+    <row r="373" spans="1:22" ht="12.5" hidden="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11053,7 +11053,7 @@
       <c r="U373" s="1"/>
       <c r="V373" s="1"/>
     </row>
-    <row r="374" spans="1:22" ht="12.5">
+    <row r="374" spans="1:22" ht="12.5" hidden="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11077,7 +11077,7 @@
       <c r="U374" s="1"/>
       <c r="V374" s="1"/>
     </row>
-    <row r="375" spans="1:22" ht="12.5">
+    <row r="375" spans="1:22" ht="12.5" hidden="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11101,7 +11101,7 @@
       <c r="U375" s="1"/>
       <c r="V375" s="1"/>
     </row>
-    <row r="376" spans="1:22" ht="12.5">
+    <row r="376" spans="1:22" ht="12.5" hidden="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11125,7 +11125,7 @@
       <c r="U376" s="1"/>
       <c r="V376" s="1"/>
     </row>
-    <row r="377" spans="1:22" ht="12.5">
+    <row r="377" spans="1:22" ht="12.5" hidden="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11149,7 +11149,7 @@
       <c r="U377" s="1"/>
       <c r="V377" s="1"/>
     </row>
-    <row r="378" spans="1:22" ht="12.5">
+    <row r="378" spans="1:22" ht="12.5" hidden="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11173,7 +11173,7 @@
       <c r="U378" s="1"/>
       <c r="V378" s="1"/>
     </row>
-    <row r="379" spans="1:22" ht="12.5">
+    <row r="379" spans="1:22" ht="12.5" hidden="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11197,7 +11197,7 @@
       <c r="U379" s="1"/>
       <c r="V379" s="1"/>
     </row>
-    <row r="380" spans="1:22" ht="12.5">
+    <row r="380" spans="1:22" ht="12.5" hidden="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11221,7 +11221,7 @@
       <c r="U380" s="1"/>
       <c r="V380" s="1"/>
     </row>
-    <row r="381" spans="1:22" ht="12.5">
+    <row r="381" spans="1:22" ht="12.5" hidden="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11245,7 +11245,7 @@
       <c r="U381" s="1"/>
       <c r="V381" s="1"/>
     </row>
-    <row r="382" spans="1:22" ht="12.5">
+    <row r="382" spans="1:22" ht="12.5" hidden="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="U382" s="1"/>
       <c r="V382" s="1"/>
     </row>
-    <row r="383" spans="1:22" ht="12.5">
+    <row r="383" spans="1:22" ht="12.5" hidden="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11293,7 +11293,7 @@
       <c r="U383" s="1"/>
       <c r="V383" s="1"/>
     </row>
-    <row r="384" spans="1:22" ht="12.5">
+    <row r="384" spans="1:22" ht="12.5" hidden="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11317,7 +11317,7 @@
       <c r="U384" s="1"/>
       <c r="V384" s="1"/>
     </row>
-    <row r="385" spans="1:22" ht="12.5">
+    <row r="385" spans="1:22" ht="12.5" hidden="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11341,7 +11341,7 @@
       <c r="U385" s="1"/>
       <c r="V385" s="1"/>
     </row>
-    <row r="386" spans="1:22" ht="12.5">
+    <row r="386" spans="1:22" ht="12.5" hidden="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11365,7 +11365,7 @@
       <c r="U386" s="1"/>
       <c r="V386" s="1"/>
     </row>
-    <row r="387" spans="1:22" ht="12.5">
+    <row r="387" spans="1:22" ht="12.5" hidden="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11389,7 +11389,7 @@
       <c r="U387" s="1"/>
       <c r="V387" s="1"/>
     </row>
-    <row r="388" spans="1:22" ht="12.5">
+    <row r="388" spans="1:22" ht="12.5" hidden="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11413,7 +11413,7 @@
       <c r="U388" s="1"/>
       <c r="V388" s="1"/>
     </row>
-    <row r="389" spans="1:22" ht="12.5">
+    <row r="389" spans="1:22" ht="12.5" hidden="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11437,7 +11437,7 @@
       <c r="U389" s="1"/>
       <c r="V389" s="1"/>
     </row>
-    <row r="390" spans="1:22" ht="12.5">
+    <row r="390" spans="1:22" ht="12.5" hidden="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11461,7 +11461,7 @@
       <c r="U390" s="1"/>
       <c r="V390" s="1"/>
     </row>
-    <row r="391" spans="1:22" ht="12.5">
+    <row r="391" spans="1:22" ht="12.5" hidden="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11485,7 +11485,7 @@
       <c r="U391" s="1"/>
       <c r="V391" s="1"/>
     </row>
-    <row r="392" spans="1:22" ht="12.5">
+    <row r="392" spans="1:22" ht="12.5" hidden="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11509,7 +11509,7 @@
       <c r="U392" s="1"/>
       <c r="V392" s="1"/>
     </row>
-    <row r="393" spans="1:22" ht="12.5">
+    <row r="393" spans="1:22" ht="12.5" hidden="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11533,7 +11533,7 @@
       <c r="U393" s="1"/>
       <c r="V393" s="1"/>
     </row>
-    <row r="394" spans="1:22" ht="12.5">
+    <row r="394" spans="1:22" ht="12.5" hidden="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11557,7 +11557,7 @@
       <c r="U394" s="1"/>
       <c r="V394" s="1"/>
     </row>
-    <row r="395" spans="1:22" ht="12.5">
+    <row r="395" spans="1:22" ht="12.5" hidden="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11581,7 +11581,7 @@
       <c r="U395" s="1"/>
       <c r="V395" s="1"/>
     </row>
-    <row r="396" spans="1:22" ht="12.5">
+    <row r="396" spans="1:22" ht="12.5" hidden="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11605,7 +11605,7 @@
       <c r="U396" s="1"/>
       <c r="V396" s="1"/>
     </row>
-    <row r="397" spans="1:22" ht="12.5">
+    <row r="397" spans="1:22" ht="12.5" hidden="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11629,7 +11629,7 @@
       <c r="U397" s="1"/>
       <c r="V397" s="1"/>
     </row>
-    <row r="398" spans="1:22" ht="12.5">
+    <row r="398" spans="1:22" ht="12.5" hidden="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11653,7 +11653,7 @@
       <c r="U398" s="1"/>
       <c r="V398" s="1"/>
     </row>
-    <row r="399" spans="1:22" ht="12.5">
+    <row r="399" spans="1:22" ht="12.5" hidden="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11677,7 +11677,7 @@
       <c r="U399" s="1"/>
       <c r="V399" s="1"/>
     </row>
-    <row r="400" spans="1:22" ht="12.5">
+    <row r="400" spans="1:22" ht="12.5" hidden="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11701,7 +11701,7 @@
       <c r="U400" s="1"/>
       <c r="V400" s="1"/>
     </row>
-    <row r="401" spans="1:22" ht="12.5">
+    <row r="401" spans="1:22" ht="12.5" hidden="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11725,7 +11725,7 @@
       <c r="U401" s="1"/>
       <c r="V401" s="1"/>
     </row>
-    <row r="402" spans="1:22" ht="12.5">
+    <row r="402" spans="1:22" ht="12.5" hidden="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11749,7 +11749,7 @@
       <c r="U402" s="1"/>
       <c r="V402" s="1"/>
     </row>
-    <row r="403" spans="1:22" ht="12.5">
+    <row r="403" spans="1:22" ht="12.5" hidden="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11773,7 +11773,7 @@
       <c r="U403" s="1"/>
       <c r="V403" s="1"/>
     </row>
-    <row r="404" spans="1:22" ht="12.5">
+    <row r="404" spans="1:22" ht="12.5" hidden="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11797,7 +11797,7 @@
       <c r="U404" s="1"/>
       <c r="V404" s="1"/>
     </row>
-    <row r="405" spans="1:22" ht="12.5">
+    <row r="405" spans="1:22" ht="12.5" hidden="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11821,7 +11821,7 @@
       <c r="U405" s="1"/>
       <c r="V405" s="1"/>
     </row>
-    <row r="406" spans="1:22" ht="12.5">
+    <row r="406" spans="1:22" ht="12.5" hidden="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11845,7 +11845,7 @@
       <c r="U406" s="1"/>
       <c r="V406" s="1"/>
     </row>
-    <row r="407" spans="1:22" ht="12.5">
+    <row r="407" spans="1:22" ht="12.5" hidden="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11869,7 +11869,7 @@
       <c r="U407" s="1"/>
       <c r="V407" s="1"/>
     </row>
-    <row r="408" spans="1:22" ht="12.5">
+    <row r="408" spans="1:22" ht="12.5" hidden="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11893,7 +11893,7 @@
       <c r="U408" s="1"/>
       <c r="V408" s="1"/>
     </row>
-    <row r="409" spans="1:22" ht="12.5">
+    <row r="409" spans="1:22" ht="12.5" hidden="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11917,7 +11917,7 @@
       <c r="U409" s="1"/>
       <c r="V409" s="1"/>
     </row>
-    <row r="410" spans="1:22" ht="12.5">
+    <row r="410" spans="1:22" ht="12.5" hidden="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11941,7 +11941,7 @@
       <c r="U410" s="1"/>
       <c r="V410" s="1"/>
     </row>
-    <row r="411" spans="1:22" ht="12.5">
+    <row r="411" spans="1:22" ht="12.5" hidden="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11965,7 +11965,7 @@
       <c r="U411" s="1"/>
       <c r="V411" s="1"/>
     </row>
-    <row r="412" spans="1:22" ht="12.5">
+    <row r="412" spans="1:22" ht="12.5" hidden="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11989,7 +11989,7 @@
       <c r="U412" s="1"/>
       <c r="V412" s="1"/>
     </row>
-    <row r="413" spans="1:22" ht="12.5">
+    <row r="413" spans="1:22" ht="12.5" hidden="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12013,7 +12013,7 @@
       <c r="U413" s="1"/>
       <c r="V413" s="1"/>
     </row>
-    <row r="414" spans="1:22" ht="12.5">
+    <row r="414" spans="1:22" ht="12.5" hidden="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12037,7 +12037,7 @@
       <c r="U414" s="1"/>
       <c r="V414" s="1"/>
     </row>
-    <row r="415" spans="1:22" ht="12.5">
+    <row r="415" spans="1:22" ht="12.5" hidden="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12061,7 +12061,7 @@
       <c r="U415" s="1"/>
       <c r="V415" s="1"/>
     </row>
-    <row r="416" spans="1:22" ht="12.5">
+    <row r="416" spans="1:22" ht="12.5" hidden="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12085,7 +12085,7 @@
       <c r="U416" s="1"/>
       <c r="V416" s="1"/>
     </row>
-    <row r="417" spans="1:22" ht="12.5">
+    <row r="417" spans="1:22" ht="12.5" hidden="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12109,7 +12109,7 @@
       <c r="U417" s="1"/>
       <c r="V417" s="1"/>
     </row>
-    <row r="418" spans="1:22" ht="12.5">
+    <row r="418" spans="1:22" ht="12.5" hidden="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12133,7 +12133,7 @@
       <c r="U418" s="1"/>
       <c r="V418" s="1"/>
     </row>
-    <row r="419" spans="1:22" ht="12.5">
+    <row r="419" spans="1:22" ht="12.5" hidden="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12157,7 +12157,7 @@
       <c r="U419" s="1"/>
       <c r="V419" s="1"/>
     </row>
-    <row r="420" spans="1:22" ht="12.5">
+    <row r="420" spans="1:22" ht="12.5" hidden="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12181,7 +12181,7 @@
       <c r="U420" s="1"/>
       <c r="V420" s="1"/>
     </row>
-    <row r="421" spans="1:22" ht="12.5">
+    <row r="421" spans="1:22" ht="12.5" hidden="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12205,7 +12205,7 @@
       <c r="U421" s="1"/>
       <c r="V421" s="1"/>
     </row>
-    <row r="422" spans="1:22" ht="12.5">
+    <row r="422" spans="1:22" ht="12.5" hidden="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12229,7 +12229,7 @@
       <c r="U422" s="1"/>
       <c r="V422" s="1"/>
     </row>
-    <row r="423" spans="1:22" ht="12.5">
+    <row r="423" spans="1:22" ht="12.5" hidden="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12253,7 +12253,7 @@
       <c r="U423" s="1"/>
       <c r="V423" s="1"/>
     </row>
-    <row r="424" spans="1:22" ht="12.5">
+    <row r="424" spans="1:22" ht="12.5" hidden="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12277,7 +12277,7 @@
       <c r="U424" s="1"/>
       <c r="V424" s="1"/>
     </row>
-    <row r="425" spans="1:22" ht="12.5">
+    <row r="425" spans="1:22" ht="12.5" hidden="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12301,7 +12301,7 @@
       <c r="U425" s="1"/>
       <c r="V425" s="1"/>
     </row>
-    <row r="426" spans="1:22" ht="12.5">
+    <row r="426" spans="1:22" ht="12.5" hidden="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12325,7 +12325,7 @@
       <c r="U426" s="1"/>
       <c r="V426" s="1"/>
     </row>
-    <row r="427" spans="1:22" ht="12.5">
+    <row r="427" spans="1:22" ht="12.5" hidden="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12349,7 +12349,7 @@
       <c r="U427" s="1"/>
       <c r="V427" s="1"/>
     </row>
-    <row r="428" spans="1:22" ht="12.5">
+    <row r="428" spans="1:22" ht="12.5" hidden="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12373,7 +12373,7 @@
       <c r="U428" s="1"/>
       <c r="V428" s="1"/>
     </row>
-    <row r="429" spans="1:22" ht="12.5">
+    <row r="429" spans="1:22" ht="12.5" hidden="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12397,7 +12397,7 @@
       <c r="U429" s="1"/>
       <c r="V429" s="1"/>
     </row>
-    <row r="430" spans="1:22" ht="12.5">
+    <row r="430" spans="1:22" ht="12.5" hidden="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12421,7 +12421,7 @@
       <c r="U430" s="1"/>
       <c r="V430" s="1"/>
     </row>
-    <row r="431" spans="1:22" ht="12.5">
+    <row r="431" spans="1:22" ht="12.5" hidden="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12445,7 +12445,7 @@
       <c r="U431" s="1"/>
       <c r="V431" s="1"/>
     </row>
-    <row r="432" spans="1:22" ht="12.5">
+    <row r="432" spans="1:22" ht="12.5" hidden="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12469,7 +12469,7 @@
       <c r="U432" s="1"/>
       <c r="V432" s="1"/>
     </row>
-    <row r="433" spans="1:22" ht="12.5">
+    <row r="433" spans="1:22" ht="12.5" hidden="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12493,7 +12493,7 @@
       <c r="U433" s="1"/>
       <c r="V433" s="1"/>
     </row>
-    <row r="434" spans="1:22" ht="12.5">
+    <row r="434" spans="1:22" ht="12.5" hidden="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12517,7 +12517,7 @@
       <c r="U434" s="1"/>
       <c r="V434" s="1"/>
     </row>
-    <row r="435" spans="1:22" ht="12.5">
+    <row r="435" spans="1:22" ht="12.5" hidden="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12541,7 +12541,7 @@
       <c r="U435" s="1"/>
       <c r="V435" s="1"/>
     </row>
-    <row r="436" spans="1:22" ht="12.5">
+    <row r="436" spans="1:22" ht="12.5" hidden="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12565,7 +12565,7 @@
       <c r="U436" s="1"/>
       <c r="V436" s="1"/>
     </row>
-    <row r="437" spans="1:22" ht="12.5">
+    <row r="437" spans="1:22" ht="12.5" hidden="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12589,7 +12589,7 @@
       <c r="U437" s="1"/>
       <c r="V437" s="1"/>
     </row>
-    <row r="438" spans="1:22" ht="12.5">
+    <row r="438" spans="1:22" ht="12.5" hidden="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12613,7 +12613,7 @@
       <c r="U438" s="1"/>
       <c r="V438" s="1"/>
     </row>
-    <row r="439" spans="1:22" ht="12.5">
+    <row r="439" spans="1:22" ht="12.5" hidden="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12637,7 +12637,7 @@
       <c r="U439" s="1"/>
       <c r="V439" s="1"/>
     </row>
-    <row r="440" spans="1:22" ht="12.5">
+    <row r="440" spans="1:22" ht="12.5" hidden="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12661,7 +12661,7 @@
       <c r="U440" s="1"/>
       <c r="V440" s="1"/>
     </row>
-    <row r="441" spans="1:22" ht="12.5">
+    <row r="441" spans="1:22" ht="12.5" hidden="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12685,7 +12685,7 @@
       <c r="U441" s="1"/>
       <c r="V441" s="1"/>
     </row>
-    <row r="442" spans="1:22" ht="12.5">
+    <row r="442" spans="1:22" ht="12.5" hidden="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12709,7 +12709,7 @@
       <c r="U442" s="1"/>
       <c r="V442" s="1"/>
     </row>
-    <row r="443" spans="1:22" ht="12.5">
+    <row r="443" spans="1:22" ht="12.5" hidden="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12733,7 +12733,7 @@
       <c r="U443" s="1"/>
       <c r="V443" s="1"/>
     </row>
-    <row r="444" spans="1:22" ht="12.5">
+    <row r="444" spans="1:22" ht="12.5" hidden="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12757,7 +12757,7 @@
       <c r="U444" s="1"/>
       <c r="V444" s="1"/>
     </row>
-    <row r="445" spans="1:22" ht="12.5">
+    <row r="445" spans="1:22" ht="12.5" hidden="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12781,7 +12781,7 @@
       <c r="U445" s="1"/>
       <c r="V445" s="1"/>
     </row>
-    <row r="446" spans="1:22" ht="12.5">
+    <row r="446" spans="1:22" ht="12.5" hidden="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12805,7 +12805,7 @@
       <c r="U446" s="1"/>
       <c r="V446" s="1"/>
     </row>
-    <row r="447" spans="1:22" ht="12.5">
+    <row r="447" spans="1:22" ht="12.5" hidden="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12829,7 +12829,7 @@
       <c r="U447" s="1"/>
       <c r="V447" s="1"/>
     </row>
-    <row r="448" spans="1:22" ht="12.5">
+    <row r="448" spans="1:22" ht="12.5" hidden="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12853,7 +12853,7 @@
       <c r="U448" s="1"/>
       <c r="V448" s="1"/>
     </row>
-    <row r="449" spans="1:22" ht="12.5">
+    <row r="449" spans="1:22" ht="12.5" hidden="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12877,7 +12877,7 @@
       <c r="U449" s="1"/>
       <c r="V449" s="1"/>
     </row>
-    <row r="450" spans="1:22" ht="12.5">
+    <row r="450" spans="1:22" ht="12.5" hidden="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12901,7 +12901,7 @@
       <c r="U450" s="1"/>
       <c r="V450" s="1"/>
     </row>
-    <row r="451" spans="1:22" ht="12.5">
+    <row r="451" spans="1:22" ht="12.5" hidden="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12925,7 +12925,7 @@
       <c r="U451" s="1"/>
       <c r="V451" s="1"/>
     </row>
-    <row r="452" spans="1:22" ht="12.5">
+    <row r="452" spans="1:22" ht="12.5" hidden="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -12949,7 +12949,7 @@
       <c r="U452" s="1"/>
       <c r="V452" s="1"/>
     </row>
-    <row r="453" spans="1:22" ht="12.5">
+    <row r="453" spans="1:22" ht="12.5" hidden="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -12973,7 +12973,7 @@
       <c r="U453" s="1"/>
       <c r="V453" s="1"/>
     </row>
-    <row r="454" spans="1:22" ht="12.5">
+    <row r="454" spans="1:22" ht="12.5" hidden="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12997,7 +12997,7 @@
       <c r="U454" s="1"/>
       <c r="V454" s="1"/>
     </row>
-    <row r="455" spans="1:22" ht="12.5">
+    <row r="455" spans="1:22" ht="12.5" hidden="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13021,7 +13021,7 @@
       <c r="U455" s="1"/>
       <c r="V455" s="1"/>
     </row>
-    <row r="456" spans="1:22" ht="12.5">
+    <row r="456" spans="1:22" ht="12.5" hidden="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13045,7 +13045,7 @@
       <c r="U456" s="1"/>
       <c r="V456" s="1"/>
     </row>
-    <row r="457" spans="1:22" ht="12.5">
+    <row r="457" spans="1:22" ht="12.5" hidden="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13069,7 +13069,7 @@
       <c r="U457" s="1"/>
       <c r="V457" s="1"/>
     </row>
-    <row r="458" spans="1:22" ht="12.5">
+    <row r="458" spans="1:22" ht="12.5" hidden="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13093,7 +13093,7 @@
       <c r="U458" s="1"/>
       <c r="V458" s="1"/>
     </row>
-    <row r="459" spans="1:22" ht="12.5">
+    <row r="459" spans="1:22" ht="12.5" hidden="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13117,7 +13117,7 @@
       <c r="U459" s="1"/>
       <c r="V459" s="1"/>
     </row>
-    <row r="460" spans="1:22" ht="12.5">
+    <row r="460" spans="1:22" ht="12.5" hidden="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13141,7 +13141,7 @@
       <c r="U460" s="1"/>
       <c r="V460" s="1"/>
     </row>
-    <row r="461" spans="1:22" ht="12.5">
+    <row r="461" spans="1:22" ht="12.5" hidden="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13165,7 +13165,7 @@
       <c r="U461" s="1"/>
       <c r="V461" s="1"/>
     </row>
-    <row r="462" spans="1:22" ht="12.5">
+    <row r="462" spans="1:22" ht="12.5" hidden="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13189,7 +13189,7 @@
       <c r="U462" s="1"/>
       <c r="V462" s="1"/>
     </row>
-    <row r="463" spans="1:22" ht="12.5">
+    <row r="463" spans="1:22" ht="12.5" hidden="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13213,7 +13213,7 @@
       <c r="U463" s="1"/>
       <c r="V463" s="1"/>
     </row>
-    <row r="464" spans="1:22" ht="12.5">
+    <row r="464" spans="1:22" ht="12.5" hidden="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13237,7 +13237,7 @@
       <c r="U464" s="1"/>
       <c r="V464" s="1"/>
     </row>
-    <row r="465" spans="1:22" ht="12.5">
+    <row r="465" spans="1:22" ht="12.5" hidden="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13261,7 +13261,7 @@
       <c r="U465" s="1"/>
       <c r="V465" s="1"/>
     </row>
-    <row r="466" spans="1:22" ht="12.5">
+    <row r="466" spans="1:22" ht="12.5" hidden="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13285,7 +13285,7 @@
       <c r="U466" s="1"/>
       <c r="V466" s="1"/>
     </row>
-    <row r="467" spans="1:22" ht="12.5">
+    <row r="467" spans="1:22" ht="12.5" hidden="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13309,7 +13309,7 @@
       <c r="U467" s="1"/>
       <c r="V467" s="1"/>
     </row>
-    <row r="468" spans="1:22" ht="12.5">
+    <row r="468" spans="1:22" ht="12.5" hidden="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13333,7 +13333,7 @@
       <c r="U468" s="1"/>
       <c r="V468" s="1"/>
     </row>
-    <row r="469" spans="1:22" ht="12.5">
+    <row r="469" spans="1:22" ht="12.5" hidden="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13357,7 +13357,7 @@
       <c r="U469" s="1"/>
       <c r="V469" s="1"/>
     </row>
-    <row r="470" spans="1:22" ht="12.5">
+    <row r="470" spans="1:22" ht="12.5" hidden="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13381,7 +13381,7 @@
       <c r="U470" s="1"/>
       <c r="V470" s="1"/>
     </row>
-    <row r="471" spans="1:22" ht="12.5">
+    <row r="471" spans="1:22" ht="12.5" hidden="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13405,7 +13405,7 @@
       <c r="U471" s="1"/>
       <c r="V471" s="1"/>
     </row>
-    <row r="472" spans="1:22" ht="12.5">
+    <row r="472" spans="1:22" ht="12.5" hidden="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13429,7 +13429,7 @@
       <c r="U472" s="1"/>
       <c r="V472" s="1"/>
     </row>
-    <row r="473" spans="1:22" ht="12.5">
+    <row r="473" spans="1:22" ht="12.5" hidden="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13453,7 +13453,7 @@
       <c r="U473" s="1"/>
       <c r="V473" s="1"/>
     </row>
-    <row r="474" spans="1:22" ht="12.5">
+    <row r="474" spans="1:22" ht="12.5" hidden="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13477,7 +13477,7 @@
       <c r="U474" s="1"/>
       <c r="V474" s="1"/>
     </row>
-    <row r="475" spans="1:22" ht="12.5">
+    <row r="475" spans="1:22" ht="12.5" hidden="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13501,7 +13501,7 @@
       <c r="U475" s="1"/>
       <c r="V475" s="1"/>
     </row>
-    <row r="476" spans="1:22" ht="12.5">
+    <row r="476" spans="1:22" ht="12.5" hidden="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13525,7 +13525,7 @@
       <c r="U476" s="1"/>
       <c r="V476" s="1"/>
     </row>
-    <row r="477" spans="1:22" ht="12.5">
+    <row r="477" spans="1:22" ht="12.5" hidden="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13549,7 +13549,7 @@
       <c r="U477" s="1"/>
       <c r="V477" s="1"/>
     </row>
-    <row r="478" spans="1:22" ht="12.5">
+    <row r="478" spans="1:22" ht="12.5" hidden="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13573,7 +13573,7 @@
       <c r="U478" s="1"/>
       <c r="V478" s="1"/>
     </row>
-    <row r="479" spans="1:22" ht="12.5">
+    <row r="479" spans="1:22" ht="12.5" hidden="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13597,7 +13597,7 @@
       <c r="U479" s="1"/>
       <c r="V479" s="1"/>
     </row>
-    <row r="480" spans="1:22" ht="12.5">
+    <row r="480" spans="1:22" ht="12.5" hidden="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13621,7 +13621,7 @@
       <c r="U480" s="1"/>
       <c r="V480" s="1"/>
     </row>
-    <row r="481" spans="1:22" ht="12.5">
+    <row r="481" spans="1:22" ht="12.5" hidden="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13645,7 +13645,7 @@
       <c r="U481" s="1"/>
       <c r="V481" s="1"/>
     </row>
-    <row r="482" spans="1:22" ht="12.5">
+    <row r="482" spans="1:22" ht="12.5" hidden="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13669,7 +13669,7 @@
       <c r="U482" s="1"/>
       <c r="V482" s="1"/>
     </row>
-    <row r="483" spans="1:22" ht="12.5">
+    <row r="483" spans="1:22" ht="12.5" hidden="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13693,7 +13693,7 @@
       <c r="U483" s="1"/>
       <c r="V483" s="1"/>
     </row>
-    <row r="484" spans="1:22" ht="12.5">
+    <row r="484" spans="1:22" ht="12.5" hidden="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13717,7 +13717,7 @@
       <c r="U484" s="1"/>
       <c r="V484" s="1"/>
     </row>
-    <row r="485" spans="1:22" ht="12.5">
+    <row r="485" spans="1:22" ht="12.5" hidden="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13741,7 +13741,7 @@
       <c r="U485" s="1"/>
       <c r="V485" s="1"/>
     </row>
-    <row r="486" spans="1:22" ht="12.5">
+    <row r="486" spans="1:22" ht="12.5" hidden="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13765,7 +13765,7 @@
       <c r="U486" s="1"/>
       <c r="V486" s="1"/>
     </row>
-    <row r="487" spans="1:22" ht="12.5">
+    <row r="487" spans="1:22" ht="12.5" hidden="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13789,7 +13789,7 @@
       <c r="U487" s="1"/>
       <c r="V487" s="1"/>
     </row>
-    <row r="488" spans="1:22" ht="12.5">
+    <row r="488" spans="1:22" ht="12.5" hidden="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13813,7 +13813,7 @@
       <c r="U488" s="1"/>
       <c r="V488" s="1"/>
     </row>
-    <row r="489" spans="1:22" ht="12.5">
+    <row r="489" spans="1:22" ht="12.5" hidden="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13837,7 +13837,7 @@
       <c r="U489" s="1"/>
       <c r="V489" s="1"/>
     </row>
-    <row r="490" spans="1:22" ht="12.5">
+    <row r="490" spans="1:22" ht="12.5" hidden="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13861,7 +13861,7 @@
       <c r="U490" s="1"/>
       <c r="V490" s="1"/>
     </row>
-    <row r="491" spans="1:22" ht="12.5">
+    <row r="491" spans="1:22" ht="12.5" hidden="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13885,7 +13885,7 @@
       <c r="U491" s="1"/>
       <c r="V491" s="1"/>
     </row>
-    <row r="492" spans="1:22" ht="12.5">
+    <row r="492" spans="1:22" ht="12.5" hidden="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -13909,7 +13909,7 @@
       <c r="U492" s="1"/>
       <c r="V492" s="1"/>
     </row>
-    <row r="493" spans="1:22" ht="12.5">
+    <row r="493" spans="1:22" ht="12.5" hidden="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -13933,7 +13933,7 @@
       <c r="U493" s="1"/>
       <c r="V493" s="1"/>
     </row>
-    <row r="494" spans="1:22" ht="12.5">
+    <row r="494" spans="1:22" ht="12.5" hidden="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -13957,7 +13957,7 @@
       <c r="U494" s="1"/>
       <c r="V494" s="1"/>
     </row>
-    <row r="495" spans="1:22" ht="12.5">
+    <row r="495" spans="1:22" ht="12.5" hidden="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -13981,7 +13981,7 @@
       <c r="U495" s="1"/>
       <c r="V495" s="1"/>
     </row>
-    <row r="496" spans="1:22" ht="12.5">
+    <row r="496" spans="1:22" ht="12.5" hidden="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14005,7 +14005,7 @@
       <c r="U496" s="1"/>
       <c r="V496" s="1"/>
     </row>
-    <row r="497" spans="1:22" ht="12.5">
+    <row r="497" spans="1:22" ht="12.5" hidden="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14029,7 +14029,7 @@
       <c r="U497" s="1"/>
       <c r="V497" s="1"/>
     </row>
-    <row r="498" spans="1:22" ht="12.5">
+    <row r="498" spans="1:22" ht="12.5" hidden="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14053,7 +14053,7 @@
       <c r="U498" s="1"/>
       <c r="V498" s="1"/>
     </row>
-    <row r="499" spans="1:22" ht="12.5">
+    <row r="499" spans="1:22" ht="12.5" hidden="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14077,7 +14077,7 @@
       <c r="U499" s="1"/>
       <c r="V499" s="1"/>
     </row>
-    <row r="500" spans="1:22" ht="12.5">
+    <row r="500" spans="1:22" ht="12.5" hidden="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14101,7 +14101,7 @@
       <c r="U500" s="1"/>
       <c r="V500" s="1"/>
     </row>
-    <row r="501" spans="1:22" ht="12.5">
+    <row r="501" spans="1:22" ht="12.5" hidden="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14125,7 +14125,7 @@
       <c r="U501" s="1"/>
       <c r="V501" s="1"/>
     </row>
-    <row r="502" spans="1:22" ht="12.5">
+    <row r="502" spans="1:22" ht="12.5" hidden="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14149,7 +14149,7 @@
       <c r="U502" s="1"/>
       <c r="V502" s="1"/>
     </row>
-    <row r="503" spans="1:22" ht="12.5">
+    <row r="503" spans="1:22" ht="12.5" hidden="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14173,7 +14173,7 @@
       <c r="U503" s="1"/>
       <c r="V503" s="1"/>
     </row>
-    <row r="504" spans="1:22" ht="12.5">
+    <row r="504" spans="1:22" ht="12.5" hidden="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14197,7 +14197,7 @@
       <c r="U504" s="1"/>
       <c r="V504" s="1"/>
     </row>
-    <row r="505" spans="1:22" ht="12.5">
+    <row r="505" spans="1:22" ht="12.5" hidden="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14221,7 +14221,7 @@
       <c r="U505" s="1"/>
       <c r="V505" s="1"/>
     </row>
-    <row r="506" spans="1:22" ht="12.5">
+    <row r="506" spans="1:22" ht="12.5" hidden="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14245,7 +14245,7 @@
       <c r="U506" s="1"/>
       <c r="V506" s="1"/>
     </row>
-    <row r="507" spans="1:22" ht="12.5">
+    <row r="507" spans="1:22" ht="12.5" hidden="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14269,7 +14269,7 @@
       <c r="U507" s="1"/>
       <c r="V507" s="1"/>
     </row>
-    <row r="508" spans="1:22" ht="12.5">
+    <row r="508" spans="1:22" ht="12.5" hidden="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14293,7 +14293,7 @@
       <c r="U508" s="1"/>
       <c r="V508" s="1"/>
     </row>
-    <row r="509" spans="1:22" ht="12.5">
+    <row r="509" spans="1:22" ht="12.5" hidden="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14317,7 +14317,7 @@
       <c r="U509" s="1"/>
       <c r="V509" s="1"/>
     </row>
-    <row r="510" spans="1:22" ht="12.5">
+    <row r="510" spans="1:22" ht="12.5" hidden="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14341,7 +14341,7 @@
       <c r="U510" s="1"/>
       <c r="V510" s="1"/>
     </row>
-    <row r="511" spans="1:22" ht="12.5">
+    <row r="511" spans="1:22" ht="12.5" hidden="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14365,7 +14365,7 @@
       <c r="U511" s="1"/>
       <c r="V511" s="1"/>
     </row>
-    <row r="512" spans="1:22" ht="12.5">
+    <row r="512" spans="1:22" ht="12.5" hidden="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14389,7 +14389,7 @@
       <c r="U512" s="1"/>
       <c r="V512" s="1"/>
     </row>
-    <row r="513" spans="1:22" ht="12.5">
+    <row r="513" spans="1:22" ht="12.5" hidden="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14413,7 +14413,7 @@
       <c r="U513" s="1"/>
       <c r="V513" s="1"/>
     </row>
-    <row r="514" spans="1:22" ht="12.5">
+    <row r="514" spans="1:22" ht="12.5" hidden="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14437,7 +14437,7 @@
       <c r="U514" s="1"/>
       <c r="V514" s="1"/>
     </row>
-    <row r="515" spans="1:22" ht="12.5">
+    <row r="515" spans="1:22" ht="12.5" hidden="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14461,7 +14461,7 @@
       <c r="U515" s="1"/>
       <c r="V515" s="1"/>
     </row>
-    <row r="516" spans="1:22" ht="12.5">
+    <row r="516" spans="1:22" ht="12.5" hidden="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14485,7 +14485,7 @@
       <c r="U516" s="1"/>
       <c r="V516" s="1"/>
     </row>
-    <row r="517" spans="1:22" ht="12.5">
+    <row r="517" spans="1:22" ht="12.5" hidden="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14509,7 +14509,7 @@
       <c r="U517" s="1"/>
       <c r="V517" s="1"/>
     </row>
-    <row r="518" spans="1:22" ht="12.5">
+    <row r="518" spans="1:22" ht="12.5" hidden="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14533,7 +14533,7 @@
       <c r="U518" s="1"/>
       <c r="V518" s="1"/>
     </row>
-    <row r="519" spans="1:22" ht="12.5">
+    <row r="519" spans="1:22" ht="12.5" hidden="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14557,7 +14557,7 @@
       <c r="U519" s="1"/>
       <c r="V519" s="1"/>
     </row>
-    <row r="520" spans="1:22" ht="12.5">
+    <row r="520" spans="1:22" ht="12.5" hidden="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14581,7 +14581,7 @@
       <c r="U520" s="1"/>
       <c r="V520" s="1"/>
     </row>
-    <row r="521" spans="1:22" ht="12.5">
+    <row r="521" spans="1:22" ht="12.5" hidden="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14605,7 +14605,7 @@
       <c r="U521" s="1"/>
       <c r="V521" s="1"/>
     </row>
-    <row r="522" spans="1:22" ht="12.5">
+    <row r="522" spans="1:22" ht="12.5" hidden="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14629,7 +14629,7 @@
       <c r="U522" s="1"/>
       <c r="V522" s="1"/>
     </row>
-    <row r="523" spans="1:22" ht="12.5">
+    <row r="523" spans="1:22" ht="12.5" hidden="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14653,7 +14653,7 @@
       <c r="U523" s="1"/>
       <c r="V523" s="1"/>
     </row>
-    <row r="524" spans="1:22" ht="12.5">
+    <row r="524" spans="1:22" ht="12.5" hidden="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14677,7 +14677,7 @@
       <c r="U524" s="1"/>
       <c r="V524" s="1"/>
     </row>
-    <row r="525" spans="1:22" ht="12.5">
+    <row r="525" spans="1:22" ht="12.5" hidden="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14701,7 +14701,7 @@
       <c r="U525" s="1"/>
       <c r="V525" s="1"/>
     </row>
-    <row r="526" spans="1:22" ht="12.5">
+    <row r="526" spans="1:22" ht="12.5" hidden="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -14725,7 +14725,7 @@
       <c r="U526" s="1"/>
       <c r="V526" s="1"/>
     </row>
-    <row r="527" spans="1:22" ht="12.5">
+    <row r="527" spans="1:22" ht="12.5" hidden="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -14749,7 +14749,7 @@
       <c r="U527" s="1"/>
       <c r="V527" s="1"/>
     </row>
-    <row r="528" spans="1:22" ht="12.5">
+    <row r="528" spans="1:22" ht="12.5" hidden="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -14773,7 +14773,7 @@
       <c r="U528" s="1"/>
       <c r="V528" s="1"/>
     </row>
-    <row r="529" spans="1:22" ht="12.5">
+    <row r="529" spans="1:22" ht="12.5" hidden="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -14797,7 +14797,7 @@
       <c r="U529" s="1"/>
       <c r="V529" s="1"/>
     </row>
-    <row r="530" spans="1:22" ht="12.5">
+    <row r="530" spans="1:22" ht="12.5" hidden="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -14821,7 +14821,7 @@
       <c r="U530" s="1"/>
       <c r="V530" s="1"/>
     </row>
-    <row r="531" spans="1:22" ht="12.5">
+    <row r="531" spans="1:22" ht="12.5" hidden="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -14845,7 +14845,7 @@
       <c r="U531" s="1"/>
       <c r="V531" s="1"/>
     </row>
-    <row r="532" spans="1:22" ht="12.5">
+    <row r="532" spans="1:22" ht="12.5" hidden="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -14869,7 +14869,7 @@
       <c r="U532" s="1"/>
       <c r="V532" s="1"/>
     </row>
-    <row r="533" spans="1:22" ht="12.5">
+    <row r="533" spans="1:22" ht="12.5" hidden="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -14893,7 +14893,7 @@
       <c r="U533" s="1"/>
       <c r="V533" s="1"/>
     </row>
-    <row r="534" spans="1:22" ht="12.5">
+    <row r="534" spans="1:22" ht="12.5" hidden="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -14917,7 +14917,7 @@
       <c r="U534" s="1"/>
       <c r="V534" s="1"/>
     </row>
-    <row r="535" spans="1:22" ht="12.5">
+    <row r="535" spans="1:22" ht="12.5" hidden="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -14941,7 +14941,7 @@
       <c r="U535" s="1"/>
       <c r="V535" s="1"/>
     </row>
-    <row r="536" spans="1:22" ht="12.5">
+    <row r="536" spans="1:22" ht="12.5" hidden="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -14965,7 +14965,7 @@
       <c r="U536" s="1"/>
       <c r="V536" s="1"/>
     </row>
-    <row r="537" spans="1:22" ht="12.5">
+    <row r="537" spans="1:22" ht="12.5" hidden="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -14989,7 +14989,7 @@
       <c r="U537" s="1"/>
       <c r="V537" s="1"/>
     </row>
-    <row r="538" spans="1:22" ht="12.5">
+    <row r="538" spans="1:22" ht="12.5" hidden="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15013,7 +15013,7 @@
       <c r="U538" s="1"/>
       <c r="V538" s="1"/>
     </row>
-    <row r="539" spans="1:22" ht="12.5">
+    <row r="539" spans="1:22" ht="12.5" hidden="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15037,7 +15037,7 @@
       <c r="U539" s="1"/>
       <c r="V539" s="1"/>
     </row>
-    <row r="540" spans="1:22" ht="12.5">
+    <row r="540" spans="1:22" ht="12.5" hidden="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15061,7 +15061,7 @@
       <c r="U540" s="1"/>
       <c r="V540" s="1"/>
     </row>
-    <row r="541" spans="1:22" ht="12.5">
+    <row r="541" spans="1:22" ht="12.5" hidden="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15085,7 +15085,7 @@
       <c r="U541" s="1"/>
       <c r="V541" s="1"/>
     </row>
-    <row r="542" spans="1:22" ht="12.5">
+    <row r="542" spans="1:22" ht="12.5" hidden="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15109,7 +15109,7 @@
       <c r="U542" s="1"/>
       <c r="V542" s="1"/>
     </row>
-    <row r="543" spans="1:22" ht="12.5">
+    <row r="543" spans="1:22" ht="12.5" hidden="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15133,7 +15133,7 @@
       <c r="U543" s="1"/>
       <c r="V543" s="1"/>
     </row>
-    <row r="544" spans="1:22" ht="12.5">
+    <row r="544" spans="1:22" ht="12.5" hidden="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15157,7 +15157,7 @@
       <c r="U544" s="1"/>
       <c r="V544" s="1"/>
     </row>
-    <row r="545" spans="1:22" ht="12.5">
+    <row r="545" spans="1:22" ht="12.5" hidden="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15181,7 +15181,7 @@
       <c r="U545" s="1"/>
       <c r="V545" s="1"/>
     </row>
-    <row r="546" spans="1:22" ht="12.5">
+    <row r="546" spans="1:22" ht="12.5" hidden="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15205,7 +15205,7 @@
       <c r="U546" s="1"/>
       <c r="V546" s="1"/>
     </row>
-    <row r="547" spans="1:22" ht="12.5">
+    <row r="547" spans="1:22" ht="12.5" hidden="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15229,7 +15229,7 @@
       <c r="U547" s="1"/>
       <c r="V547" s="1"/>
     </row>
-    <row r="548" spans="1:22" ht="12.5">
+    <row r="548" spans="1:22" ht="12.5" hidden="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15253,7 +15253,7 @@
       <c r="U548" s="1"/>
       <c r="V548" s="1"/>
     </row>
-    <row r="549" spans="1:22" ht="12.5">
+    <row r="549" spans="1:22" ht="12.5" hidden="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15277,7 +15277,7 @@
       <c r="U549" s="1"/>
       <c r="V549" s="1"/>
     </row>
-    <row r="550" spans="1:22" ht="12.5">
+    <row r="550" spans="1:22" ht="12.5" hidden="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15301,7 +15301,7 @@
       <c r="U550" s="1"/>
       <c r="V550" s="1"/>
     </row>
-    <row r="551" spans="1:22" ht="12.5">
+    <row r="551" spans="1:22" ht="12.5" hidden="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15325,7 +15325,7 @@
       <c r="U551" s="1"/>
       <c r="V551" s="1"/>
     </row>
-    <row r="552" spans="1:22" ht="12.5">
+    <row r="552" spans="1:22" ht="12.5" hidden="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15349,7 +15349,7 @@
       <c r="U552" s="1"/>
       <c r="V552" s="1"/>
     </row>
-    <row r="553" spans="1:22" ht="12.5">
+    <row r="553" spans="1:22" ht="12.5" hidden="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15373,7 +15373,7 @@
       <c r="U553" s="1"/>
       <c r="V553" s="1"/>
     </row>
-    <row r="554" spans="1:22" ht="12.5">
+    <row r="554" spans="1:22" ht="12.5" hidden="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15397,7 +15397,7 @@
       <c r="U554" s="1"/>
       <c r="V554" s="1"/>
     </row>
-    <row r="555" spans="1:22" ht="12.5">
+    <row r="555" spans="1:22" ht="12.5" hidden="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15421,7 +15421,7 @@
       <c r="U555" s="1"/>
       <c r="V555" s="1"/>
     </row>
-    <row r="556" spans="1:22" ht="12.5">
+    <row r="556" spans="1:22" ht="12.5" hidden="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15445,7 +15445,7 @@
       <c r="U556" s="1"/>
       <c r="V556" s="1"/>
     </row>
-    <row r="557" spans="1:22" ht="12.5">
+    <row r="557" spans="1:22" ht="12.5" hidden="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15469,7 +15469,7 @@
       <c r="U557" s="1"/>
       <c r="V557" s="1"/>
     </row>
-    <row r="558" spans="1:22" ht="12.5">
+    <row r="558" spans="1:22" ht="12.5" hidden="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15493,7 +15493,7 @@
       <c r="U558" s="1"/>
       <c r="V558" s="1"/>
     </row>
-    <row r="559" spans="1:22" ht="12.5">
+    <row r="559" spans="1:22" ht="12.5" hidden="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15517,7 +15517,7 @@
       <c r="U559" s="1"/>
       <c r="V559" s="1"/>
     </row>
-    <row r="560" spans="1:22" ht="12.5">
+    <row r="560" spans="1:22" ht="12.5" hidden="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15541,7 +15541,7 @@
       <c r="U560" s="1"/>
       <c r="V560" s="1"/>
     </row>
-    <row r="561" spans="1:22" ht="12.5">
+    <row r="561" spans="1:22" ht="12.5" hidden="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15565,7 +15565,7 @@
       <c r="U561" s="1"/>
       <c r="V561" s="1"/>
     </row>
-    <row r="562" spans="1:22" ht="12.5">
+    <row r="562" spans="1:22" ht="12.5" hidden="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15589,7 +15589,7 @@
       <c r="U562" s="1"/>
       <c r="V562" s="1"/>
     </row>
-    <row r="563" spans="1:22" ht="12.5">
+    <row r="563" spans="1:22" ht="12.5" hidden="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -15613,7 +15613,7 @@
       <c r="U563" s="1"/>
       <c r="V563" s="1"/>
     </row>
-    <row r="564" spans="1:22" ht="12.5">
+    <row r="564" spans="1:22" ht="12.5" hidden="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -15637,7 +15637,7 @@
       <c r="U564" s="1"/>
       <c r="V564" s="1"/>
     </row>
-    <row r="565" spans="1:22" ht="12.5">
+    <row r="565" spans="1:22" ht="12.5" hidden="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -15661,7 +15661,7 @@
       <c r="U565" s="1"/>
       <c r="V565" s="1"/>
     </row>
-    <row r="566" spans="1:22" ht="12.5">
+    <row r="566" spans="1:22" ht="12.5" hidden="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -15685,7 +15685,7 @@
       <c r="U566" s="1"/>
       <c r="V566" s="1"/>
     </row>
-    <row r="567" spans="1:22" ht="12.5">
+    <row r="567" spans="1:22" ht="12.5" hidden="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -15709,7 +15709,7 @@
       <c r="U567" s="1"/>
       <c r="V567" s="1"/>
     </row>
-    <row r="568" spans="1:22" ht="12.5">
+    <row r="568" spans="1:22" ht="12.5" hidden="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -15733,7 +15733,7 @@
       <c r="U568" s="1"/>
       <c r="V568" s="1"/>
     </row>
-    <row r="569" spans="1:22" ht="12.5">
+    <row r="569" spans="1:22" ht="12.5" hidden="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -15757,7 +15757,7 @@
       <c r="U569" s="1"/>
       <c r="V569" s="1"/>
     </row>
-    <row r="570" spans="1:22" ht="12.5">
+    <row r="570" spans="1:22" ht="12.5" hidden="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -15781,7 +15781,7 @@
       <c r="U570" s="1"/>
       <c r="V570" s="1"/>
     </row>
-    <row r="571" spans="1:22" ht="12.5">
+    <row r="571" spans="1:22" ht="12.5" hidden="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -15805,7 +15805,7 @@
       <c r="U571" s="1"/>
       <c r="V571" s="1"/>
     </row>
-    <row r="572" spans="1:22" ht="12.5">
+    <row r="572" spans="1:22" ht="12.5" hidden="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -15829,7 +15829,7 @@
       <c r="U572" s="1"/>
       <c r="V572" s="1"/>
     </row>
-    <row r="573" spans="1:22" ht="12.5">
+    <row r="573" spans="1:22" ht="12.5" hidden="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -15853,7 +15853,7 @@
       <c r="U573" s="1"/>
       <c r="V573" s="1"/>
     </row>
-    <row r="574" spans="1:22" ht="12.5">
+    <row r="574" spans="1:22" ht="12.5" hidden="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -15877,7 +15877,7 @@
       <c r="U574" s="1"/>
       <c r="V574" s="1"/>
     </row>
-    <row r="575" spans="1:22" ht="12.5">
+    <row r="575" spans="1:22" ht="12.5" hidden="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -15901,7 +15901,7 @@
       <c r="U575" s="1"/>
       <c r="V575" s="1"/>
     </row>
-    <row r="576" spans="1:22" ht="12.5">
+    <row r="576" spans="1:22" ht="12.5" hidden="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -15925,7 +15925,7 @@
       <c r="U576" s="1"/>
       <c r="V576" s="1"/>
     </row>
-    <row r="577" spans="1:22" ht="12.5">
+    <row r="577" spans="1:22" ht="12.5" hidden="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -15949,7 +15949,7 @@
       <c r="U577" s="1"/>
       <c r="V577" s="1"/>
     </row>
-    <row r="578" spans="1:22" ht="12.5">
+    <row r="578" spans="1:22" ht="12.5" hidden="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -15973,7 +15973,7 @@
       <c r="U578" s="1"/>
       <c r="V578" s="1"/>
     </row>
-    <row r="579" spans="1:22" ht="12.5">
+    <row r="579" spans="1:22" ht="12.5" hidden="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -15997,7 +15997,7 @@
       <c r="U579" s="1"/>
       <c r="V579" s="1"/>
     </row>
-    <row r="580" spans="1:22" ht="12.5">
+    <row r="580" spans="1:22" ht="12.5" hidden="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16021,7 +16021,7 @@
       <c r="U580" s="1"/>
       <c r="V580" s="1"/>
     </row>
-    <row r="581" spans="1:22" ht="12.5">
+    <row r="581" spans="1:22" ht="12.5" hidden="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16045,7 +16045,7 @@
       <c r="U581" s="1"/>
       <c r="V581" s="1"/>
     </row>
-    <row r="582" spans="1:22" ht="12.5">
+    <row r="582" spans="1:22" ht="12.5" hidden="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16069,7 +16069,7 @@
       <c r="U582" s="1"/>
       <c r="V582" s="1"/>
     </row>
-    <row r="583" spans="1:22" ht="12.5">
+    <row r="583" spans="1:22" ht="12.5" hidden="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16093,7 +16093,7 @@
       <c r="U583" s="1"/>
       <c r="V583" s="1"/>
     </row>
-    <row r="584" spans="1:22" ht="12.5">
+    <row r="584" spans="1:22" ht="12.5" hidden="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16117,7 +16117,7 @@
       <c r="U584" s="1"/>
       <c r="V584" s="1"/>
     </row>
-    <row r="585" spans="1:22" ht="12.5">
+    <row r="585" spans="1:22" ht="12.5" hidden="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16141,7 +16141,7 @@
       <c r="U585" s="1"/>
       <c r="V585" s="1"/>
     </row>
-    <row r="586" spans="1:22" ht="12.5">
+    <row r="586" spans="1:22" ht="12.5" hidden="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16165,7 +16165,7 @@
       <c r="U586" s="1"/>
       <c r="V586" s="1"/>
     </row>
-    <row r="587" spans="1:22" ht="12.5">
+    <row r="587" spans="1:22" ht="12.5" hidden="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16189,7 +16189,7 @@
       <c r="U587" s="1"/>
       <c r="V587" s="1"/>
     </row>
-    <row r="588" spans="1:22" ht="12.5">
+    <row r="588" spans="1:22" ht="12.5" hidden="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16213,7 +16213,7 @@
       <c r="U588" s="1"/>
       <c r="V588" s="1"/>
     </row>
-    <row r="589" spans="1:22" ht="12.5">
+    <row r="589" spans="1:22" ht="12.5" hidden="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16237,7 +16237,7 @@
       <c r="U589" s="1"/>
       <c r="V589" s="1"/>
     </row>
-    <row r="590" spans="1:22" ht="12.5">
+    <row r="590" spans="1:22" ht="12.5" hidden="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16261,7 +16261,7 @@
       <c r="U590" s="1"/>
       <c r="V590" s="1"/>
     </row>
-    <row r="591" spans="1:22" ht="12.5">
+    <row r="591" spans="1:22" ht="12.5" hidden="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16285,7 +16285,7 @@
       <c r="U591" s="1"/>
       <c r="V591" s="1"/>
     </row>
-    <row r="592" spans="1:22" ht="12.5">
+    <row r="592" spans="1:22" ht="12.5" hidden="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16309,7 +16309,7 @@
       <c r="U592" s="1"/>
       <c r="V592" s="1"/>
     </row>
-    <row r="593" spans="1:22" ht="12.5">
+    <row r="593" spans="1:22" ht="12.5" hidden="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16333,7 +16333,7 @@
       <c r="U593" s="1"/>
       <c r="V593" s="1"/>
     </row>
-    <row r="594" spans="1:22" ht="12.5">
+    <row r="594" spans="1:22" ht="12.5" hidden="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16357,7 +16357,7 @@
       <c r="U594" s="1"/>
       <c r="V594" s="1"/>
     </row>
-    <row r="595" spans="1:22" ht="12.5">
+    <row r="595" spans="1:22" ht="12.5" hidden="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16381,7 +16381,7 @@
       <c r="U595" s="1"/>
       <c r="V595" s="1"/>
     </row>
-    <row r="596" spans="1:22" ht="12.5">
+    <row r="596" spans="1:22" ht="12.5" hidden="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16405,7 +16405,7 @@
       <c r="U596" s="1"/>
       <c r="V596" s="1"/>
     </row>
-    <row r="597" spans="1:22" ht="12.5">
+    <row r="597" spans="1:22" ht="12.5" hidden="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16429,7 +16429,7 @@
       <c r="U597" s="1"/>
       <c r="V597" s="1"/>
     </row>
-    <row r="598" spans="1:22" ht="12.5">
+    <row r="598" spans="1:22" ht="12.5" hidden="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16453,7 +16453,7 @@
       <c r="U598" s="1"/>
       <c r="V598" s="1"/>
     </row>
-    <row r="599" spans="1:22" ht="12.5">
+    <row r="599" spans="1:22" ht="12.5" hidden="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16477,7 +16477,7 @@
       <c r="U599" s="1"/>
       <c r="V599" s="1"/>
     </row>
-    <row r="600" spans="1:22" ht="12.5">
+    <row r="600" spans="1:22" ht="12.5" hidden="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -16501,7 +16501,7 @@
       <c r="U600" s="1"/>
       <c r="V600" s="1"/>
     </row>
-    <row r="601" spans="1:22" ht="12.5">
+    <row r="601" spans="1:22" ht="12.5" hidden="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -16525,7 +16525,7 @@
       <c r="U601" s="1"/>
       <c r="V601" s="1"/>
     </row>
-    <row r="602" spans="1:22" ht="12.5">
+    <row r="602" spans="1:22" ht="12.5" hidden="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -16549,7 +16549,7 @@
       <c r="U602" s="1"/>
       <c r="V602" s="1"/>
     </row>
-    <row r="603" spans="1:22" ht="12.5">
+    <row r="603" spans="1:22" ht="12.5" hidden="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -16573,7 +16573,7 @@
       <c r="U603" s="1"/>
       <c r="V603" s="1"/>
     </row>
-    <row r="604" spans="1:22" ht="12.5">
+    <row r="604" spans="1:22" ht="12.5" hidden="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -16597,7 +16597,7 @@
       <c r="U604" s="1"/>
       <c r="V604" s="1"/>
     </row>
-    <row r="605" spans="1:22" ht="12.5">
+    <row r="605" spans="1:22" ht="12.5" hidden="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -16621,7 +16621,7 @@
       <c r="U605" s="1"/>
       <c r="V605" s="1"/>
     </row>
-    <row r="606" spans="1:22" ht="12.5">
+    <row r="606" spans="1:22" ht="12.5" hidden="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -16645,7 +16645,7 @@
       <c r="U606" s="1"/>
       <c r="V606" s="1"/>
     </row>
-    <row r="607" spans="1:22" ht="12.5">
+    <row r="607" spans="1:22" ht="12.5" hidden="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -16669,7 +16669,7 @@
       <c r="U607" s="1"/>
       <c r="V607" s="1"/>
     </row>
-    <row r="608" spans="1:22" ht="12.5">
+    <row r="608" spans="1:22" ht="12.5" hidden="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -16693,7 +16693,7 @@
       <c r="U608" s="1"/>
       <c r="V608" s="1"/>
     </row>
-    <row r="609" spans="1:22" ht="12.5">
+    <row r="609" spans="1:22" ht="12.5" hidden="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -16717,7 +16717,7 @@
       <c r="U609" s="1"/>
       <c r="V609" s="1"/>
     </row>
-    <row r="610" spans="1:22" ht="12.5">
+    <row r="610" spans="1:22" ht="12.5" hidden="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -16741,7 +16741,7 @@
       <c r="U610" s="1"/>
       <c r="V610" s="1"/>
     </row>
-    <row r="611" spans="1:22" ht="12.5">
+    <row r="611" spans="1:22" ht="12.5" hidden="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -16765,7 +16765,7 @@
       <c r="U611" s="1"/>
       <c r="V611" s="1"/>
     </row>
-    <row r="612" spans="1:22" ht="12.5">
+    <row r="612" spans="1:22" ht="12.5" hidden="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -16789,7 +16789,7 @@
       <c r="U612" s="1"/>
       <c r="V612" s="1"/>
     </row>
-    <row r="613" spans="1:22" ht="12.5">
+    <row r="613" spans="1:22" ht="12.5" hidden="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -16813,7 +16813,7 @@
       <c r="U613" s="1"/>
       <c r="V613" s="1"/>
     </row>
-    <row r="614" spans="1:22" ht="12.5">
+    <row r="614" spans="1:22" ht="12.5" hidden="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -16837,7 +16837,7 @@
       <c r="U614" s="1"/>
       <c r="V614" s="1"/>
     </row>
-    <row r="615" spans="1:22" ht="12.5">
+    <row r="615" spans="1:22" ht="12.5" hidden="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -16861,7 +16861,7 @@
       <c r="U615" s="1"/>
       <c r="V615" s="1"/>
     </row>
-    <row r="616" spans="1:22" ht="12.5">
+    <row r="616" spans="1:22" ht="12.5" hidden="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -16885,7 +16885,7 @@
       <c r="U616" s="1"/>
       <c r="V616" s="1"/>
     </row>
-    <row r="617" spans="1:22" ht="12.5">
+    <row r="617" spans="1:22" ht="12.5" hidden="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -16909,7 +16909,7 @@
       <c r="U617" s="1"/>
       <c r="V617" s="1"/>
     </row>
-    <row r="618" spans="1:22" ht="12.5">
+    <row r="618" spans="1:22" ht="12.5" hidden="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -16933,7 +16933,7 @@
       <c r="U618" s="1"/>
       <c r="V618" s="1"/>
     </row>
-    <row r="619" spans="1:22" ht="12.5">
+    <row r="619" spans="1:22" ht="12.5" hidden="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -16957,7 +16957,7 @@
       <c r="U619" s="1"/>
       <c r="V619" s="1"/>
     </row>
-    <row r="620" spans="1:22" ht="12.5">
+    <row r="620" spans="1:22" ht="12.5" hidden="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -16981,7 +16981,7 @@
       <c r="U620" s="1"/>
       <c r="V620" s="1"/>
     </row>
-    <row r="621" spans="1:22" ht="12.5">
+    <row r="621" spans="1:22" ht="12.5" hidden="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17005,7 +17005,7 @@
       <c r="U621" s="1"/>
       <c r="V621" s="1"/>
     </row>
-    <row r="622" spans="1:22" ht="12.5">
+    <row r="622" spans="1:22" ht="12.5" hidden="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17029,7 +17029,7 @@
       <c r="U622" s="1"/>
       <c r="V622" s="1"/>
     </row>
-    <row r="623" spans="1:22" ht="12.5">
+    <row r="623" spans="1:22" ht="12.5" hidden="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17053,7 +17053,7 @@
       <c r="U623" s="1"/>
       <c r="V623" s="1"/>
     </row>
-    <row r="624" spans="1:22" ht="12.5">
+    <row r="624" spans="1:22" ht="12.5" hidden="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17077,7 +17077,7 @@
       <c r="U624" s="1"/>
       <c r="V624" s="1"/>
     </row>
-    <row r="625" spans="1:22" ht="12.5">
+    <row r="625" spans="1:22" ht="12.5" hidden="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17101,7 +17101,7 @@
       <c r="U625" s="1"/>
       <c r="V625" s="1"/>
     </row>
-    <row r="626" spans="1:22" ht="12.5">
+    <row r="626" spans="1:22" ht="12.5" hidden="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17125,7 +17125,7 @@
       <c r="U626" s="1"/>
       <c r="V626" s="1"/>
     </row>
-    <row r="627" spans="1:22" ht="12.5">
+    <row r="627" spans="1:22" ht="12.5" hidden="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17149,7 +17149,7 @@
       <c r="U627" s="1"/>
       <c r="V627" s="1"/>
     </row>
-    <row r="628" spans="1:22" ht="12.5">
+    <row r="628" spans="1:22" ht="12.5" hidden="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17173,7 +17173,7 @@
       <c r="U628" s="1"/>
       <c r="V628" s="1"/>
     </row>
-    <row r="629" spans="1:22" ht="12.5">
+    <row r="629" spans="1:22" ht="12.5" hidden="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17197,7 +17197,7 @@
       <c r="U629" s="1"/>
       <c r="V629" s="1"/>
     </row>
-    <row r="630" spans="1:22" ht="12.5">
+    <row r="630" spans="1:22" ht="12.5" hidden="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17221,7 +17221,7 @@
       <c r="U630" s="1"/>
       <c r="V630" s="1"/>
     </row>
-    <row r="631" spans="1:22" ht="12.5">
+    <row r="631" spans="1:22" ht="12.5" hidden="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17245,7 +17245,7 @@
       <c r="U631" s="1"/>
       <c r="V631" s="1"/>
     </row>
-    <row r="632" spans="1:22" ht="12.5">
+    <row r="632" spans="1:22" ht="12.5" hidden="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17269,7 +17269,7 @@
       <c r="U632" s="1"/>
       <c r="V632" s="1"/>
     </row>
-    <row r="633" spans="1:22" ht="12.5">
+    <row r="633" spans="1:22" ht="12.5" hidden="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17293,7 +17293,7 @@
       <c r="U633" s="1"/>
       <c r="V633" s="1"/>
     </row>
-    <row r="634" spans="1:22" ht="12.5">
+    <row r="634" spans="1:22" ht="12.5" hidden="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17317,7 +17317,7 @@
       <c r="U634" s="1"/>
       <c r="V634" s="1"/>
     </row>
-    <row r="635" spans="1:22" ht="12.5">
+    <row r="635" spans="1:22" ht="12.5" hidden="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17341,7 +17341,7 @@
       <c r="U635" s="1"/>
       <c r="V635" s="1"/>
     </row>
-    <row r="636" spans="1:22" ht="12.5">
+    <row r="636" spans="1:22" ht="12.5" hidden="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17365,7 +17365,7 @@
       <c r="U636" s="1"/>
       <c r="V636" s="1"/>
     </row>
-    <row r="637" spans="1:22" ht="12.5">
+    <row r="637" spans="1:22" ht="12.5" hidden="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -17389,7 +17389,7 @@
       <c r="U637" s="1"/>
       <c r="V637" s="1"/>
     </row>
-    <row r="638" spans="1:22" ht="12.5">
+    <row r="638" spans="1:22" ht="12.5" hidden="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -17413,7 +17413,7 @@
       <c r="U638" s="1"/>
       <c r="V638" s="1"/>
     </row>
-    <row r="639" spans="1:22" ht="12.5">
+    <row r="639" spans="1:22" ht="12.5" hidden="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -17437,7 +17437,7 @@
       <c r="U639" s="1"/>
       <c r="V639" s="1"/>
     </row>
-    <row r="640" spans="1:22" ht="12.5">
+    <row r="640" spans="1:22" ht="12.5" hidden="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -17461,7 +17461,7 @@
       <c r="U640" s="1"/>
       <c r="V640" s="1"/>
     </row>
-    <row r="641" spans="1:22" ht="12.5">
+    <row r="641" spans="1:22" ht="12.5" hidden="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -17485,7 +17485,7 @@
       <c r="U641" s="1"/>
       <c r="V641" s="1"/>
     </row>
-    <row r="642" spans="1:22" ht="12.5">
+    <row r="642" spans="1:22" ht="12.5" hidden="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -17509,7 +17509,7 @@
       <c r="U642" s="1"/>
       <c r="V642" s="1"/>
     </row>
-    <row r="643" spans="1:22" ht="12.5">
+    <row r="643" spans="1:22" ht="12.5" hidden="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -17533,7 +17533,7 @@
       <c r="U643" s="1"/>
       <c r="V643" s="1"/>
     </row>
-    <row r="644" spans="1:22" ht="12.5">
+    <row r="644" spans="1:22" ht="12.5" hidden="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -17557,7 +17557,7 @@
       <c r="U644" s="1"/>
       <c r="V644" s="1"/>
     </row>
-    <row r="645" spans="1:22" ht="12.5">
+    <row r="645" spans="1:22" ht="12.5" hidden="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -17581,7 +17581,7 @@
       <c r="U645" s="1"/>
       <c r="V645" s="1"/>
     </row>
-    <row r="646" spans="1:22" ht="12.5">
+    <row r="646" spans="1:22" ht="12.5" hidden="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -17605,7 +17605,7 @@
       <c r="U646" s="1"/>
       <c r="V646" s="1"/>
     </row>
-    <row r="647" spans="1:22" ht="12.5">
+    <row r="647" spans="1:22" ht="12.5" hidden="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -17629,7 +17629,7 @@
       <c r="U647" s="1"/>
       <c r="V647" s="1"/>
     </row>
-    <row r="648" spans="1:22" ht="12.5">
+    <row r="648" spans="1:22" ht="12.5" hidden="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -17653,7 +17653,7 @@
       <c r="U648" s="1"/>
       <c r="V648" s="1"/>
     </row>
-    <row r="649" spans="1:22" ht="12.5">
+    <row r="649" spans="1:22" ht="12.5" hidden="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -17677,7 +17677,7 @@
       <c r="U649" s="1"/>
       <c r="V649" s="1"/>
     </row>
-    <row r="650" spans="1:22" ht="12.5">
+    <row r="650" spans="1:22" ht="12.5" hidden="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -17701,7 +17701,7 @@
       <c r="U650" s="1"/>
       <c r="V650" s="1"/>
     </row>
-    <row r="651" spans="1:22" ht="12.5">
+    <row r="651" spans="1:22" ht="12.5" hidden="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -17725,7 +17725,7 @@
       <c r="U651" s="1"/>
       <c r="V651" s="1"/>
     </row>
-    <row r="652" spans="1:22" ht="12.5">
+    <row r="652" spans="1:22" ht="12.5" hidden="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -17749,7 +17749,7 @@
       <c r="U652" s="1"/>
       <c r="V652" s="1"/>
     </row>
-    <row r="653" spans="1:22" ht="12.5">
+    <row r="653" spans="1:22" ht="12.5" hidden="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -17773,7 +17773,7 @@
       <c r="U653" s="1"/>
       <c r="V653" s="1"/>
     </row>
-    <row r="654" spans="1:22" ht="12.5">
+    <row r="654" spans="1:22" ht="12.5" hidden="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -17797,7 +17797,7 @@
       <c r="U654" s="1"/>
       <c r="V654" s="1"/>
     </row>
-    <row r="655" spans="1:22" ht="12.5">
+    <row r="655" spans="1:22" ht="12.5" hidden="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -17821,7 +17821,7 @@
       <c r="U655" s="1"/>
       <c r="V655" s="1"/>
     </row>
-    <row r="656" spans="1:22" ht="12.5">
+    <row r="656" spans="1:22" ht="12.5" hidden="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -17845,7 +17845,7 @@
       <c r="U656" s="1"/>
       <c r="V656" s="1"/>
     </row>
-    <row r="657" spans="1:22" ht="12.5">
+    <row r="657" spans="1:22" ht="12.5" hidden="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -17869,7 +17869,7 @@
       <c r="U657" s="1"/>
       <c r="V657" s="1"/>
     </row>
-    <row r="658" spans="1:22" ht="12.5">
+    <row r="658" spans="1:22" ht="12.5" hidden="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -17893,7 +17893,7 @@
       <c r="U658" s="1"/>
       <c r="V658" s="1"/>
     </row>
-    <row r="659" spans="1:22" ht="12.5">
+    <row r="659" spans="1:22" ht="12.5" hidden="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -17917,7 +17917,7 @@
       <c r="U659" s="1"/>
       <c r="V659" s="1"/>
     </row>
-    <row r="660" spans="1:22" ht="12.5">
+    <row r="660" spans="1:22" ht="12.5" hidden="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -17941,7 +17941,7 @@
       <c r="U660" s="1"/>
       <c r="V660" s="1"/>
     </row>
-    <row r="661" spans="1:22" ht="12.5">
+    <row r="661" spans="1:22" ht="12.5" hidden="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -17965,7 +17965,7 @@
       <c r="U661" s="1"/>
       <c r="V661" s="1"/>
     </row>
-    <row r="662" spans="1:22" ht="12.5">
+    <row r="662" spans="1:22" ht="12.5" hidden="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -17989,7 +17989,7 @@
       <c r="U662" s="1"/>
       <c r="V662" s="1"/>
     </row>
-    <row r="663" spans="1:22" ht="12.5">
+    <row r="663" spans="1:22" ht="12.5" hidden="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -18013,7 +18013,7 @@
       <c r="U663" s="1"/>
       <c r="V663" s="1"/>
     </row>
-    <row r="664" spans="1:22" ht="12.5">
+    <row r="664" spans="1:22" ht="12.5" hidden="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -18037,7 +18037,7 @@
       <c r="U664" s="1"/>
       <c r="V664" s="1"/>
     </row>
-    <row r="665" spans="1:22" ht="12.5">
+    <row r="665" spans="1:22" ht="12.5" hidden="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -18061,7 +18061,7 @@
       <c r="U665" s="1"/>
       <c r="V665" s="1"/>
     </row>
-    <row r="666" spans="1:22" ht="12.5">
+    <row r="666" spans="1:22" ht="12.5" hidden="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18085,7 +18085,7 @@
       <c r="U666" s="1"/>
       <c r="V666" s="1"/>
     </row>
-    <row r="667" spans="1:22" ht="12.5">
+    <row r="667" spans="1:22" ht="12.5" hidden="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18109,7 +18109,7 @@
       <c r="U667" s="1"/>
       <c r="V667" s="1"/>
     </row>
-    <row r="668" spans="1:22" ht="12.5">
+    <row r="668" spans="1:22" ht="12.5" hidden="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18133,7 +18133,7 @@
       <c r="U668" s="1"/>
       <c r="V668" s="1"/>
     </row>
-    <row r="669" spans="1:22" ht="12.5">
+    <row r="669" spans="1:22" ht="12.5" hidden="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -18157,7 +18157,7 @@
       <c r="U669" s="1"/>
       <c r="V669" s="1"/>
     </row>
-    <row r="670" spans="1:22" ht="12.5">
+    <row r="670" spans="1:22" ht="12.5" hidden="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -18181,7 +18181,7 @@
       <c r="U670" s="1"/>
       <c r="V670" s="1"/>
     </row>
-    <row r="671" spans="1:22" ht="12.5">
+    <row r="671" spans="1:22" ht="12.5" hidden="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -18205,7 +18205,7 @@
       <c r="U671" s="1"/>
       <c r="V671" s="1"/>
     </row>
-    <row r="672" spans="1:22" ht="12.5">
+    <row r="672" spans="1:22" ht="12.5" hidden="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -18229,7 +18229,7 @@
       <c r="U672" s="1"/>
       <c r="V672" s="1"/>
     </row>
-    <row r="673" spans="1:22" ht="12.5">
+    <row r="673" spans="1:22" ht="12.5" hidden="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -18253,7 +18253,7 @@
       <c r="U673" s="1"/>
       <c r="V673" s="1"/>
     </row>
-    <row r="674" spans="1:22" ht="12.5">
+    <row r="674" spans="1:22" ht="12.5" hidden="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -18277,7 +18277,7 @@
       <c r="U674" s="1"/>
       <c r="V674" s="1"/>
     </row>
-    <row r="675" spans="1:22" ht="12.5">
+    <row r="675" spans="1:22" ht="12.5" hidden="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -18301,7 +18301,7 @@
       <c r="U675" s="1"/>
       <c r="V675" s="1"/>
     </row>
-    <row r="676" spans="1:22" ht="12.5">
+    <row r="676" spans="1:22" ht="12.5" hidden="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -18325,7 +18325,7 @@
       <c r="U676" s="1"/>
       <c r="V676" s="1"/>
     </row>
-    <row r="677" spans="1:22" ht="12.5">
+    <row r="677" spans="1:22" ht="12.5" hidden="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -18349,7 +18349,7 @@
       <c r="U677" s="1"/>
       <c r="V677" s="1"/>
     </row>
-    <row r="678" spans="1:22" ht="12.5">
+    <row r="678" spans="1:22" ht="12.5" hidden="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -18373,7 +18373,7 @@
       <c r="U678" s="1"/>
       <c r="V678" s="1"/>
     </row>
-    <row r="679" spans="1:22" ht="12.5">
+    <row r="679" spans="1:22" ht="12.5" hidden="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -18397,7 +18397,7 @@
       <c r="U679" s="1"/>
       <c r="V679" s="1"/>
     </row>
-    <row r="680" spans="1:22" ht="12.5">
+    <row r="680" spans="1:22" ht="12.5" hidden="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -18421,7 +18421,7 @@
       <c r="U680" s="1"/>
       <c r="V680" s="1"/>
     </row>
-    <row r="681" spans="1:22" ht="12.5">
+    <row r="681" spans="1:22" ht="12.5" hidden="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -18445,7 +18445,7 @@
       <c r="U681" s="1"/>
       <c r="V681" s="1"/>
     </row>
-    <row r="682" spans="1:22" ht="12.5">
+    <row r="682" spans="1:22" ht="12.5" hidden="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -18469,7 +18469,7 @@
       <c r="U682" s="1"/>
       <c r="V682" s="1"/>
     </row>
-    <row r="683" spans="1:22" ht="12.5">
+    <row r="683" spans="1:22" ht="12.5" hidden="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -18493,7 +18493,7 @@
       <c r="U683" s="1"/>
       <c r="V683" s="1"/>
     </row>
-    <row r="684" spans="1:22" ht="12.5">
+    <row r="684" spans="1:22" ht="12.5" hidden="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -18517,7 +18517,7 @@
       <c r="U684" s="1"/>
       <c r="V684" s="1"/>
     </row>
-    <row r="685" spans="1:22" ht="12.5">
+    <row r="685" spans="1:22" ht="12.5" hidden="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -18541,7 +18541,7 @@
       <c r="U685" s="1"/>
       <c r="V685" s="1"/>
     </row>
-    <row r="686" spans="1:22" ht="12.5">
+    <row r="686" spans="1:22" ht="12.5" hidden="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -18565,7 +18565,7 @@
       <c r="U686" s="1"/>
       <c r="V686" s="1"/>
     </row>
-    <row r="687" spans="1:22" ht="12.5">
+    <row r="687" spans="1:22" ht="12.5" hidden="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -18589,7 +18589,7 @@
       <c r="U687" s="1"/>
       <c r="V687" s="1"/>
     </row>
-    <row r="688" spans="1:22" ht="12.5">
+    <row r="688" spans="1:22" ht="12.5" hidden="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -18613,7 +18613,7 @@
       <c r="U688" s="1"/>
       <c r="V688" s="1"/>
     </row>
-    <row r="689" spans="1:22" ht="12.5">
+    <row r="689" spans="1:22" ht="12.5" hidden="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -18637,7 +18637,7 @@
       <c r="U689" s="1"/>
       <c r="V689" s="1"/>
     </row>
-    <row r="690" spans="1:22" ht="12.5">
+    <row r="690" spans="1:22" ht="12.5" hidden="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -18661,7 +18661,7 @@
       <c r="U690" s="1"/>
       <c r="V690" s="1"/>
     </row>
-    <row r="691" spans="1:22" ht="12.5">
+    <row r="691" spans="1:22" ht="12.5" hidden="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -18685,7 +18685,7 @@
       <c r="U691" s="1"/>
       <c r="V691" s="1"/>
     </row>
-    <row r="692" spans="1:22" ht="12.5">
+    <row r="692" spans="1:22" ht="12.5" hidden="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -18709,7 +18709,7 @@
       <c r="U692" s="1"/>
       <c r="V692" s="1"/>
     </row>
-    <row r="693" spans="1:22" ht="12.5">
+    <row r="693" spans="1:22" ht="12.5" hidden="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -18733,7 +18733,7 @@
       <c r="U693" s="1"/>
       <c r="V693" s="1"/>
     </row>
-    <row r="694" spans="1:22" ht="12.5">
+    <row r="694" spans="1:22" ht="12.5" hidden="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -18757,7 +18757,7 @@
       <c r="U694" s="1"/>
       <c r="V694" s="1"/>
     </row>
-    <row r="695" spans="1:22" ht="12.5">
+    <row r="695" spans="1:22" ht="12.5" hidden="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -18781,7 +18781,7 @@
       <c r="U695" s="1"/>
       <c r="V695" s="1"/>
     </row>
-    <row r="696" spans="1:22" ht="12.5">
+    <row r="696" spans="1:22" ht="12.5" hidden="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -18805,7 +18805,7 @@
       <c r="U696" s="1"/>
       <c r="V696" s="1"/>
     </row>
-    <row r="697" spans="1:22" ht="12.5">
+    <row r="697" spans="1:22" ht="12.5" hidden="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -18829,7 +18829,7 @@
       <c r="U697" s="1"/>
       <c r="V697" s="1"/>
     </row>
-    <row r="698" spans="1:22" ht="12.5">
+    <row r="698" spans="1:22" ht="12.5" hidden="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -18853,7 +18853,7 @@
       <c r="U698" s="1"/>
       <c r="V698" s="1"/>
     </row>
-    <row r="699" spans="1:22" ht="12.5">
+    <row r="699" spans="1:22" ht="12.5" hidden="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -18877,7 +18877,7 @@
       <c r="U699" s="1"/>
       <c r="V699" s="1"/>
     </row>
-    <row r="700" spans="1:22" ht="12.5">
+    <row r="700" spans="1:22" ht="12.5" hidden="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -18901,7 +18901,7 @@
       <c r="U700" s="1"/>
       <c r="V700" s="1"/>
     </row>
-    <row r="701" spans="1:22" ht="12.5">
+    <row r="701" spans="1:22" ht="12.5" hidden="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -18925,7 +18925,7 @@
       <c r="U701" s="1"/>
       <c r="V701" s="1"/>
     </row>
-    <row r="702" spans="1:22" ht="12.5">
+    <row r="702" spans="1:22" ht="12.5" hidden="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -18949,7 +18949,7 @@
       <c r="U702" s="1"/>
       <c r="V702" s="1"/>
     </row>
-    <row r="703" spans="1:22" ht="12.5">
+    <row r="703" spans="1:22" ht="12.5" hidden="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -18973,7 +18973,7 @@
       <c r="U703" s="1"/>
       <c r="V703" s="1"/>
     </row>
-    <row r="704" spans="1:22" ht="12.5">
+    <row r="704" spans="1:22" ht="12.5" hidden="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -18997,7 +18997,7 @@
       <c r="U704" s="1"/>
       <c r="V704" s="1"/>
     </row>
-    <row r="705" spans="1:22" ht="12.5">
+    <row r="705" spans="1:22" ht="12.5" hidden="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19021,7 +19021,7 @@
       <c r="U705" s="1"/>
       <c r="V705" s="1"/>
     </row>
-    <row r="706" spans="1:22" ht="12.5">
+    <row r="706" spans="1:22" ht="12.5" hidden="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -19045,7 +19045,7 @@
       <c r="U706" s="1"/>
       <c r="V706" s="1"/>
     </row>
-    <row r="707" spans="1:22" ht="12.5">
+    <row r="707" spans="1:22" ht="12.5" hidden="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -19069,7 +19069,7 @@
       <c r="U707" s="1"/>
       <c r="V707" s="1"/>
     </row>
-    <row r="708" spans="1:22" ht="12.5">
+    <row r="708" spans="1:22" ht="12.5" hidden="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -19093,7 +19093,7 @@
       <c r="U708" s="1"/>
       <c r="V708" s="1"/>
     </row>
-    <row r="709" spans="1:22" ht="12.5">
+    <row r="709" spans="1:22" ht="12.5" hidden="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -19117,7 +19117,7 @@
       <c r="U709" s="1"/>
       <c r="V709" s="1"/>
     </row>
-    <row r="710" spans="1:22" ht="12.5">
+    <row r="710" spans="1:22" ht="12.5" hidden="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -19141,7 +19141,7 @@
       <c r="U710" s="1"/>
       <c r="V710" s="1"/>
     </row>
-    <row r="711" spans="1:22" ht="12.5">
+    <row r="711" spans="1:22" ht="12.5" hidden="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -19165,7 +19165,7 @@
       <c r="U711" s="1"/>
       <c r="V711" s="1"/>
     </row>
-    <row r="712" spans="1:22" ht="12.5">
+    <row r="712" spans="1:22" ht="12.5" hidden="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -19189,7 +19189,7 @@
       <c r="U712" s="1"/>
       <c r="V712" s="1"/>
     </row>
-    <row r="713" spans="1:22" ht="12.5">
+    <row r="713" spans="1:22" ht="12.5" hidden="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -19213,7 +19213,7 @@
       <c r="U713" s="1"/>
       <c r="V713" s="1"/>
     </row>
-    <row r="714" spans="1:22" ht="12.5">
+    <row r="714" spans="1:22" ht="12.5" hidden="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -19237,7 +19237,7 @@
       <c r="U714" s="1"/>
       <c r="V714" s="1"/>
     </row>
-    <row r="715" spans="1:22" ht="12.5">
+    <row r="715" spans="1:22" ht="12.5" hidden="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -19261,7 +19261,7 @@
       <c r="U715" s="1"/>
       <c r="V715" s="1"/>
     </row>
-    <row r="716" spans="1:22" ht="12.5">
+    <row r="716" spans="1:22" ht="12.5" hidden="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -19285,7 +19285,7 @@
       <c r="U716" s="1"/>
       <c r="V716" s="1"/>
     </row>
-    <row r="717" spans="1:22" ht="12.5">
+    <row r="717" spans="1:22" ht="12.5" hidden="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -19309,7 +19309,7 @@
       <c r="U717" s="1"/>
       <c r="V717" s="1"/>
     </row>
-    <row r="718" spans="1:22" ht="12.5">
+    <row r="718" spans="1:22" ht="12.5" hidden="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -19333,7 +19333,7 @@
       <c r="U718" s="1"/>
       <c r="V718" s="1"/>
     </row>
-    <row r="719" spans="1:22" ht="12.5">
+    <row r="719" spans="1:22" ht="12.5" hidden="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -19357,7 +19357,7 @@
       <c r="U719" s="1"/>
       <c r="V719" s="1"/>
     </row>
-    <row r="720" spans="1:22" ht="12.5">
+    <row r="720" spans="1:22" ht="12.5" hidden="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -19381,7 +19381,7 @@
       <c r="U720" s="1"/>
       <c r="V720" s="1"/>
     </row>
-    <row r="721" spans="1:22" ht="12.5">
+    <row r="721" spans="1:22" ht="12.5" hidden="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -19405,7 +19405,7 @@
       <c r="U721" s="1"/>
       <c r="V721" s="1"/>
     </row>
-    <row r="722" spans="1:22" ht="12.5">
+    <row r="722" spans="1:22" ht="12.5" hidden="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -19429,7 +19429,7 @@
       <c r="U722" s="1"/>
       <c r="V722" s="1"/>
     </row>
-    <row r="723" spans="1:22" ht="12.5">
+    <row r="723" spans="1:22" ht="12.5" hidden="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -19453,7 +19453,7 @@
       <c r="U723" s="1"/>
       <c r="V723" s="1"/>
     </row>
-    <row r="724" spans="1:22" ht="12.5">
+    <row r="724" spans="1:22" ht="12.5" hidden="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -19477,7 +19477,7 @@
       <c r="U724" s="1"/>
       <c r="V724" s="1"/>
     </row>
-    <row r="725" spans="1:22" ht="12.5">
+    <row r="725" spans="1:22" ht="12.5" hidden="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -19501,7 +19501,7 @@
       <c r="U725" s="1"/>
       <c r="V725" s="1"/>
     </row>
-    <row r="726" spans="1:22" ht="12.5">
+    <row r="726" spans="1:22" ht="12.5" hidden="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -19525,7 +19525,7 @@
       <c r="U726" s="1"/>
       <c r="V726" s="1"/>
     </row>
-    <row r="727" spans="1:22" ht="12.5">
+    <row r="727" spans="1:22" ht="12.5" hidden="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -19549,7 +19549,7 @@
       <c r="U727" s="1"/>
       <c r="V727" s="1"/>
     </row>
-    <row r="728" spans="1:22" ht="12.5">
+    <row r="728" spans="1:22" ht="12.5" hidden="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -19573,7 +19573,7 @@
       <c r="U728" s="1"/>
       <c r="V728" s="1"/>
     </row>
-    <row r="729" spans="1:22" ht="12.5">
+    <row r="729" spans="1:22" ht="12.5" hidden="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -19597,7 +19597,7 @@
       <c r="U729" s="1"/>
       <c r="V729" s="1"/>
     </row>
-    <row r="730" spans="1:22" ht="12.5">
+    <row r="730" spans="1:22" ht="12.5" hidden="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -19621,7 +19621,7 @@
       <c r="U730" s="1"/>
       <c r="V730" s="1"/>
     </row>
-    <row r="731" spans="1:22" ht="12.5">
+    <row r="731" spans="1:22" ht="12.5" hidden="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -19645,7 +19645,7 @@
       <c r="U731" s="1"/>
       <c r="V731" s="1"/>
     </row>
-    <row r="732" spans="1:22" ht="12.5">
+    <row r="732" spans="1:22" ht="12.5" hidden="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -19669,7 +19669,7 @@
       <c r="U732" s="1"/>
       <c r="V732" s="1"/>
     </row>
-    <row r="733" spans="1:22" ht="12.5">
+    <row r="733" spans="1:22" ht="12.5" hidden="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -19693,7 +19693,7 @@
       <c r="U733" s="1"/>
       <c r="V733" s="1"/>
     </row>
-    <row r="734" spans="1:22" ht="12.5">
+    <row r="734" spans="1:22" ht="12.5" hidden="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -19717,7 +19717,7 @@
       <c r="U734" s="1"/>
       <c r="V734" s="1"/>
     </row>
-    <row r="735" spans="1:22" ht="12.5">
+    <row r="735" spans="1:22" ht="12.5" hidden="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -19741,7 +19741,7 @@
       <c r="U735" s="1"/>
       <c r="V735" s="1"/>
     </row>
-    <row r="736" spans="1:22" ht="12.5">
+    <row r="736" spans="1:22" ht="12.5" hidden="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -19765,7 +19765,7 @@
       <c r="U736" s="1"/>
       <c r="V736" s="1"/>
     </row>
-    <row r="737" spans="1:22" ht="12.5">
+    <row r="737" spans="1:22" ht="12.5" hidden="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -19789,7 +19789,7 @@
       <c r="U737" s="1"/>
       <c r="V737" s="1"/>
     </row>
-    <row r="738" spans="1:22" ht="12.5">
+    <row r="738" spans="1:22" ht="12.5" hidden="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -19813,7 +19813,7 @@
       <c r="U738" s="1"/>
       <c r="V738" s="1"/>
     </row>
-    <row r="739" spans="1:22" ht="12.5">
+    <row r="739" spans="1:22" ht="12.5" hidden="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -19837,7 +19837,7 @@
       <c r="U739" s="1"/>
       <c r="V739" s="1"/>
     </row>
-    <row r="740" spans="1:22" ht="12.5">
+    <row r="740" spans="1:22" ht="12.5" hidden="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -19861,7 +19861,7 @@
       <c r="U740" s="1"/>
       <c r="V740" s="1"/>
     </row>
-    <row r="741" spans="1:22" ht="12.5">
+    <row r="741" spans="1:22" ht="12.5" hidden="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -19885,7 +19885,7 @@
       <c r="U741" s="1"/>
       <c r="V741" s="1"/>
     </row>
-    <row r="742" spans="1:22" ht="12.5">
+    <row r="742" spans="1:22" ht="12.5" hidden="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -19909,7 +19909,7 @@
       <c r="U742" s="1"/>
       <c r="V742" s="1"/>
     </row>
-    <row r="743" spans="1:22" ht="12.5">
+    <row r="743" spans="1:22" ht="12.5" hidden="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -19933,7 +19933,7 @@
       <c r="U743" s="1"/>
       <c r="V743" s="1"/>
     </row>
-    <row r="744" spans="1:22" ht="12.5">
+    <row r="744" spans="1:22" ht="12.5" hidden="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -19957,7 +19957,7 @@
       <c r="U744" s="1"/>
       <c r="V744" s="1"/>
     </row>
-    <row r="745" spans="1:22" ht="12.5">
+    <row r="745" spans="1:22" ht="12.5" hidden="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -19981,7 +19981,7 @@
       <c r="U745" s="1"/>
       <c r="V745" s="1"/>
     </row>
-    <row r="746" spans="1:22" ht="12.5">
+    <row r="746" spans="1:22" ht="12.5" hidden="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -20005,7 +20005,7 @@
       <c r="U746" s="1"/>
       <c r="V746" s="1"/>
     </row>
-    <row r="747" spans="1:22" ht="12.5">
+    <row r="747" spans="1:22" ht="12.5" hidden="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -20029,7 +20029,7 @@
       <c r="U747" s="1"/>
       <c r="V747" s="1"/>
     </row>
-    <row r="748" spans="1:22" ht="12.5">
+    <row r="748" spans="1:22" ht="12.5" hidden="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -20053,7 +20053,7 @@
       <c r="U748" s="1"/>
       <c r="V748" s="1"/>
     </row>
-    <row r="749" spans="1:22" ht="12.5">
+    <row r="749" spans="1:22" ht="12.5" hidden="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -20077,7 +20077,7 @@
       <c r="U749" s="1"/>
       <c r="V749" s="1"/>
     </row>
-    <row r="750" spans="1:22" ht="12.5">
+    <row r="750" spans="1:22" ht="12.5" hidden="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -20101,7 +20101,7 @@
       <c r="U750" s="1"/>
       <c r="V750" s="1"/>
     </row>
-    <row r="751" spans="1:22" ht="12.5">
+    <row r="751" spans="1:22" ht="12.5" hidden="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -20125,7 +20125,7 @@
       <c r="U751" s="1"/>
       <c r="V751" s="1"/>
     </row>
-    <row r="752" spans="1:22" ht="12.5">
+    <row r="752" spans="1:22" ht="12.5" hidden="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -20149,7 +20149,7 @@
       <c r="U752" s="1"/>
       <c r="V752" s="1"/>
     </row>
-    <row r="753" spans="1:22" ht="12.5">
+    <row r="753" spans="1:22" ht="12.5" hidden="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -20173,7 +20173,7 @@
       <c r="U753" s="1"/>
       <c r="V753" s="1"/>
     </row>
-    <row r="754" spans="1:22" ht="12.5">
+    <row r="754" spans="1:22" ht="12.5" hidden="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -20197,7 +20197,7 @@
       <c r="U754" s="1"/>
       <c r="V754" s="1"/>
     </row>
-    <row r="755" spans="1:22" ht="12.5">
+    <row r="755" spans="1:22" ht="12.5" hidden="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -20221,7 +20221,7 @@
       <c r="U755" s="1"/>
       <c r="V755" s="1"/>
     </row>
-    <row r="756" spans="1:22" ht="12.5">
+    <row r="756" spans="1:22" ht="12.5" hidden="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -20245,7 +20245,7 @@
       <c r="U756" s="1"/>
       <c r="V756" s="1"/>
     </row>
-    <row r="757" spans="1:22" ht="12.5">
+    <row r="757" spans="1:22" ht="12.5" hidden="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -20269,7 +20269,7 @@
       <c r="U757" s="1"/>
       <c r="V757" s="1"/>
     </row>
-    <row r="758" spans="1:22" ht="12.5">
+    <row r="758" spans="1:22" ht="12.5" hidden="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -20293,7 +20293,7 @@
       <c r="U758" s="1"/>
       <c r="V758" s="1"/>
     </row>
-    <row r="759" spans="1:22" ht="12.5">
+    <row r="759" spans="1:22" ht="12.5" hidden="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -20317,7 +20317,7 @@
       <c r="U759" s="1"/>
       <c r="V759" s="1"/>
     </row>
-    <row r="760" spans="1:22" ht="12.5">
+    <row r="760" spans="1:22" ht="12.5" hidden="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -20341,7 +20341,7 @@
       <c r="U760" s="1"/>
       <c r="V760" s="1"/>
     </row>
-    <row r="761" spans="1:22" ht="12.5">
+    <row r="761" spans="1:22" ht="12.5" hidden="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -20365,7 +20365,7 @@
       <c r="U761" s="1"/>
       <c r="V761" s="1"/>
     </row>
-    <row r="762" spans="1:22" ht="12.5">
+    <row r="762" spans="1:22" ht="12.5" hidden="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -20389,7 +20389,7 @@
       <c r="U762" s="1"/>
       <c r="V762" s="1"/>
     </row>
-    <row r="763" spans="1:22" ht="12.5">
+    <row r="763" spans="1:22" ht="12.5" hidden="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -20413,7 +20413,7 @@
       <c r="U763" s="1"/>
       <c r="V763" s="1"/>
     </row>
-    <row r="764" spans="1:22" ht="12.5">
+    <row r="764" spans="1:22" ht="12.5" hidden="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -20437,7 +20437,7 @@
       <c r="U764" s="1"/>
       <c r="V764" s="1"/>
     </row>
-    <row r="765" spans="1:22" ht="12.5">
+    <row r="765" spans="1:22" ht="12.5" hidden="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -20461,7 +20461,7 @@
       <c r="U765" s="1"/>
       <c r="V765" s="1"/>
     </row>
-    <row r="766" spans="1:22" ht="12.5">
+    <row r="766" spans="1:22" ht="12.5" hidden="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -20485,7 +20485,7 @@
       <c r="U766" s="1"/>
       <c r="V766" s="1"/>
     </row>
-    <row r="767" spans="1:22" ht="12.5">
+    <row r="767" spans="1:22" ht="12.5" hidden="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -20509,7 +20509,7 @@
       <c r="U767" s="1"/>
       <c r="V767" s="1"/>
     </row>
-    <row r="768" spans="1:22" ht="12.5">
+    <row r="768" spans="1:22" ht="12.5" hidden="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -20533,7 +20533,7 @@
       <c r="U768" s="1"/>
       <c r="V768" s="1"/>
     </row>
-    <row r="769" spans="1:22" ht="12.5">
+    <row r="769" spans="1:22" ht="12.5" hidden="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -20557,7 +20557,7 @@
       <c r="U769" s="1"/>
       <c r="V769" s="1"/>
     </row>
-    <row r="770" spans="1:22" ht="12.5">
+    <row r="770" spans="1:22" ht="12.5" hidden="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -20581,7 +20581,7 @@
       <c r="U770" s="1"/>
       <c r="V770" s="1"/>
     </row>
-    <row r="771" spans="1:22" ht="12.5">
+    <row r="771" spans="1:22" ht="12.5" hidden="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -20605,7 +20605,7 @@
       <c r="U771" s="1"/>
       <c r="V771" s="1"/>
     </row>
-    <row r="772" spans="1:22" ht="12.5">
+    <row r="772" spans="1:22" ht="12.5" hidden="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -20629,7 +20629,7 @@
       <c r="U772" s="1"/>
       <c r="V772" s="1"/>
     </row>
-    <row r="773" spans="1:22" ht="12.5">
+    <row r="773" spans="1:22" ht="12.5" hidden="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -20653,7 +20653,7 @@
       <c r="U773" s="1"/>
       <c r="V773" s="1"/>
     </row>
-    <row r="774" spans="1:22" ht="12.5">
+    <row r="774" spans="1:22" ht="12.5" hidden="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -20677,7 +20677,7 @@
       <c r="U774" s="1"/>
       <c r="V774" s="1"/>
     </row>
-    <row r="775" spans="1:22" ht="12.5">
+    <row r="775" spans="1:22" ht="12.5" hidden="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -20701,7 +20701,7 @@
       <c r="U775" s="1"/>
       <c r="V775" s="1"/>
     </row>
-    <row r="776" spans="1:22" ht="12.5">
+    <row r="776" spans="1:22" ht="12.5" hidden="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -20725,7 +20725,7 @@
       <c r="U776" s="1"/>
       <c r="V776" s="1"/>
     </row>
-    <row r="777" spans="1:22" ht="12.5">
+    <row r="777" spans="1:22" ht="12.5" hidden="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -20749,7 +20749,7 @@
       <c r="U777" s="1"/>
       <c r="V777" s="1"/>
     </row>
-    <row r="778" spans="1:22" ht="12.5">
+    <row r="778" spans="1:22" ht="12.5" hidden="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -20773,7 +20773,7 @@
       <c r="U778" s="1"/>
       <c r="V778" s="1"/>
     </row>
-    <row r="779" spans="1:22" ht="12.5">
+    <row r="779" spans="1:22" ht="12.5" hidden="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -20797,7 +20797,7 @@
       <c r="U779" s="1"/>
       <c r="V779" s="1"/>
     </row>
-    <row r="780" spans="1:22" ht="12.5">
+    <row r="780" spans="1:22" ht="12.5" hidden="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -20821,7 +20821,7 @@
       <c r="U780" s="1"/>
       <c r="V780" s="1"/>
     </row>
-    <row r="781" spans="1:22" ht="12.5">
+    <row r="781" spans="1:22" ht="12.5" hidden="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -20845,7 +20845,7 @@
       <c r="U781" s="1"/>
       <c r="V781" s="1"/>
     </row>
-    <row r="782" spans="1:22" ht="12.5">
+    <row r="782" spans="1:22" ht="12.5" hidden="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -20869,7 +20869,7 @@
       <c r="U782" s="1"/>
       <c r="V782" s="1"/>
     </row>
-    <row r="783" spans="1:22" ht="12.5">
+    <row r="783" spans="1:22" ht="12.5" hidden="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -20893,7 +20893,7 @@
       <c r="U783" s="1"/>
       <c r="V783" s="1"/>
     </row>
-    <row r="784" spans="1:22" ht="12.5">
+    <row r="784" spans="1:22" ht="12.5" hidden="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -20917,7 +20917,7 @@
       <c r="U784" s="1"/>
       <c r="V784" s="1"/>
     </row>
-    <row r="785" spans="1:22" ht="12.5">
+    <row r="785" spans="1:22" ht="12.5" hidden="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -20941,7 +20941,7 @@
       <c r="U785" s="1"/>
       <c r="V785" s="1"/>
     </row>
-    <row r="786" spans="1:22" ht="12.5">
+    <row r="786" spans="1:22" ht="12.5" hidden="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -20965,7 +20965,7 @@
       <c r="U786" s="1"/>
       <c r="V786" s="1"/>
     </row>
-    <row r="787" spans="1:22" ht="12.5">
+    <row r="787" spans="1:22" ht="12.5" hidden="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -20989,7 +20989,7 @@
       <c r="U787" s="1"/>
       <c r="V787" s="1"/>
     </row>
-    <row r="788" spans="1:22" ht="12.5">
+    <row r="788" spans="1:22" ht="12.5" hidden="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -21013,7 +21013,7 @@
       <c r="U788" s="1"/>
       <c r="V788" s="1"/>
     </row>
-    <row r="789" spans="1:22" ht="12.5">
+    <row r="789" spans="1:22" ht="12.5" hidden="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -21037,7 +21037,7 @@
       <c r="U789" s="1"/>
       <c r="V789" s="1"/>
     </row>
-    <row r="790" spans="1:22" ht="12.5">
+    <row r="790" spans="1:22" ht="12.5" hidden="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -21061,7 +21061,7 @@
       <c r="U790" s="1"/>
       <c r="V790" s="1"/>
     </row>
-    <row r="791" spans="1:22" ht="12.5">
+    <row r="791" spans="1:22" ht="12.5" hidden="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -21085,7 +21085,7 @@
       <c r="U791" s="1"/>
       <c r="V791" s="1"/>
     </row>
-    <row r="792" spans="1:22" ht="12.5">
+    <row r="792" spans="1:22" ht="12.5" hidden="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -21109,7 +21109,7 @@
       <c r="U792" s="1"/>
       <c r="V792" s="1"/>
     </row>
-    <row r="793" spans="1:22" ht="12.5">
+    <row r="793" spans="1:22" ht="12.5" hidden="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -21133,7 +21133,7 @@
       <c r="U793" s="1"/>
       <c r="V793" s="1"/>
     </row>
-    <row r="794" spans="1:22" ht="12.5">
+    <row r="794" spans="1:22" ht="12.5" hidden="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -21157,7 +21157,7 @@
       <c r="U794" s="1"/>
       <c r="V794" s="1"/>
     </row>
-    <row r="795" spans="1:22" ht="12.5">
+    <row r="795" spans="1:22" ht="12.5" hidden="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -21181,7 +21181,7 @@
       <c r="U795" s="1"/>
       <c r="V795" s="1"/>
     </row>
-    <row r="796" spans="1:22" ht="12.5">
+    <row r="796" spans="1:22" ht="12.5" hidden="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -21205,7 +21205,7 @@
       <c r="U796" s="1"/>
       <c r="V796" s="1"/>
     </row>
-    <row r="797" spans="1:22" ht="12.5">
+    <row r="797" spans="1:22" ht="12.5" hidden="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -21229,7 +21229,7 @@
       <c r="U797" s="1"/>
       <c r="V797" s="1"/>
     </row>
-    <row r="798" spans="1:22" ht="12.5">
+    <row r="798" spans="1:22" ht="12.5" hidden="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -21253,7 +21253,7 @@
       <c r="U798" s="1"/>
       <c r="V798" s="1"/>
     </row>
-    <row r="799" spans="1:22" ht="12.5">
+    <row r="799" spans="1:22" ht="12.5" hidden="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -21277,7 +21277,7 @@
       <c r="U799" s="1"/>
       <c r="V799" s="1"/>
     </row>
-    <row r="800" spans="1:22" ht="12.5">
+    <row r="800" spans="1:22" ht="12.5" hidden="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -21301,7 +21301,7 @@
       <c r="U800" s="1"/>
       <c r="V800" s="1"/>
     </row>
-    <row r="801" spans="1:22" ht="12.5">
+    <row r="801" spans="1:22" ht="12.5" hidden="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -21325,7 +21325,7 @@
       <c r="U801" s="1"/>
       <c r="V801" s="1"/>
     </row>
-    <row r="802" spans="1:22" ht="12.5">
+    <row r="802" spans="1:22" ht="12.5" hidden="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -21349,7 +21349,7 @@
       <c r="U802" s="1"/>
       <c r="V802" s="1"/>
     </row>
-    <row r="803" spans="1:22" ht="12.5">
+    <row r="803" spans="1:22" ht="12.5" hidden="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -21373,7 +21373,7 @@
       <c r="U803" s="1"/>
       <c r="V803" s="1"/>
     </row>
-    <row r="804" spans="1:22" ht="12.5">
+    <row r="804" spans="1:22" ht="12.5" hidden="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -21397,7 +21397,7 @@
       <c r="U804" s="1"/>
       <c r="V804" s="1"/>
     </row>
-    <row r="805" spans="1:22" ht="12.5">
+    <row r="805" spans="1:22" ht="12.5" hidden="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -21421,7 +21421,7 @@
       <c r="U805" s="1"/>
       <c r="V805" s="1"/>
     </row>
-    <row r="806" spans="1:22" ht="12.5">
+    <row r="806" spans="1:22" ht="12.5" hidden="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -21445,7 +21445,7 @@
       <c r="U806" s="1"/>
       <c r="V806" s="1"/>
     </row>
-    <row r="807" spans="1:22" ht="12.5">
+    <row r="807" spans="1:22" ht="12.5" hidden="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -21469,7 +21469,7 @@
       <c r="U807" s="1"/>
       <c r="V807" s="1"/>
     </row>
-    <row r="808" spans="1:22" ht="12.5">
+    <row r="808" spans="1:22" ht="12.5" hidden="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -21493,7 +21493,7 @@
       <c r="U808" s="1"/>
       <c r="V808" s="1"/>
     </row>
-    <row r="809" spans="1:22" ht="12.5">
+    <row r="809" spans="1:22" ht="12.5" hidden="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -21517,7 +21517,7 @@
       <c r="U809" s="1"/>
       <c r="V809" s="1"/>
     </row>
-    <row r="810" spans="1:22" ht="12.5">
+    <row r="810" spans="1:22" ht="12.5" hidden="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -21541,7 +21541,7 @@
       <c r="U810" s="1"/>
       <c r="V810" s="1"/>
     </row>
-    <row r="811" spans="1:22" ht="12.5">
+    <row r="811" spans="1:22" ht="12.5" hidden="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -21565,7 +21565,7 @@
       <c r="U811" s="1"/>
       <c r="V811" s="1"/>
     </row>
-    <row r="812" spans="1:22" ht="12.5">
+    <row r="812" spans="1:22" ht="12.5" hidden="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -21589,7 +21589,7 @@
       <c r="U812" s="1"/>
       <c r="V812" s="1"/>
     </row>
-    <row r="813" spans="1:22" ht="12.5">
+    <row r="813" spans="1:22" ht="12.5" hidden="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -21613,7 +21613,7 @@
       <c r="U813" s="1"/>
       <c r="V813" s="1"/>
     </row>
-    <row r="814" spans="1:22" ht="12.5">
+    <row r="814" spans="1:22" ht="12.5" hidden="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -21637,7 +21637,7 @@
       <c r="U814" s="1"/>
       <c r="V814" s="1"/>
     </row>
-    <row r="815" spans="1:22" ht="12.5">
+    <row r="815" spans="1:22" ht="12.5" hidden="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -21661,7 +21661,7 @@
       <c r="U815" s="1"/>
       <c r="V815" s="1"/>
     </row>
-    <row r="816" spans="1:22" ht="12.5">
+    <row r="816" spans="1:22" ht="12.5" hidden="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -21685,7 +21685,7 @@
       <c r="U816" s="1"/>
       <c r="V816" s="1"/>
     </row>
-    <row r="817" spans="1:22" ht="12.5">
+    <row r="817" spans="1:22" ht="12.5" hidden="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -21709,7 +21709,7 @@
       <c r="U817" s="1"/>
       <c r="V817" s="1"/>
     </row>
-    <row r="818" spans="1:22" ht="12.5">
+    <row r="818" spans="1:22" ht="12.5" hidden="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -21733,7 +21733,7 @@
       <c r="U818" s="1"/>
       <c r="V818" s="1"/>
     </row>
-    <row r="819" spans="1:22" ht="12.5">
+    <row r="819" spans="1:22" ht="12.5" hidden="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -21757,7 +21757,7 @@
       <c r="U819" s="1"/>
       <c r="V819" s="1"/>
     </row>
-    <row r="820" spans="1:22" ht="12.5">
+    <row r="820" spans="1:22" ht="12.5" hidden="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -21781,7 +21781,7 @@
       <c r="U820" s="1"/>
       <c r="V820" s="1"/>
     </row>
-    <row r="821" spans="1:22" ht="12.5">
+    <row r="821" spans="1:22" ht="12.5" hidden="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -21805,7 +21805,7 @@
       <c r="U821" s="1"/>
       <c r="V821" s="1"/>
     </row>
-    <row r="822" spans="1:22" ht="12.5">
+    <row r="822" spans="1:22" ht="12.5" hidden="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -21829,7 +21829,7 @@
       <c r="U822" s="1"/>
       <c r="V822" s="1"/>
     </row>
-    <row r="823" spans="1:22" ht="12.5">
+    <row r="823" spans="1:22" ht="12.5" hidden="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -21853,7 +21853,7 @@
       <c r="U823" s="1"/>
       <c r="V823" s="1"/>
     </row>
-    <row r="824" spans="1:22" ht="12.5">
+    <row r="824" spans="1:22" ht="12.5" hidden="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -21877,7 +21877,7 @@
       <c r="U824" s="1"/>
       <c r="V824" s="1"/>
     </row>
-    <row r="825" spans="1:22" ht="12.5">
+    <row r="825" spans="1:22" ht="12.5" hidden="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -21901,7 +21901,7 @@
       <c r="U825" s="1"/>
       <c r="V825" s="1"/>
     </row>
-    <row r="826" spans="1:22" ht="12.5">
+    <row r="826" spans="1:22" ht="12.5" hidden="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -21925,7 +21925,7 @@
       <c r="U826" s="1"/>
       <c r="V826" s="1"/>
     </row>
-    <row r="827" spans="1:22" ht="12.5">
+    <row r="827" spans="1:22" ht="12.5" hidden="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -21949,7 +21949,7 @@
       <c r="U827" s="1"/>
       <c r="V827" s="1"/>
     </row>
-    <row r="828" spans="1:22" ht="12.5">
+    <row r="828" spans="1:22" ht="12.5" hidden="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -21973,7 +21973,7 @@
       <c r="U828" s="1"/>
       <c r="V828" s="1"/>
     </row>
-    <row r="829" spans="1:22" ht="12.5">
+    <row r="829" spans="1:22" ht="12.5" hidden="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -21997,7 +21997,7 @@
       <c r="U829" s="1"/>
       <c r="V829" s="1"/>
     </row>
-    <row r="830" spans="1:22" ht="12.5">
+    <row r="830" spans="1:22" ht="12.5" hidden="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -22021,7 +22021,7 @@
       <c r="U830" s="1"/>
       <c r="V830" s="1"/>
     </row>
-    <row r="831" spans="1:22" ht="12.5">
+    <row r="831" spans="1:22" ht="12.5" hidden="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -22045,7 +22045,7 @@
       <c r="U831" s="1"/>
       <c r="V831" s="1"/>
     </row>
-    <row r="832" spans="1:22" ht="12.5">
+    <row r="832" spans="1:22" ht="12.5" hidden="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -22069,7 +22069,7 @@
       <c r="U832" s="1"/>
       <c r="V832" s="1"/>
     </row>
-    <row r="833" spans="1:22" ht="12.5">
+    <row r="833" spans="1:22" ht="12.5" hidden="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -22093,7 +22093,7 @@
       <c r="U833" s="1"/>
       <c r="V833" s="1"/>
     </row>
-    <row r="834" spans="1:22" ht="12.5">
+    <row r="834" spans="1:22" ht="12.5" hidden="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -22117,7 +22117,7 @@
       <c r="U834" s="1"/>
       <c r="V834" s="1"/>
     </row>
-    <row r="835" spans="1:22" ht="12.5">
+    <row r="835" spans="1:22" ht="12.5" hidden="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -22141,7 +22141,7 @@
       <c r="U835" s="1"/>
       <c r="V835" s="1"/>
     </row>
-    <row r="836" spans="1:22" ht="12.5">
+    <row r="836" spans="1:22" ht="12.5" hidden="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -22165,7 +22165,7 @@
       <c r="U836" s="1"/>
       <c r="V836" s="1"/>
     </row>
-    <row r="837" spans="1:22" ht="12.5">
+    <row r="837" spans="1:22" ht="12.5" hidden="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -22189,7 +22189,7 @@
       <c r="U837" s="1"/>
       <c r="V837" s="1"/>
     </row>
-    <row r="838" spans="1:22" ht="12.5">
+    <row r="838" spans="1:22" ht="12.5" hidden="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -22213,7 +22213,7 @@
       <c r="U838" s="1"/>
       <c r="V838" s="1"/>
     </row>
-    <row r="839" spans="1:22" ht="12.5">
+    <row r="839" spans="1:22" ht="12.5" hidden="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -22237,7 +22237,7 @@
       <c r="U839" s="1"/>
       <c r="V839" s="1"/>
     </row>
-    <row r="840" spans="1:22" ht="12.5">
+    <row r="840" spans="1:22" ht="12.5" hidden="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -22261,7 +22261,7 @@
       <c r="U840" s="1"/>
       <c r="V840" s="1"/>
     </row>
-    <row r="841" spans="1:22" ht="12.5">
+    <row r="841" spans="1:22" ht="12.5" hidden="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -22285,7 +22285,7 @@
       <c r="U841" s="1"/>
       <c r="V841" s="1"/>
     </row>
-    <row r="842" spans="1:22" ht="12.5">
+    <row r="842" spans="1:22" ht="12.5" hidden="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -22309,7 +22309,7 @@
       <c r="U842" s="1"/>
       <c r="V842" s="1"/>
     </row>
-    <row r="843" spans="1:22" ht="12.5">
+    <row r="843" spans="1:22" ht="12.5" hidden="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -22333,7 +22333,7 @@
       <c r="U843" s="1"/>
       <c r="V843" s="1"/>
     </row>
-    <row r="844" spans="1:22" ht="12.5">
+    <row r="844" spans="1:22" ht="12.5" hidden="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -22357,7 +22357,7 @@
       <c r="U844" s="1"/>
       <c r="V844" s="1"/>
     </row>
-    <row r="845" spans="1:22" ht="12.5">
+    <row r="845" spans="1:22" ht="12.5" hidden="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -22381,7 +22381,7 @@
       <c r="U845" s="1"/>
       <c r="V845" s="1"/>
     </row>
-    <row r="846" spans="1:22" ht="12.5">
+    <row r="846" spans="1:22" ht="12.5" hidden="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -22405,7 +22405,7 @@
       <c r="U846" s="1"/>
       <c r="V846" s="1"/>
     </row>
-    <row r="847" spans="1:22" ht="12.5">
+    <row r="847" spans="1:22" ht="12.5" hidden="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -22429,7 +22429,7 @@
       <c r="U847" s="1"/>
       <c r="V847" s="1"/>
     </row>
-    <row r="848" spans="1:22" ht="12.5">
+    <row r="848" spans="1:22" ht="12.5" hidden="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -22453,7 +22453,7 @@
       <c r="U848" s="1"/>
       <c r="V848" s="1"/>
     </row>
-    <row r="849" spans="1:22" ht="12.5">
+    <row r="849" spans="1:22" ht="12.5" hidden="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -22477,7 +22477,7 @@
       <c r="U849" s="1"/>
       <c r="V849" s="1"/>
     </row>
-    <row r="850" spans="1:22" ht="12.5">
+    <row r="850" spans="1:22" ht="12.5" hidden="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -22501,7 +22501,7 @@
       <c r="U850" s="1"/>
       <c r="V850" s="1"/>
     </row>
-    <row r="851" spans="1:22" ht="12.5">
+    <row r="851" spans="1:22" ht="12.5" hidden="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -22525,7 +22525,7 @@
       <c r="U851" s="1"/>
       <c r="V851" s="1"/>
     </row>
-    <row r="852" spans="1:22" ht="12.5">
+    <row r="852" spans="1:22" ht="12.5" hidden="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -22549,7 +22549,7 @@
       <c r="U852" s="1"/>
       <c r="V852" s="1"/>
     </row>
-    <row r="853" spans="1:22" ht="12.5">
+    <row r="853" spans="1:22" ht="12.5" hidden="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -22573,7 +22573,7 @@
       <c r="U853" s="1"/>
       <c r="V853" s="1"/>
     </row>
-    <row r="854" spans="1:22" ht="12.5">
+    <row r="854" spans="1:22" ht="12.5" hidden="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -22597,7 +22597,7 @@
       <c r="U854" s="1"/>
       <c r="V854" s="1"/>
     </row>
-    <row r="855" spans="1:22" ht="12.5">
+    <row r="855" spans="1:22" ht="12.5" hidden="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -22621,7 +22621,7 @@
       <c r="U855" s="1"/>
       <c r="V855" s="1"/>
     </row>
-    <row r="856" spans="1:22" ht="12.5">
+    <row r="856" spans="1:22" ht="12.5" hidden="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -22645,7 +22645,7 @@
       <c r="U856" s="1"/>
       <c r="V856" s="1"/>
     </row>
-    <row r="857" spans="1:22" ht="12.5">
+    <row r="857" spans="1:22" ht="12.5" hidden="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -22669,7 +22669,7 @@
       <c r="U857" s="1"/>
       <c r="V857" s="1"/>
     </row>
-    <row r="858" spans="1:22" ht="12.5">
+    <row r="858" spans="1:22" ht="12.5" hidden="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -22693,7 +22693,7 @@
       <c r="U858" s="1"/>
       <c r="V858" s="1"/>
     </row>
-    <row r="859" spans="1:22" ht="12.5">
+    <row r="859" spans="1:22" ht="12.5" hidden="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -22717,7 +22717,7 @@
       <c r="U859" s="1"/>
       <c r="V859" s="1"/>
     </row>
-    <row r="860" spans="1:22" ht="12.5">
+    <row r="860" spans="1:22" ht="12.5" hidden="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -22741,7 +22741,7 @@
       <c r="U860" s="1"/>
       <c r="V860" s="1"/>
     </row>
-    <row r="861" spans="1:22" ht="12.5">
+    <row r="861" spans="1:22" ht="12.5" hidden="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -22765,7 +22765,7 @@
       <c r="U861" s="1"/>
       <c r="V861" s="1"/>
     </row>
-    <row r="862" spans="1:22" ht="12.5">
+    <row r="862" spans="1:22" ht="12.5" hidden="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -22789,7 +22789,7 @@
       <c r="U862" s="1"/>
       <c r="V862" s="1"/>
     </row>
-    <row r="863" spans="1:22" ht="12.5">
+    <row r="863" spans="1:22" ht="12.5" hidden="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -22813,7 +22813,7 @@
       <c r="U863" s="1"/>
       <c r="V863" s="1"/>
     </row>
-    <row r="864" spans="1:22" ht="12.5">
+    <row r="864" spans="1:22" ht="12.5" hidden="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -22837,7 +22837,7 @@
       <c r="U864" s="1"/>
       <c r="V864" s="1"/>
     </row>
-    <row r="865" spans="1:22" ht="12.5">
+    <row r="865" spans="1:22" ht="12.5" hidden="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -22861,7 +22861,7 @@
       <c r="U865" s="1"/>
       <c r="V865" s="1"/>
     </row>
-    <row r="866" spans="1:22" ht="12.5">
+    <row r="866" spans="1:22" ht="12.5" hidden="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -22885,7 +22885,7 @@
       <c r="U866" s="1"/>
       <c r="V866" s="1"/>
     </row>
-    <row r="867" spans="1:22" ht="12.5">
+    <row r="867" spans="1:22" ht="12.5" hidden="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -22909,7 +22909,7 @@
       <c r="U867" s="1"/>
       <c r="V867" s="1"/>
     </row>
-    <row r="868" spans="1:22" ht="12.5">
+    <row r="868" spans="1:22" ht="12.5" hidden="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -22933,7 +22933,7 @@
       <c r="U868" s="1"/>
       <c r="V868" s="1"/>
     </row>
-    <row r="869" spans="1:22" ht="12.5">
+    <row r="869" spans="1:22" ht="12.5" hidden="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -22957,7 +22957,7 @@
       <c r="U869" s="1"/>
       <c r="V869" s="1"/>
     </row>
-    <row r="870" spans="1:22" ht="12.5">
+    <row r="870" spans="1:22" ht="12.5" hidden="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -22981,7 +22981,7 @@
       <c r="U870" s="1"/>
       <c r="V870" s="1"/>
     </row>
-    <row r="871" spans="1:22" ht="12.5">
+    <row r="871" spans="1:22" ht="12.5" hidden="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -23005,7 +23005,7 @@
       <c r="U871" s="1"/>
       <c r="V871" s="1"/>
     </row>
-    <row r="872" spans="1:22" ht="12.5">
+    <row r="872" spans="1:22" ht="12.5" hidden="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -23029,7 +23029,7 @@
       <c r="U872" s="1"/>
       <c r="V872" s="1"/>
     </row>
-    <row r="873" spans="1:22" ht="12.5">
+    <row r="873" spans="1:22" ht="12.5" hidden="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -23053,7 +23053,7 @@
       <c r="U873" s="1"/>
       <c r="V873" s="1"/>
     </row>
-    <row r="874" spans="1:22" ht="12.5">
+    <row r="874" spans="1:22" ht="12.5" hidden="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -23077,7 +23077,7 @@
       <c r="U874" s="1"/>
       <c r="V874" s="1"/>
     </row>
-    <row r="875" spans="1:22" ht="12.5">
+    <row r="875" spans="1:22" ht="12.5" hidden="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -23101,7 +23101,7 @@
       <c r="U875" s="1"/>
       <c r="V875" s="1"/>
     </row>
-    <row r="876" spans="1:22" ht="12.5">
+    <row r="876" spans="1:22" ht="12.5" hidden="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -23125,7 +23125,7 @@
       <c r="U876" s="1"/>
       <c r="V876" s="1"/>
     </row>
-    <row r="877" spans="1:22" ht="12.5">
+    <row r="877" spans="1:22" ht="12.5" hidden="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -23149,7 +23149,7 @@
       <c r="U877" s="1"/>
       <c r="V877" s="1"/>
     </row>
-    <row r="878" spans="1:22" ht="12.5">
+    <row r="878" spans="1:22" ht="12.5" hidden="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -23173,7 +23173,7 @@
       <c r="U878" s="1"/>
       <c r="V878" s="1"/>
     </row>
-    <row r="879" spans="1:22" ht="12.5">
+    <row r="879" spans="1:22" ht="12.5" hidden="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -23197,7 +23197,7 @@
       <c r="U879" s="1"/>
       <c r="V879" s="1"/>
     </row>
-    <row r="880" spans="1:22" ht="12.5">
+    <row r="880" spans="1:22" ht="12.5" hidden="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -23221,7 +23221,7 @@
       <c r="U880" s="1"/>
       <c r="V880" s="1"/>
     </row>
-    <row r="881" spans="1:22" ht="12.5">
+    <row r="881" spans="1:22" ht="12.5" hidden="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -23245,7 +23245,7 @@
       <c r="U881" s="1"/>
       <c r="V881" s="1"/>
     </row>
-    <row r="882" spans="1:22" ht="12.5">
+    <row r="882" spans="1:22" ht="12.5" hidden="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -23269,7 +23269,7 @@
       <c r="U882" s="1"/>
       <c r="V882" s="1"/>
     </row>
-    <row r="883" spans="1:22" ht="12.5">
+    <row r="883" spans="1:22" ht="12.5" hidden="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -23293,7 +23293,7 @@
       <c r="U883" s="1"/>
       <c r="V883" s="1"/>
     </row>
-    <row r="884" spans="1:22" ht="12.5">
+    <row r="884" spans="1:22" ht="12.5" hidden="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -23317,7 +23317,7 @@
       <c r="U884" s="1"/>
       <c r="V884" s="1"/>
     </row>
-    <row r="885" spans="1:22" ht="12.5">
+    <row r="885" spans="1:22" ht="12.5" hidden="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -23341,7 +23341,7 @@
       <c r="U885" s="1"/>
       <c r="V885" s="1"/>
     </row>
-    <row r="886" spans="1:22" ht="12.5">
+    <row r="886" spans="1:22" ht="12.5" hidden="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -23365,7 +23365,7 @@
       <c r="U886" s="1"/>
       <c r="V886" s="1"/>
     </row>
-    <row r="887" spans="1:22" ht="12.5">
+    <row r="887" spans="1:22" ht="12.5" hidden="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -23389,7 +23389,7 @@
       <c r="U887" s="1"/>
       <c r="V887" s="1"/>
     </row>
-    <row r="888" spans="1:22" ht="12.5">
+    <row r="888" spans="1:22" ht="12.5" hidden="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -23413,7 +23413,7 @@
       <c r="U888" s="1"/>
       <c r="V888" s="1"/>
     </row>
-    <row r="889" spans="1:22" ht="12.5">
+    <row r="889" spans="1:22" ht="12.5" hidden="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -23437,7 +23437,7 @@
       <c r="U889" s="1"/>
       <c r="V889" s="1"/>
     </row>
-    <row r="890" spans="1:22" ht="12.5">
+    <row r="890" spans="1:22" ht="12.5" hidden="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -23461,7 +23461,7 @@
       <c r="U890" s="1"/>
       <c r="V890" s="1"/>
     </row>
-    <row r="891" spans="1:22" ht="12.5">
+    <row r="891" spans="1:22" ht="12.5" hidden="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -23485,7 +23485,7 @@
       <c r="U891" s="1"/>
       <c r="V891" s="1"/>
     </row>
-    <row r="892" spans="1:22" ht="12.5">
+    <row r="892" spans="1:22" ht="12.5" hidden="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -23509,7 +23509,7 @@
       <c r="U892" s="1"/>
       <c r="V892" s="1"/>
     </row>
-    <row r="893" spans="1:22" ht="12.5">
+    <row r="893" spans="1:22" ht="12.5" hidden="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -23533,7 +23533,7 @@
       <c r="U893" s="1"/>
       <c r="V893" s="1"/>
     </row>
-    <row r="894" spans="1:22" ht="12.5">
+    <row r="894" spans="1:22" ht="12.5" hidden="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -23557,7 +23557,7 @@
       <c r="U894" s="1"/>
       <c r="V894" s="1"/>
     </row>
-    <row r="895" spans="1:22" ht="12.5">
+    <row r="895" spans="1:22" ht="12.5" hidden="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -23581,7 +23581,7 @@
       <c r="U895" s="1"/>
       <c r="V895" s="1"/>
     </row>
-    <row r="896" spans="1:22" ht="12.5">
+    <row r="896" spans="1:22" ht="12.5" hidden="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -23605,7 +23605,7 @@
       <c r="U896" s="1"/>
       <c r="V896" s="1"/>
     </row>
-    <row r="897" spans="1:22" ht="12.5">
+    <row r="897" spans="1:22" ht="12.5" hidden="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -23629,7 +23629,7 @@
       <c r="U897" s="1"/>
       <c r="V897" s="1"/>
     </row>
-    <row r="898" spans="1:22" ht="12.5">
+    <row r="898" spans="1:22" ht="12.5" hidden="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -23653,7 +23653,7 @@
       <c r="U898" s="1"/>
       <c r="V898" s="1"/>
     </row>
-    <row r="899" spans="1:22" ht="12.5">
+    <row r="899" spans="1:22" ht="12.5" hidden="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -23677,7 +23677,7 @@
       <c r="U899" s="1"/>
       <c r="V899" s="1"/>
     </row>
-    <row r="900" spans="1:22" ht="12.5">
+    <row r="900" spans="1:22" ht="12.5" hidden="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -23701,7 +23701,7 @@
       <c r="U900" s="1"/>
       <c r="V900" s="1"/>
     </row>
-    <row r="901" spans="1:22" ht="12.5">
+    <row r="901" spans="1:22" ht="12.5" hidden="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -23725,7 +23725,7 @@
       <c r="U901" s="1"/>
       <c r="V901" s="1"/>
     </row>
-    <row r="902" spans="1:22" ht="12.5">
+    <row r="902" spans="1:22" ht="12.5" hidden="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -23749,7 +23749,7 @@
       <c r="U902" s="1"/>
       <c r="V902" s="1"/>
     </row>
-    <row r="903" spans="1:22" ht="12.5">
+    <row r="903" spans="1:22" ht="12.5" hidden="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -23773,7 +23773,7 @@
       <c r="U903" s="1"/>
       <c r="V903" s="1"/>
     </row>
-    <row r="904" spans="1:22" ht="12.5">
+    <row r="904" spans="1:22" ht="12.5" hidden="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -23797,7 +23797,7 @@
       <c r="U904" s="1"/>
       <c r="V904" s="1"/>
     </row>
-    <row r="905" spans="1:22" ht="12.5">
+    <row r="905" spans="1:22" ht="12.5" hidden="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -23821,7 +23821,7 @@
       <c r="U905" s="1"/>
       <c r="V905" s="1"/>
     </row>
-    <row r="906" spans="1:22" ht="12.5">
+    <row r="906" spans="1:22" ht="12.5" hidden="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -23845,7 +23845,7 @@
       <c r="U906" s="1"/>
       <c r="V906" s="1"/>
     </row>
-    <row r="907" spans="1:22" ht="12.5">
+    <row r="907" spans="1:22" ht="12.5" hidden="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -23869,7 +23869,7 @@
       <c r="U907" s="1"/>
       <c r="V907" s="1"/>
     </row>
-    <row r="908" spans="1:22" ht="12.5">
+    <row r="908" spans="1:22" ht="12.5" hidden="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -23893,7 +23893,7 @@
       <c r="U908" s="1"/>
       <c r="V908" s="1"/>
     </row>
-    <row r="909" spans="1:22" ht="12.5">
+    <row r="909" spans="1:22" ht="12.5" hidden="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -23917,7 +23917,7 @@
       <c r="U909" s="1"/>
       <c r="V909" s="1"/>
     </row>
-    <row r="910" spans="1:22" ht="12.5">
+    <row r="910" spans="1:22" ht="12.5" hidden="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -23941,7 +23941,7 @@
       <c r="U910" s="1"/>
       <c r="V910" s="1"/>
     </row>
-    <row r="911" spans="1:22" ht="12.5">
+    <row r="911" spans="1:22" ht="12.5" hidden="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -23965,7 +23965,7 @@
       <c r="U911" s="1"/>
       <c r="V911" s="1"/>
     </row>
-    <row r="912" spans="1:22" ht="12.5">
+    <row r="912" spans="1:22" ht="12.5" hidden="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -23989,7 +23989,7 @@
       <c r="U912" s="1"/>
       <c r="V912" s="1"/>
     </row>
-    <row r="913" spans="1:22" ht="12.5">
+    <row r="913" spans="1:22" ht="12.5" hidden="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -24013,7 +24013,7 @@
       <c r="U913" s="1"/>
       <c r="V913" s="1"/>
     </row>
-    <row r="914" spans="1:22" ht="12.5">
+    <row r="914" spans="1:22" ht="12.5" hidden="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -24037,7 +24037,7 @@
       <c r="U914" s="1"/>
       <c r="V914" s="1"/>
     </row>
-    <row r="915" spans="1:22" ht="12.5">
+    <row r="915" spans="1:22" ht="12.5" hidden="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -24061,7 +24061,7 @@
       <c r="U915" s="1"/>
       <c r="V915" s="1"/>
     </row>
-    <row r="916" spans="1:22" ht="12.5">
+    <row r="916" spans="1:22" ht="12.5" hidden="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -24085,7 +24085,7 @@
       <c r="U916" s="1"/>
       <c r="V916" s="1"/>
     </row>
-    <row r="917" spans="1:22" ht="12.5">
+    <row r="917" spans="1:22" ht="12.5" hidden="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -24109,7 +24109,7 @@
       <c r="U917" s="1"/>
       <c r="V917" s="1"/>
     </row>
-    <row r="918" spans="1:22" ht="12.5">
+    <row r="918" spans="1:22" ht="12.5" hidden="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -24133,7 +24133,7 @@
       <c r="U918" s="1"/>
       <c r="V918" s="1"/>
     </row>
-    <row r="919" spans="1:22" ht="12.5">
+    <row r="919" spans="1:22" ht="12.5" hidden="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -24157,7 +24157,7 @@
       <c r="U919" s="1"/>
       <c r="V919" s="1"/>
     </row>
-    <row r="920" spans="1:22" ht="12.5">
+    <row r="920" spans="1:22" ht="12.5" hidden="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -24181,7 +24181,7 @@
       <c r="U920" s="1"/>
       <c r="V920" s="1"/>
     </row>
-    <row r="921" spans="1:22" ht="12.5">
+    <row r="921" spans="1:22" ht="12.5" hidden="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -24205,7 +24205,7 @@
       <c r="U921" s="1"/>
       <c r="V921" s="1"/>
     </row>
-    <row r="922" spans="1:22" ht="12.5">
+    <row r="922" spans="1:22" ht="12.5" hidden="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -24229,7 +24229,7 @@
       <c r="U922" s="1"/>
       <c r="V922" s="1"/>
     </row>
-    <row r="923" spans="1:22" ht="12.5">
+    <row r="923" spans="1:22" ht="12.5" hidden="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -24253,7 +24253,7 @@
       <c r="U923" s="1"/>
       <c r="V923" s="1"/>
     </row>
-    <row r="924" spans="1:22" ht="12.5">
+    <row r="924" spans="1:22" ht="12.5" hidden="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -24277,7 +24277,7 @@
       <c r="U924" s="1"/>
       <c r="V924" s="1"/>
     </row>
-    <row r="925" spans="1:22" ht="12.5">
+    <row r="925" spans="1:22" ht="12.5" hidden="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -24301,7 +24301,7 @@
       <c r="U925" s="1"/>
       <c r="V925" s="1"/>
     </row>
-    <row r="926" spans="1:22" ht="12.5">
+    <row r="926" spans="1:22" ht="12.5" hidden="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -24325,7 +24325,7 @@
       <c r="U926" s="1"/>
       <c r="V926" s="1"/>
     </row>
-    <row r="927" spans="1:22" ht="12.5">
+    <row r="927" spans="1:22" ht="12.5" hidden="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -24349,7 +24349,7 @@
       <c r="U927" s="1"/>
       <c r="V927" s="1"/>
     </row>
-    <row r="928" spans="1:22" ht="12.5">
+    <row r="928" spans="1:22" ht="12.5" hidden="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -24373,7 +24373,7 @@
       <c r="U928" s="1"/>
       <c r="V928" s="1"/>
     </row>
-    <row r="929" spans="1:22" ht="12.5">
+    <row r="929" spans="1:22" ht="12.5" hidden="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -24397,7 +24397,7 @@
       <c r="U929" s="1"/>
       <c r="V929" s="1"/>
     </row>
-    <row r="930" spans="1:22" ht="12.5">
+    <row r="930" spans="1:22" ht="12.5" hidden="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -24421,7 +24421,7 @@
       <c r="U930" s="1"/>
       <c r="V930" s="1"/>
     </row>
-    <row r="931" spans="1:22" ht="12.5">
+    <row r="931" spans="1:22" ht="12.5" hidden="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -24445,7 +24445,7 @@
       <c r="U931" s="1"/>
       <c r="V931" s="1"/>
     </row>
-    <row r="932" spans="1:22" ht="12.5">
+    <row r="932" spans="1:22" ht="12.5" hidden="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -24469,7 +24469,7 @@
       <c r="U932" s="1"/>
       <c r="V932" s="1"/>
     </row>
-    <row r="933" spans="1:22" ht="12.5">
+    <row r="933" spans="1:22" ht="12.5" hidden="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -24493,7 +24493,7 @@
       <c r="U933" s="1"/>
       <c r="V933" s="1"/>
     </row>
-    <row r="934" spans="1:22" ht="12.5">
+    <row r="934" spans="1:22" ht="12.5" hidden="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -24517,7 +24517,7 @@
       <c r="U934" s="1"/>
       <c r="V934" s="1"/>
     </row>
-    <row r="935" spans="1:22" ht="12.5">
+    <row r="935" spans="1:22" ht="12.5" hidden="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -24541,7 +24541,7 @@
       <c r="U935" s="1"/>
       <c r="V935" s="1"/>
     </row>
-    <row r="936" spans="1:22" ht="12.5">
+    <row r="936" spans="1:22" ht="12.5" hidden="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -24565,7 +24565,7 @@
       <c r="U936" s="1"/>
       <c r="V936" s="1"/>
     </row>
-    <row r="937" spans="1:22" ht="12.5">
+    <row r="937" spans="1:22" ht="12.5" hidden="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -24589,7 +24589,7 @@
       <c r="U937" s="1"/>
       <c r="V937" s="1"/>
     </row>
-    <row r="938" spans="1:22" ht="12.5">
+    <row r="938" spans="1:22" ht="12.5" hidden="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -24613,7 +24613,7 @@
       <c r="U938" s="1"/>
       <c r="V938" s="1"/>
     </row>
-    <row r="939" spans="1:22" ht="12.5">
+    <row r="939" spans="1:22" ht="12.5" hidden="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -24637,7 +24637,7 @@
       <c r="U939" s="1"/>
       <c r="V939" s="1"/>
     </row>
-    <row r="940" spans="1:22" ht="12.5">
+    <row r="940" spans="1:22" ht="12.5" hidden="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -24661,7 +24661,7 @@
       <c r="U940" s="1"/>
       <c r="V940" s="1"/>
     </row>
-    <row r="941" spans="1:22" ht="12.5">
+    <row r="941" spans="1:22" ht="12.5" hidden="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -24685,7 +24685,7 @@
       <c r="U941" s="1"/>
       <c r="V941" s="1"/>
     </row>
-    <row r="942" spans="1:22" ht="12.5">
+    <row r="942" spans="1:22" ht="12.5" hidden="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -24709,7 +24709,7 @@
       <c r="U942" s="1"/>
       <c r="V942" s="1"/>
     </row>
-    <row r="943" spans="1:22" ht="12.5">
+    <row r="943" spans="1:22" ht="12.5" hidden="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -24733,7 +24733,7 @@
       <c r="U943" s="1"/>
       <c r="V943" s="1"/>
     </row>
-    <row r="944" spans="1:22" ht="12.5">
+    <row r="944" spans="1:22" ht="12.5" hidden="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -24757,7 +24757,7 @@
       <c r="U944" s="1"/>
       <c r="V944" s="1"/>
     </row>
-    <row r="945" spans="1:22" ht="12.5">
+    <row r="945" spans="1:22" ht="12.5" hidden="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -24781,7 +24781,7 @@
       <c r="U945" s="1"/>
       <c r="V945" s="1"/>
     </row>
-    <row r="946" spans="1:22" ht="12.5">
+    <row r="946" spans="1:22" ht="12.5" hidden="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -24805,7 +24805,7 @@
       <c r="U946" s="1"/>
       <c r="V946" s="1"/>
     </row>
-    <row r="947" spans="1:22" ht="12.5">
+    <row r="947" spans="1:22" ht="12.5" hidden="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -24829,7 +24829,7 @@
       <c r="U947" s="1"/>
       <c r="V947" s="1"/>
     </row>
-    <row r="948" spans="1:22" ht="12.5">
+    <row r="948" spans="1:22" ht="12.5" hidden="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -24853,7 +24853,7 @@
       <c r="U948" s="1"/>
       <c r="V948" s="1"/>
     </row>
-    <row r="949" spans="1:22" ht="12.5">
+    <row r="949" spans="1:22" ht="12.5" hidden="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -24877,7 +24877,7 @@
       <c r="U949" s="1"/>
       <c r="V949" s="1"/>
     </row>
-    <row r="950" spans="1:22" ht="12.5">
+    <row r="950" spans="1:22" ht="12.5" hidden="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -24901,7 +24901,7 @@
       <c r="U950" s="1"/>
       <c r="V950" s="1"/>
     </row>
-    <row r="951" spans="1:22" ht="12.5">
+    <row r="951" spans="1:22" ht="12.5" hidden="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -24925,7 +24925,7 @@
       <c r="U951" s="1"/>
       <c r="V951" s="1"/>
     </row>
-    <row r="952" spans="1:22" ht="12.5">
+    <row r="952" spans="1:22" ht="12.5" hidden="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69896A39-81A7-41EB-A152-AC1DDB1A8F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45505A9-9E81-477D-A287-FC51989A99B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -805,16 +805,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Lora"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Lora"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
       <name val="Lora"/>
     </font>
     <font>
@@ -829,8 +819,39 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000080"/>
-      <name val="Lora"/>
+      <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Posterama"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -950,141 +971,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1329,7 @@
   <dimension ref="A1:V952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A29" sqref="A29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1357,46 +1378,46 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="1"/>
@@ -1408,23 +1429,23 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="12.5">
-      <c r="A3" s="92" t="s">
+    <row r="3" spans="1:22" ht="13">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1434,463 +1455,463 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-    </row>
-    <row r="5" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="78" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-    </row>
-    <row r="6" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="45">
+      <c r="K6" s="18"/>
+      <c r="L6" s="31">
         <v>4500</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-    </row>
-    <row r="7" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A7" s="80"/>
-      <c r="B7" s="50" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A7" s="32"/>
+      <c r="B7" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="54">
+      <c r="K7" s="32"/>
+      <c r="L7" s="36">
         <v>751492</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-    </row>
-    <row r="8" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-    </row>
-    <row r="9" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A9" s="32"/>
+      <c r="B9" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="86" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="M9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="80"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-    </row>
-    <row r="10" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-    </row>
-    <row r="11" spans="1:22" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="83" t="s">
+      <c r="N10" s="18"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="86" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="80"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-    </row>
-    <row r="12" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
+      <c r="N11" s="32"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-    </row>
-    <row r="13" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A13" s="80"/>
-      <c r="B13" s="83" t="s">
+      <c r="N12" s="18"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A13" s="32"/>
+      <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="86" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="80"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-    </row>
-    <row r="14" spans="1:22" ht="12.5">
-      <c r="A14" s="92" t="s">
+      <c r="N13" s="32"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="13">
+      <c r="A14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1900,41 +1921,41 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="12.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:22" ht="13">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="41"/>
+      <c r="L15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1944,41 +1965,41 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="12.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:22" ht="13">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="20" t="s">
+      <c r="K16" s="46"/>
+      <c r="L16" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1988,41 +2009,41 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="12.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:22" ht="13">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="41"/>
+      <c r="L17" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2032,41 +2053,41 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="12.5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:22" ht="13">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="20" t="s">
+      <c r="K18" s="46"/>
+      <c r="L18" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="15"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2076,41 +2097,41 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="12.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:22" ht="13">
+      <c r="A19" s="41"/>
+      <c r="B19" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2120,41 +2141,41 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="12.5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:22" ht="13">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="46"/>
+      <c r="L20" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="15"/>
+      <c r="N20" s="46"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2164,41 +2185,41 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="12.5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:22" ht="13">
+      <c r="A21" s="41"/>
+      <c r="B21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="41"/>
+      <c r="L21" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2208,41 +2229,41 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="12.5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:22" ht="13">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="20" t="s">
+      <c r="K22" s="46"/>
+      <c r="L22" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="15"/>
+      <c r="N22" s="46"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2252,41 +2273,41 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="12.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:22" ht="13">
+      <c r="A23" s="41"/>
+      <c r="B23" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2296,41 +2317,41 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="12.5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="1:22" ht="13">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="20" t="s">
+      <c r="K24" s="46"/>
+      <c r="L24" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2340,23 +2361,23 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="12.5">
-      <c r="A25" s="92" t="s">
+    <row r="25" spans="1:22" ht="13">
+      <c r="A25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2366,155 +2387,155 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A26" s="73"/>
-      <c r="B26" s="75" t="s">
+    <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="73"/>
-      <c r="L26" s="76">
+      <c r="K26" s="51"/>
+      <c r="L26" s="55">
         <v>20488</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="73"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-    </row>
-    <row r="27" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49" t="s">
+      <c r="N26" s="51"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51" t="s">
+      <c r="K27" s="23"/>
+      <c r="L27" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="51" t="s">
+      <c r="M27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-    </row>
-    <row r="28" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="46" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42" t="s">
+      <c r="E28" s="56"/>
+      <c r="F28" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="48" t="s">
+      <c r="K28" s="56"/>
+      <c r="L28" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-    </row>
-    <row r="29" spans="1:22" ht="12.5">
-      <c r="A29" s="92" t="s">
+      <c r="N28" s="56"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" ht="13">
+      <c r="A29" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2524,41 +2545,41 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="12.5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:22" ht="13">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="11" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2568,23 +2589,23 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="12.5">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:22" ht="13">
+      <c r="A31" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2594,39 +2615,39 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="12.5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:22" ht="13">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26" t="s">
+      <c r="K32" s="65"/>
+      <c r="L32" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="64" t="s">
         <v>156</v>
       </c>
       <c r="O32" s="2"/>
@@ -2638,169 +2659,169 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" s="68" customFormat="1" ht="12.5">
-      <c r="A33" s="63"/>
-      <c r="B33" s="52" t="s">
+    <row r="33" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A33" s="67"/>
+      <c r="B33" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="52" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="66"/>
-      <c r="L33" s="54">
+      <c r="K33" s="71"/>
+      <c r="L33" s="36">
         <v>1266</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="65"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-    </row>
-    <row r="34" spans="1:22" s="41" customFormat="1" ht="12.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="59" t="s">
+      <c r="N33" s="69"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A34" s="56"/>
+      <c r="B34" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="46" t="s">
+      <c r="I34" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="48">
+      <c r="K34" s="75"/>
+      <c r="L34" s="58">
         <v>280</v>
       </c>
-      <c r="M34" s="43" t="s">
+      <c r="M34" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-    </row>
-    <row r="35" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
+      <c r="N34" s="56"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="J35" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="51">
+      <c r="K35" s="76"/>
+      <c r="L35" s="25">
         <v>2304</v>
       </c>
-      <c r="M35" s="51" t="s">
+      <c r="M35" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-    </row>
-    <row r="36" spans="1:22" ht="12.5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="12" t="s">
+      <c r="N35" s="23"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="1:22" ht="13">
+      <c r="A36" s="41"/>
+      <c r="B36" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="12" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="14">
+      <c r="K36" s="79"/>
+      <c r="L36" s="80">
         <v>5850</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="41"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2810,65 +2831,65 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" s="68" customFormat="1" ht="12.5">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52" t="s">
+    <row r="37" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A37" s="23"/>
+      <c r="B37" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="52" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="49" t="s">
+      <c r="H37" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J37" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="54">
+      <c r="K37" s="76"/>
+      <c r="L37" s="36">
         <v>4376</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="49"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-    </row>
-    <row r="38" spans="1:22" ht="12.5">
-      <c r="A38" s="92" t="s">
+      <c r="N37" s="23"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="1:22" ht="13">
+      <c r="A38" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2878,39 +2899,39 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="12.5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="28" t="s">
+    <row r="39" spans="1:22" ht="13">
+      <c r="A39" s="41"/>
+      <c r="B39" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="28" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="9" t="s">
+      <c r="K39" s="79"/>
+      <c r="L39" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="41" t="s">
         <v>178</v>
       </c>
       <c r="O39" s="2"/>
@@ -2922,149 +2943,149 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="56" customFormat="1" ht="12.5">
-      <c r="A40" s="49"/>
-      <c r="B40" s="78" t="s">
+    <row r="40" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="78" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J40" s="79" t="s">
+      <c r="J40" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="51" t="s">
+      <c r="K40" s="76"/>
+      <c r="L40" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="M40" s="51" t="s">
+      <c r="M40" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="49"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-    </row>
-    <row r="41" spans="1:22" s="89" customFormat="1" ht="12.5">
-      <c r="A41" s="35"/>
-      <c r="B41" s="44" t="s">
+      <c r="N40" s="23"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+    </row>
+    <row r="41" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A41" s="18"/>
+      <c r="B41" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="44" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="87" t="s">
+      <c r="H41" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="77" t="s">
+      <c r="J41" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="88"/>
-      <c r="L41" s="45">
+      <c r="K41" s="87"/>
+      <c r="L41" s="31">
         <v>392</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-    </row>
-    <row r="42" spans="1:22" s="68" customFormat="1" ht="12.5">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52" t="s">
+      <c r="N41" s="18"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A42" s="23"/>
+      <c r="B42" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="K42" s="69"/>
-      <c r="L42" s="54">
+      <c r="K42" s="76"/>
+      <c r="L42" s="36">
         <v>41306</v>
       </c>
-      <c r="M42" s="51" t="s">
+      <c r="M42" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="49"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.5">
-      <c r="A43" s="92" t="s">
+      <c r="N42" s="23"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+    </row>
+    <row r="43" spans="1:22" ht="13">
+      <c r="A43" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3074,41 +3095,41 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="12.5">
-      <c r="A44" s="7"/>
-      <c r="B44" s="31" t="s">
+    <row r="44" spans="1:22" ht="13">
+      <c r="A44" s="41"/>
+      <c r="B44" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="33" t="s">
+      <c r="K44" s="79"/>
+      <c r="L44" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="41" t="s">
         <v>188</v>
       </c>
       <c r="O44" s="2"/>
@@ -3120,41 +3141,41 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="12.5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17" t="s">
+    <row r="45" spans="1:22" ht="13">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="17" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="18">
+      <c r="K45" s="46"/>
+      <c r="L45" s="91">
         <v>2019</v>
       </c>
-      <c r="M45" s="16" t="s">
+      <c r="M45" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="N45" s="15"/>
+      <c r="N45" s="46"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3163,23 +3184,23 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="12.5">
-      <c r="A46" s="92" t="s">
+    <row r="46" spans="1:22" ht="13">
+      <c r="A46" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3189,37 +3210,37 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" s="4" customFormat="1" ht="12.5">
-      <c r="A47" s="34"/>
-      <c r="B47" s="12" t="s">
+    <row r="47" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A47" s="92"/>
+      <c r="B47" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="12" t="s">
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K47" s="34"/>
-      <c r="L47" s="14">
+      <c r="K47" s="92"/>
+      <c r="L47" s="80">
         <v>4957</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="M47" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N47" s="34"/>
+      <c r="N47" s="92"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45505A9-9E81-477D-A287-FC51989A99B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41749008-04AA-43FC-B02E-842824F829C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -786,6 +786,27 @@
   </si>
   <si>
     <t>2988</t>
+  </si>
+  <si>
+    <t>520mA 68uH ±20% SMD Power Inductors</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>68uH</t>
+  </si>
+  <si>
+    <t>microgate</t>
+  </si>
+  <si>
+    <t>MPIT4030-680M-LF</t>
+  </si>
+  <si>
+    <t>C281305</t>
+  </si>
+  <si>
+    <t>$0.081</t>
   </si>
 </sst>
 </file>
@@ -967,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,7 +1010,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1052,7 +1072,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1105,7 +1124,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1326,10 +1368,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V952"/>
+  <dimension ref="A1:V953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:N29"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1430,22 +1472,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1456,40 +1498,40 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -1500,40 +1542,40 @@
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -1544,40 +1586,40 @@
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="31">
+      <c r="K6" s="17"/>
+      <c r="L6" s="30">
         <v>4500</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1588,40 +1630,40 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="36">
+      <c r="K7" s="31"/>
+      <c r="L7" s="35">
         <v>751492</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -1632,40 +1674,40 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -1676,40 +1718,40 @@
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A9" s="32"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="40" t="s">
+      <c r="K9" s="31"/>
+      <c r="L9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -1720,40 +1762,40 @@
       <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="22" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1764,40 +1806,40 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="40" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="32"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -1808,40 +1850,40 @@
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="22" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -1852,40 +1894,40 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A13" s="32"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="40" t="s">
+      <c r="K13" s="31"/>
+      <c r="L13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -1896,22 +1938,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1922,40 +1964,40 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="13">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="45" t="s">
+      <c r="K15" s="40"/>
+      <c r="L15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="41"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1966,40 +2008,40 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="13">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="50" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2010,40 +2052,40 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="13">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="40"/>
+      <c r="L17" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="41"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2054,40 +2096,40 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="13">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="50" t="s">
+      <c r="K18" s="45"/>
+      <c r="L18" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="46"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2098,40 +2140,40 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="13">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="45" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="41"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2142,40 +2184,40 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="50" t="s">
+      <c r="K20" s="45"/>
+      <c r="L20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="46"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2186,40 +2228,40 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="13">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="43" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="45" t="s">
+      <c r="K21" s="40"/>
+      <c r="L21" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="41"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2230,40 +2272,40 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="13">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="50" t="s">
+      <c r="K22" s="45"/>
+      <c r="L22" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="46"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2274,40 +2316,40 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="13">
-      <c r="A23" s="41"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="45" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="41"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2318,40 +2360,40 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="13">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="50" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="48" t="s">
+      <c r="M24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="46"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2362,22 +2404,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2388,40 +2430,40 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51" t="s">
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="55">
+      <c r="K26" s="50"/>
+      <c r="L26" s="54">
         <v>20488</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="51"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -2432,40 +2474,40 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="25" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="23"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2476,40 +2518,40 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="58" t="s">
+      <c r="K28" s="55"/>
+      <c r="L28" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="56"/>
+      <c r="N28" s="55"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -2519,67 +2561,67 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" ht="13">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:22" s="100" customFormat="1" ht="13">
+      <c r="A29" s="94"/>
+      <c r="B29" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" s="94"/>
+      <c r="L29" s="95">
+        <v>965</v>
+      </c>
+      <c r="M29" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="94"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+    </row>
+    <row r="30" spans="1:22" ht="13">
+      <c r="A30" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="41"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2590,22 +2632,40 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="13">
-      <c r="A31" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="40"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2616,40 +2676,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="M32" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="64" t="s">
-        <v>156</v>
-      </c>
+      <c r="A32" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2659,281 +2701,281 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A33" s="67"/>
-      <c r="B33" s="34" t="s">
+    <row r="33" spans="1:22" ht="13">
+      <c r="A33" s="59"/>
+      <c r="B33" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A34" s="65"/>
+      <c r="B34" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="34" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G34" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H34" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J34" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="36">
+      <c r="K34" s="69"/>
+      <c r="L34" s="35">
         <v>1266</v>
       </c>
-      <c r="M33" s="72" t="s">
+      <c r="M34" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="69"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-    </row>
-    <row r="34" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A34" s="56"/>
-      <c r="B34" s="73" t="s">
+      <c r="N34" s="67"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A35" s="55"/>
+      <c r="B35" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C35" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D35" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="E35" s="55"/>
+      <c r="F35" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="74" t="s">
+      <c r="G35" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H35" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="57" t="s">
+      <c r="I35" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J35" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="K34" s="75"/>
-      <c r="L34" s="58">
+      <c r="K35" s="73"/>
+      <c r="L35" s="57">
         <v>280</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="M35" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="56"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-    </row>
-    <row r="35" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
+      <c r="N35" s="55"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G36" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K35" s="76"/>
-      <c r="L35" s="25">
+      <c r="K36" s="74"/>
+      <c r="L36" s="24">
         <v>2304</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-    </row>
-    <row r="36" spans="1:22" ht="13">
-      <c r="A36" s="41"/>
-      <c r="B36" s="77" t="s">
+      <c r="N36" s="22"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="1:22" ht="13">
+      <c r="A37" s="40"/>
+      <c r="B37" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C37" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="77" t="s">
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G37" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H37" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="77" t="s">
+      <c r="I37" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="78" t="s">
+      <c r="J37" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="80">
+      <c r="K37" s="77"/>
+      <c r="L37" s="78">
         <v>5850</v>
       </c>
-      <c r="M36" s="42" t="s">
+      <c r="M37" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A37" s="23"/>
-      <c r="B37" s="34" t="s">
+      <c r="N37" s="40"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A38" s="22"/>
+      <c r="B38" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="34" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G38" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I38" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="J38" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="36">
+      <c r="K38" s="74"/>
+      <c r="L38" s="35">
         <v>4376</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M38" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-    </row>
-    <row r="38" spans="1:22" ht="13">
-      <c r="A38" s="17" t="s">
+      <c r="N38" s="22"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="1:22" ht="13">
+      <c r="A39" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="41"/>
-      <c r="B39" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="K39" s="79"/>
-      <c r="L39" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="N39" s="41" t="s">
-        <v>178</v>
-      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2943,195 +2985,193 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="1:22" ht="13">
+      <c r="A40" s="40"/>
+      <c r="B40" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="77"/>
+      <c r="L40" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C41" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G41" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="85" t="s">
+      <c r="H41" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J41" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="K40" s="76"/>
-      <c r="L40" s="25" t="s">
+      <c r="K41" s="74"/>
+      <c r="L41" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M41" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-    </row>
-    <row r="41" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A41" s="18"/>
-      <c r="B41" s="29" t="s">
+      <c r="N41" s="22"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+    </row>
+    <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A42" s="17"/>
+      <c r="B42" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="29" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G41" s="86" t="s">
+      <c r="G42" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H42" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I42" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J42" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="31">
+      <c r="K42" s="85"/>
+      <c r="L42" s="30">
         <v>392</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M42" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A42" s="23"/>
-      <c r="B42" s="34" t="s">
+      <c r="N42" s="17"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A43" s="22"/>
+      <c r="B43" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="34" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G43" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="85" t="s">
+      <c r="H43" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I43" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J43" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="36">
+      <c r="K43" s="74"/>
+      <c r="L43" s="35">
         <v>41306</v>
       </c>
-      <c r="M42" s="25" t="s">
+      <c r="M43" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-    </row>
-    <row r="43" spans="1:22" ht="13">
-      <c r="A43" s="17" t="s">
+      <c r="N43" s="22"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+    </row>
+    <row r="44" spans="1:22" ht="13">
+      <c r="A44" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" ht="13">
-      <c r="A44" s="41"/>
-      <c r="B44" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="J44" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="K44" s="79"/>
-      <c r="L44" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="N44" s="41" t="s">
-        <v>188</v>
-      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3142,40 +3182,42 @@
       <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G45" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="46" t="s">
+      <c r="G45" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="J45" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="K45" s="46"/>
-      <c r="L45" s="91">
-        <v>2019</v>
-      </c>
-      <c r="M45" s="48" t="s">
+      <c r="I45" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="K45" s="77"/>
+      <c r="L45" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N45" s="46"/>
+      <c r="N45" s="40" t="s">
+        <v>188</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3183,24 +3225,43 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" s="45"/>
+      <c r="L46" s="89">
+        <v>2019</v>
+      </c>
+      <c r="M46" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="N46" s="45"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3208,63 +3269,64 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A47" s="92"/>
-      <c r="B47" s="77" t="s">
-        <v>225</v>
-      </c>
+    </row>
+    <row r="47" spans="1:22" ht="13">
+      <c r="A47" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="92"/>
       <c r="C47" s="92"/>
       <c r="D47" s="92"/>
       <c r="E47" s="92"/>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A48" s="90"/>
+      <c r="B48" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="77" t="s">
+      <c r="G48" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="77" t="s">
+      <c r="I48" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="J47" s="78" t="s">
+      <c r="J48" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="K47" s="92"/>
-      <c r="L47" s="80">
+      <c r="K48" s="90"/>
+      <c r="L48" s="78">
         <v>4957</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M48" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N47" s="92"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" ht="12.5" hidden="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="90"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -24970,17 +25032,41 @@
       <c r="U952" s="1"/>
       <c r="V952" s="1"/>
     </row>
+    <row r="953" spans="1:22" ht="12.5" hidden="1">
+      <c r="A953" s="1"/>
+      <c r="B953" s="1"/>
+      <c r="C953" s="1"/>
+      <c r="D953" s="1"/>
+      <c r="E953" s="1"/>
+      <c r="F953" s="1"/>
+      <c r="G953" s="1"/>
+      <c r="H953" s="1"/>
+      <c r="I953" s="1"/>
+      <c r="J953" s="1"/>
+      <c r="K953" s="1"/>
+      <c r="L953" s="1"/>
+      <c r="M953" s="1"/>
+      <c r="N953" s="1"/>
+      <c r="O953" s="1"/>
+      <c r="P953" s="1"/>
+      <c r="Q953" s="1"/>
+      <c r="R953" s="1"/>
+      <c r="S953" s="1"/>
+      <c r="T953" s="1"/>
+      <c r="U953" s="1"/>
+      <c r="V953" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A47:N47"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41749008-04AA-43FC-B02E-842824F829C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C424A2-76DF-4996-B997-D395DE352795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="265">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -807,6 +807,15 @@
   </si>
   <si>
     <t>$0.081</t>
+  </si>
+  <si>
+    <t>TLV62569DBVR</t>
+  </si>
+  <si>
+    <t>C141836</t>
+  </si>
+  <si>
+    <t>$0.0942</t>
   </si>
 </sst>
 </file>
@@ -988,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1018,10 +1027,8 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1060,9 +1067,7 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1124,21 +1129,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,6 +1142,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1368,10 +1382,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V953"/>
+  <dimension ref="A1:V954"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1394,22 +1408,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1472,22 +1486,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1543,10 +1557,10 @@
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -1556,23 +1570,23 @@
       <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>245</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="22"/>
@@ -1606,14 +1620,14 @@
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27" t="s">
         <v>202</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="30">
+      <c r="L6" s="28">
         <v>4500</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -1630,40 +1644,40 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A7" s="31"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="35">
+      <c r="K7" s="29"/>
+      <c r="L7" s="33">
         <v>751492</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -1718,40 +1732,40 @@
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A9" s="31"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -1806,40 +1820,40 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -1894,40 +1908,40 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="39" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -1938,22 +1952,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1964,40 +1978,40 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="13">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="44" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2008,40 +2022,40 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="13">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="49" t="s">
+      <c r="K16" s="43"/>
+      <c r="L16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2052,40 +2066,40 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="13">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="44" t="s">
+      <c r="K17" s="38"/>
+      <c r="L17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="38"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2096,40 +2110,40 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="13">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="49" t="s">
+      <c r="K18" s="43"/>
+      <c r="L18" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="45"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2140,40 +2154,40 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="13">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="44" t="s">
+      <c r="K19" s="38"/>
+      <c r="L19" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2184,40 +2198,40 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="49" t="s">
+      <c r="K20" s="43"/>
+      <c r="L20" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="45"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2228,40 +2242,40 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="13">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="44" t="s">
+      <c r="K21" s="38"/>
+      <c r="L21" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2272,40 +2286,40 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="13">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="49" t="s">
+      <c r="K22" s="43"/>
+      <c r="L22" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="45"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2316,40 +2330,40 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="13">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="44" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="41" t="s">
+      <c r="M23" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2360,40 +2374,40 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="13">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="49" t="s">
+      <c r="K24" s="43"/>
+      <c r="L24" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="45"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2404,22 +2418,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2430,40 +2444,40 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
+      <c r="E26" s="48"/>
+      <c r="F26" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="54">
+      <c r="K26" s="48"/>
+      <c r="L26" s="50">
         <v>20488</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="50"/>
+      <c r="N26" s="48"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -2478,7 +2492,7 @@
       <c r="B27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -2501,10 +2515,10 @@
         <v>131</v>
       </c>
       <c r="K27" s="22"/>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="23" t="s">
         <v>60</v>
       </c>
       <c r="N27" s="22"/>
@@ -2518,40 +2532,40 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="57" t="s">
+      <c r="K28" s="51"/>
+      <c r="L28" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="M28" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="55"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -2561,67 +2575,67 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" s="100" customFormat="1" ht="13">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95" t="s">
+    <row r="29" spans="1:22" s="91" customFormat="1" ht="13">
+      <c r="A29" s="87"/>
+      <c r="B29" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94" t="s">
+      <c r="E29" s="87"/>
+      <c r="F29" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="J29" s="97" t="s">
+      <c r="J29" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95">
+      <c r="K29" s="87"/>
+      <c r="L29" s="33">
         <v>965</v>
       </c>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="94"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
     </row>
     <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2632,40 +2646,40 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="13">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="L31" s="44" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="40"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2676,22 +2690,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2702,38 +2716,38 @@
       <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" ht="13">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="42" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64" t="s">
+      <c r="K33" s="59"/>
+      <c r="L33" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="64" t="s">
+      <c r="M33" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="62" t="s">
+      <c r="N33" s="58" t="s">
         <v>156</v>
       </c>
       <c r="O33" s="2"/>
@@ -2746,38 +2760,38 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A34" s="65"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="69"/>
-      <c r="L34" s="35">
+      <c r="K34" s="65"/>
+      <c r="L34" s="33">
         <v>1266</v>
       </c>
-      <c r="M34" s="70" t="s">
+      <c r="M34" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="67"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -2788,40 +2802,40 @@
       <c r="V34" s="7"/>
     </row>
     <row r="35" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A35" s="55"/>
-      <c r="B35" s="71" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55" t="s">
+      <c r="E35" s="51"/>
+      <c r="F35" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="H35" s="55" t="s">
+      <c r="H35" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="57">
+      <c r="K35" s="69"/>
+      <c r="L35" s="53">
         <v>280</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="M35" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -2858,11 +2872,11 @@
       <c r="J36" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="24">
+      <c r="K36" s="70"/>
+      <c r="L36" s="23">
         <v>2304</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="23" t="s">
         <v>60</v>
       </c>
       <c r="N36" s="22"/>
@@ -2876,38 +2890,38 @@
       <c r="V36" s="11"/>
     </row>
     <row r="37" spans="1:22" ht="13">
-      <c r="A37" s="40"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="75" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="78">
+      <c r="K37" s="73"/>
+      <c r="L37" s="74">
         <v>5850</v>
       </c>
-      <c r="M37" s="41" t="s">
+      <c r="M37" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="40"/>
+      <c r="N37" s="38"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2919,15 +2933,15 @@
     </row>
     <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A38" s="22"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>212</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="31" t="s">
         <v>206</v>
       </c>
       <c r="G38" s="22" t="s">
@@ -2936,17 +2950,17 @@
       <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="J38" s="68" t="s">
+      <c r="J38" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="K38" s="74"/>
-      <c r="L38" s="35">
+      <c r="K38" s="70"/>
+      <c r="L38" s="33">
         <v>4376</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="23" t="s">
         <v>60</v>
       </c>
       <c r="N38" s="22"/>
@@ -2960,22 +2974,22 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2986,38 +3000,38 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" ht="13">
-      <c r="A40" s="40"/>
-      <c r="B40" s="79" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="79" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="79" t="s">
+      <c r="G40" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="79" t="s">
+      <c r="I40" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="J40" s="81" t="s">
+      <c r="J40" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="41" t="s">
+      <c r="K40" s="73"/>
+      <c r="L40" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="M40" s="41" t="s">
+      <c r="M40" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="40" t="s">
+      <c r="N40" s="38" t="s">
         <v>178</v>
       </c>
       <c r="O40" s="2"/>
@@ -3029,76 +3043,76 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23" t="s">
+    <row r="41" spans="1:22" s="91" customFormat="1" ht="13">
+      <c r="A41" s="96"/>
+      <c r="B41" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="97"/>
+      <c r="L41" s="33">
+        <v>41649</v>
+      </c>
+      <c r="M41" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="96"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+    </row>
+    <row r="42" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A42" s="17"/>
+      <c r="B42" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C42" s="95" t="s">
         <v>172</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" s="83" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="K41" s="74"/>
-      <c r="L41" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-    </row>
-    <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A42" s="17"/>
-      <c r="B42" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="H42" s="84" t="s">
+      <c r="F42" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="30">
-        <v>392</v>
+      <c r="I42" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" s="81"/>
+      <c r="L42" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>60</v>
@@ -3115,34 +3129,34 @@
     </row>
     <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A43" s="22"/>
-      <c r="B43" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>229</v>
+      <c r="B43" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>216</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="83" t="s">
+      <c r="F43" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" s="74"/>
-      <c r="L43" s="35">
-        <v>41306</v>
-      </c>
-      <c r="M43" s="24" t="s">
+      <c r="I43" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="70"/>
+      <c r="L43" s="33">
+        <v>392</v>
+      </c>
+      <c r="M43" s="23" t="s">
         <v>60</v>
       </c>
       <c r="N43" s="22"/>
@@ -3155,69 +3169,65 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" spans="1:22" ht="13">
-      <c r="A44" s="92" t="s">
+    <row r="44" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A44" s="17"/>
+      <c r="B44" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" s="81"/>
+      <c r="L44" s="28">
+        <v>41306</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="17"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" ht="13">
+      <c r="A45" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="40"/>
-      <c r="B45" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="K45" s="77"/>
-      <c r="L45" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="M45" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="40" t="s">
-        <v>188</v>
-      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3228,40 +3238,42 @@
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="G46" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="45" t="s">
+      <c r="G46" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="89">
-        <v>2019</v>
-      </c>
-      <c r="M46" s="47" t="s">
+      <c r="I46" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="K46" s="73"/>
+      <c r="L46" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="45"/>
+      <c r="N46" s="38" t="s">
+        <v>188</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3269,24 +3281,43 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="13">
-      <c r="A47" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="85">
+        <v>2019</v>
+      </c>
+      <c r="M47" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="43"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3294,63 +3325,64 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A48" s="90"/>
-      <c r="B48" s="75" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13">
+      <c r="A48" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A49" s="86"/>
+      <c r="B49" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="75" t="s">
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="75" t="s">
+      <c r="G49" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H49" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="75" t="s">
+      <c r="I49" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="76" t="s">
+      <c r="J49" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="K48" s="90"/>
-      <c r="L48" s="78">
+      <c r="K49" s="86"/>
+      <c r="L49" s="74">
         <v>4957</v>
       </c>
-      <c r="M48" s="41" t="s">
+      <c r="M49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N48" s="90"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" ht="12.5" hidden="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="86"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -25056,12 +25088,36 @@
       <c r="U953" s="1"/>
       <c r="V953" s="1"/>
     </row>
+    <row r="954" spans="1:22" ht="12.5" hidden="1">
+      <c r="A954" s="1"/>
+      <c r="B954" s="1"/>
+      <c r="C954" s="1"/>
+      <c r="D954" s="1"/>
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+      <c r="H954" s="1"/>
+      <c r="I954" s="1"/>
+      <c r="J954" s="1"/>
+      <c r="K954" s="1"/>
+      <c r="L954" s="1"/>
+      <c r="M954" s="1"/>
+      <c r="N954" s="1"/>
+      <c r="O954" s="1"/>
+      <c r="P954" s="1"/>
+      <c r="Q954" s="1"/>
+      <c r="R954" s="1"/>
+      <c r="S954" s="1"/>
+      <c r="T954" s="1"/>
+      <c r="U954" s="1"/>
+      <c r="V954" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A32:N32"/>
     <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A48:N48"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A14:N14"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C424A2-76DF-4996-B997-D395DE352795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F87890-C499-4A07-9712-73162693FD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="259">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -540,24 +540,6 @@
   </si>
   <si>
     <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>SILERGY CORP</t>
-  </si>
-  <si>
-    <t>SY8089AAAC</t>
-  </si>
-  <si>
-    <t>C78988</t>
-  </si>
-  <si>
-    <t>$0.2160</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>Digital supply</t>
   </si>
   <si>
     <t>CRYSTALS</t>
@@ -997,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1099,15 +1081,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1144,11 +1117,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1162,6 +1130,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1358,7 @@
   <dimension ref="A1:V954"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:N45"/>
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1408,22 +1381,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1486,22 +1459,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1558,33 +1531,33 @@
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A5" s="22"/>
       <c r="B5" s="31" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>25</v>
@@ -1602,29 +1575,29 @@
     <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="28">
@@ -1646,7 +1619,7 @@
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>17</v>
@@ -1659,13 +1632,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>23</v>
@@ -1952,22 +1925,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2418,22 +2391,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2446,29 +2419,29 @@
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A26" s="48"/>
       <c r="B26" s="71" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="50">
@@ -2575,67 +2548,67 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" s="91" customFormat="1" ht="13">
-      <c r="A29" s="87"/>
+    <row r="29" spans="1:22" s="88" customFormat="1" ht="13">
+      <c r="A29" s="84"/>
       <c r="B29" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="K29" s="87"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="33">
         <v>965</v>
       </c>
-      <c r="M29" s="89" t="s">
+      <c r="M29" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
     </row>
     <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2690,22 +2663,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2762,27 +2735,27 @@
     <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A34" s="61"/>
       <c r="B34" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
       <c r="F34" s="31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H34" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J34" s="64" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K34" s="65"/>
       <c r="L34" s="33">
@@ -2892,27 +2865,27 @@
     <row r="37" spans="1:22" ht="13">
       <c r="A37" s="38"/>
       <c r="B37" s="71" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37" s="71" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K37" s="73"/>
       <c r="L37" s="74">
@@ -2934,27 +2907,27 @@
     <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A38" s="22"/>
       <c r="B38" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J38" s="64" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K38" s="70"/>
       <c r="L38" s="33">
@@ -2974,22 +2947,22 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2999,235 +2972,237 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="13">
-      <c r="A40" s="38"/>
-      <c r="B40" s="75" t="s">
+    <row r="40" spans="1:22" s="88" customFormat="1" ht="13">
+      <c r="A40" s="90"/>
+      <c r="B40" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="75" t="s">
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="91"/>
+      <c r="L40" s="33">
+        <v>41649</v>
+      </c>
+      <c r="M40" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="90"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+    </row>
+    <row r="41" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A41" s="17"/>
+      <c r="B41" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="78"/>
+      <c r="L41" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A42" s="22"/>
+      <c r="B42" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="K42" s="70"/>
+      <c r="L42" s="33">
+        <v>392</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+    </row>
+    <row r="43" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A43" s="17"/>
+      <c r="B43" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="78"/>
+      <c r="L43" s="28">
+        <v>41306</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" ht="13">
+      <c r="A44" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="1:22" ht="13">
+      <c r="A45" s="38"/>
+      <c r="B45" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="H40" s="75" t="s">
+      <c r="C45" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="K40" s="73"/>
-      <c r="L40" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" s="39" t="s">
+      <c r="I45" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="73"/>
+      <c r="L45" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="M45" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-    </row>
-    <row r="41" spans="1:22" s="91" customFormat="1" ht="13">
-      <c r="A41" s="96"/>
-      <c r="B41" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="J41" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="K41" s="97"/>
-      <c r="L41" s="33">
-        <v>41649</v>
-      </c>
-      <c r="M41" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="N41" s="96"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-    </row>
-    <row r="42" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A42" s="17"/>
-      <c r="B42" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="G42" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="K42" s="81"/>
-      <c r="L42" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A43" s="22"/>
-      <c r="B43" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="H43" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="33">
-        <v>392</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-    </row>
-    <row r="44" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A44" s="17"/>
-      <c r="B44" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="H44" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="28">
-        <v>41306</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
+      <c r="N45" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3238,42 +3213,40 @@
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="38"/>
-      <c r="B46" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="C46" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="D46" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="K46" s="73"/>
-      <c r="L46" s="84" t="s">
+      <c r="I46" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="J46" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="82">
+        <v>2019</v>
+      </c>
+      <c r="M46" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="38" t="s">
-        <v>188</v>
-      </c>
+      <c r="N46" s="43"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3281,43 +3254,24 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="13">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="85">
-        <v>2019</v>
-      </c>
-      <c r="M47" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="N47" s="43"/>
+      <c r="A47" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3325,64 +3279,63 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="13">
-      <c r="A48" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A49" s="86"/>
-      <c r="B49" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="H49" s="38" t="s">
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A48" s="83"/>
+      <c r="B48" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="J49" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="K49" s="86"/>
-      <c r="L49" s="74">
+      <c r="I48" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="J48" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="K48" s="83"/>
+      <c r="L48" s="74">
         <v>4957</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M48" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="86"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" ht="12.5" hidden="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -25088,36 +25041,13 @@
       <c r="U953" s="1"/>
       <c r="V953" s="1"/>
     </row>
-    <row r="954" spans="1:22" ht="12.5" hidden="1">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
-      <c r="I954" s="1"/>
-      <c r="J954" s="1"/>
-      <c r="K954" s="1"/>
-      <c r="L954" s="1"/>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-    </row>
+    <row r="954" spans="1:22" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A32:N32"/>
     <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A47:N47"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A14:N14"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F87890-C499-4A07-9712-73162693FD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB67F9-99FB-4982-AF40-41481354B8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="264">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -798,6 +798,21 @@
   </si>
   <si>
     <t>$0.0942</t>
+  </si>
+  <si>
+    <t>19-218_BHC-ZL1M2QY_3T</t>
+  </si>
+  <si>
+    <t>C264488</t>
+  </si>
+  <si>
+    <t>Everlight Elec</t>
+  </si>
+  <si>
+    <t>$0.064</t>
+  </si>
+  <si>
+    <t>blue 0603 Light Emitting Diodes</t>
   </si>
 </sst>
 </file>
@@ -979,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1120,21 +1135,39 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1355,10 +1388,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V954"/>
+  <dimension ref="A1:V955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+      <selection activeCell="A32" sqref="A32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1381,22 +1414,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1459,22 +1492,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1925,22 +1958,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2391,22 +2424,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2572,7 +2605,7 @@
       <c r="I29" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="J29" s="93" t="s">
+      <c r="J29" s="90" t="s">
         <v>255</v>
       </c>
       <c r="K29" s="84"/>
@@ -2593,22 +2626,22 @@
       <c r="V29" s="87"/>
     </row>
     <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2663,22 +2696,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2947,22 +2980,22 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2972,237 +3005,233 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="88" customFormat="1" ht="13">
-      <c r="A40" s="90"/>
-      <c r="B40" s="76" t="s">
+    <row r="40" spans="1:22" s="101" customFormat="1" ht="13">
+      <c r="A40" s="94"/>
+      <c r="B40" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="H40" s="76" t="s">
+      <c r="H40" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="J40" s="93" t="s">
+      <c r="J40" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="K40" s="91"/>
-      <c r="L40" s="33">
+      <c r="K40" s="98"/>
+      <c r="L40" s="28">
         <v>41649</v>
       </c>
-      <c r="M40" s="92" t="s">
+      <c r="M40" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="90"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-    </row>
-    <row r="41" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A41" s="17"/>
-      <c r="B41" s="26" t="s">
+      <c r="N40" s="94"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+    </row>
+    <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A41" s="22"/>
+      <c r="B41" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="26" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="G41" s="77" t="s">
+      <c r="G41" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="77" t="s">
+      <c r="H41" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="19" t="s">
+      <c r="K41" s="70"/>
+      <c r="L41" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A42" s="22"/>
-      <c r="B42" s="31" t="s">
+      <c r="N41" s="22"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+    </row>
+    <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A42" s="17"/>
+      <c r="B42" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="31" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="H42" s="76" t="s">
+      <c r="H42" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="J42" s="64" t="s">
+      <c r="J42" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="K42" s="70"/>
-      <c r="L42" s="33">
+      <c r="K42" s="78"/>
+      <c r="L42" s="28">
         <v>392</v>
       </c>
-      <c r="M42" s="23" t="s">
+      <c r="M42" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-    </row>
-    <row r="43" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A43" s="17"/>
-      <c r="B43" s="26" t="s">
+      <c r="N42" s="17"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A43" s="22"/>
+      <c r="B43" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="26" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H43" s="77" t="s">
+      <c r="H43" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I43" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="28">
+      <c r="K43" s="70"/>
+      <c r="L43" s="33">
         <v>41306</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="M43" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" ht="13">
-      <c r="A44" s="95" t="s">
+      <c r="N43" s="22"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+    </row>
+    <row r="44" spans="1:22" s="101" customFormat="1" ht="13">
+      <c r="A44" s="94"/>
+      <c r="B44" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" s="98"/>
+      <c r="L44" s="95">
+        <v>2849</v>
+      </c>
+      <c r="M44" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="94"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+    </row>
+    <row r="45" spans="1:22" ht="13">
+      <c r="A45" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="38"/>
-      <c r="B45" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J45" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="K45" s="73"/>
-      <c r="L45" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3213,40 +3242,42 @@
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="G46" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="43" t="s">
+      <c r="G46" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="82">
-        <v>2019</v>
-      </c>
-      <c r="M46" s="45" t="s">
+      <c r="I46" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" s="73"/>
+      <c r="L46" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="43"/>
+      <c r="N46" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3254,24 +3285,43 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="13">
-      <c r="A47" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="82">
+        <v>2019</v>
+      </c>
+      <c r="M47" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="43"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3279,63 +3329,64 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A48" s="83"/>
-      <c r="B48" s="71" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13">
+      <c r="A48" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A49" s="83"/>
+      <c r="B49" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="71" t="s">
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="G48" s="71" t="s">
+      <c r="G49" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H49" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="71" t="s">
+      <c r="I49" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J49" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="K48" s="83"/>
-      <c r="L48" s="74">
+      <c r="K49" s="83"/>
+      <c r="L49" s="74">
         <v>4957</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="M49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N48" s="83"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" ht="12.5" hidden="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="83"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -25041,13 +25092,37 @@
       <c r="U953" s="1"/>
       <c r="V953" s="1"/>
     </row>
-    <row r="954" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="954" spans="1:22" ht="12.5" hidden="1">
+      <c r="A954" s="1"/>
+      <c r="B954" s="1"/>
+      <c r="C954" s="1"/>
+      <c r="D954" s="1"/>
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+      <c r="H954" s="1"/>
+      <c r="I954" s="1"/>
+      <c r="J954" s="1"/>
+      <c r="K954" s="1"/>
+      <c r="L954" s="1"/>
+      <c r="M954" s="1"/>
+      <c r="N954" s="1"/>
+      <c r="O954" s="1"/>
+      <c r="P954" s="1"/>
+      <c r="Q954" s="1"/>
+      <c r="R954" s="1"/>
+      <c r="S954" s="1"/>
+      <c r="T954" s="1"/>
+      <c r="U954" s="1"/>
+      <c r="V954" s="1"/>
+    </row>
+    <row r="955" spans="1:22" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A32:N32"/>
     <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A48:N48"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A14:N14"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB67F9-99FB-4982-AF40-41481354B8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782EF75-992C-4D6A-8926-CA86C44921AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="263">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -545,274 +545,271 @@
     <t>CRYSTALS</t>
   </si>
   <si>
-    <t>24MHz 10pF ±10ppm ±20ppm SMD2016-4P Crystals</t>
-  </si>
-  <si>
-    <t>SMD2016-4P</t>
+    <t>Yangxing Tech</t>
+  </si>
+  <si>
+    <t>32.768kHz 7pF ±20ppm SMD2012-2P Crystals</t>
+  </si>
+  <si>
+    <t>SMD2012-2P</t>
+  </si>
+  <si>
+    <t>32.768 MHz</t>
+  </si>
+  <si>
+    <t>X201232768KJD2SI</t>
+  </si>
+  <si>
+    <t>C383843</t>
+  </si>
+  <si>
+    <t>$0.3472</t>
+  </si>
+  <si>
+    <t>0402WGF2201TCE</t>
+  </si>
+  <si>
+    <t>C25879</t>
+  </si>
+  <si>
+    <t>CQ02WGF1501TCE</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>62,5mW Thick Film Resistors ±1% 2.2kΩ 0402 Chip Resistor</t>
+  </si>
+  <si>
+    <t>62.5mW Thick Film Resistors ±1% 1.5kΩ 0402 Chip Resistor</t>
+  </si>
+  <si>
+    <t>C2759802</t>
+  </si>
+  <si>
+    <t>$0.0013</t>
+  </si>
+  <si>
+    <t>UM803RS</t>
+  </si>
+  <si>
+    <t>C620009</t>
+  </si>
+  <si>
+    <t>$0.2594</t>
+  </si>
+  <si>
+    <t>Union Semiconductor</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>SOT-23-3 Monitors &amp; Reset Circuits </t>
+  </si>
+  <si>
+    <t>UM805RE</t>
+  </si>
+  <si>
+    <t>C620010</t>
+  </si>
+  <si>
+    <t>$0.2633</t>
+  </si>
+  <si>
+    <t>SOT-143-4</t>
+  </si>
+  <si>
+    <t>SOT-143-4 Monitors &amp; Reset Circuits</t>
+  </si>
+  <si>
+    <t>RB521S30_R1_00001</t>
+  </si>
+  <si>
+    <t>30V 500mV@200mA 200mA SOD-523 Schottky Barrier Diodes</t>
+  </si>
+  <si>
+    <t>SOD-523</t>
+  </si>
+  <si>
+    <t>PANJIT International</t>
+  </si>
+  <si>
+    <t>$0.0195</t>
+  </si>
+  <si>
+    <t>C391666</t>
+  </si>
+  <si>
+    <t>MECHANICALS</t>
+  </si>
+  <si>
+    <t>SOFNG</t>
+  </si>
+  <si>
+    <t>TF-15x15</t>
+  </si>
+  <si>
+    <t>C111196</t>
+  </si>
+  <si>
+    <t>$0.1986</t>
+  </si>
+  <si>
+    <t>Deck MicroSD card (TF card) Self bomb SMD SD Card Connectors</t>
+  </si>
+  <si>
+    <t>IRLML6401</t>
+  </si>
+  <si>
+    <t>C347501</t>
+  </si>
+  <si>
+    <t>UMW(Youtai Semiconductor Co., Ltd.)</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>12V 4.3A 50mΩ@4.5V,4.3A 1.3W P Channel SOT-23 MOSFETs</t>
+  </si>
+  <si>
+    <t>$0.0551</t>
+  </si>
+  <si>
+    <t>WM8978CGEFL/RV</t>
+  </si>
+  <si>
+    <t>C323850</t>
+  </si>
+  <si>
+    <t>Cirrus Logic</t>
+  </si>
+  <si>
+    <t>WQFN-32-EP(5x5)</t>
+  </si>
+  <si>
+    <t>$5.2422</t>
+  </si>
+  <si>
+    <t>WQFN-32-EP(5x5) Audio Interface ICs ROHS</t>
+  </si>
+  <si>
+    <t>MLG1005S10NHT000</t>
+  </si>
+  <si>
+    <t>$0.0101</t>
+  </si>
+  <si>
+    <t>C76760</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>10nH</t>
+  </si>
+  <si>
+    <t>500mA 10nH ±3% 220mΩ 0402 Inductors</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>0603WAF2200T5E</t>
+  </si>
+  <si>
+    <t>543484</t>
+  </si>
+  <si>
+    <t>C22962</t>
+  </si>
+  <si>
+    <t>100mW Thick Film Resistors ±1% 220Ω 0603 Chip Resistor</t>
+  </si>
+  <si>
+    <t>TPS79333DBVR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>200mA 70dB@(100Hz),43dB@(100kHz) Fixed 3.3V~3.3V</t>
+  </si>
+  <si>
+    <t>C9840</t>
+  </si>
+  <si>
+    <t>$0.1364</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>520mA 68uH ±20% SMD Power Inductors</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>68uH</t>
+  </si>
+  <si>
+    <t>microgate</t>
+  </si>
+  <si>
+    <t>MPIT4030-680M-LF</t>
+  </si>
+  <si>
+    <t>C281305</t>
+  </si>
+  <si>
+    <t>$0.081</t>
+  </si>
+  <si>
+    <t>TLV62569DBVR</t>
+  </si>
+  <si>
+    <t>C141836</t>
+  </si>
+  <si>
+    <t>$0.0942</t>
+  </si>
+  <si>
+    <t>19-218_BHC-ZL1M2QY_3T</t>
+  </si>
+  <si>
+    <t>C264488</t>
+  </si>
+  <si>
+    <t>Everlight Elec</t>
+  </si>
+  <si>
+    <t>$0.064</t>
+  </si>
+  <si>
+    <t>blue 0603 Light Emitting Diodes</t>
+  </si>
+  <si>
+    <t>7V24000026</t>
+  </si>
+  <si>
+    <t>C337205</t>
+  </si>
+  <si>
+    <t>$0.1455</t>
+  </si>
+  <si>
+    <t>TXC Corp</t>
   </si>
   <si>
     <t>24MHz</t>
   </si>
   <si>
-    <t>Yangxing Tech</t>
-  </si>
-  <si>
-    <t>XL7EL89CMI-111YLC-24M</t>
-  </si>
-  <si>
-    <t>C2965581</t>
-  </si>
-  <si>
-    <t>$0.0817</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>Peut-être à changer, voir guide.</t>
-  </si>
-  <si>
-    <t>32.768kHz 7pF ±20ppm SMD2012-2P Crystals</t>
-  </si>
-  <si>
-    <t>SMD2012-2P</t>
-  </si>
-  <si>
-    <t>32.768 MHz</t>
-  </si>
-  <si>
-    <t>X201232768KJD2SI</t>
-  </si>
-  <si>
-    <t>C383843</t>
-  </si>
-  <si>
-    <t>$0.3472</t>
-  </si>
-  <si>
-    <t>0402WGF2201TCE</t>
-  </si>
-  <si>
-    <t>C25879</t>
-  </si>
-  <si>
-    <t>CQ02WGF1501TCE</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>62,5mW Thick Film Resistors ±1% 2.2kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 1.5kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>C2759802</t>
-  </si>
-  <si>
-    <t>$0.0013</t>
-  </si>
-  <si>
-    <t>UM803RS</t>
-  </si>
-  <si>
-    <t>C620009</t>
-  </si>
-  <si>
-    <t>$0.2594</t>
-  </si>
-  <si>
-    <t>Union Semiconductor</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>SOT-23-3 Monitors &amp; Reset Circuits </t>
-  </si>
-  <si>
-    <t>UM805RE</t>
-  </si>
-  <si>
-    <t>C620010</t>
-  </si>
-  <si>
-    <t>$0.2633</t>
-  </si>
-  <si>
-    <t>SOT-143-4</t>
-  </si>
-  <si>
-    <t>SOT-143-4 Monitors &amp; Reset Circuits</t>
-  </si>
-  <si>
-    <t>RB521S30_R1_00001</t>
-  </si>
-  <si>
-    <t>30V 500mV@200mA 200mA SOD-523 Schottky Barrier Diodes</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-  </si>
-  <si>
-    <t>PANJIT International</t>
-  </si>
-  <si>
-    <t>$0.0195</t>
-  </si>
-  <si>
-    <t>C391666</t>
-  </si>
-  <si>
-    <t>MECHANICALS</t>
-  </si>
-  <si>
-    <t>SOFNG</t>
-  </si>
-  <si>
-    <t>TF-15x15</t>
-  </si>
-  <si>
-    <t>C111196</t>
-  </si>
-  <si>
-    <t>$0.1986</t>
-  </si>
-  <si>
-    <t>Deck MicroSD card (TF card) Self bomb SMD SD Card Connectors</t>
-  </si>
-  <si>
-    <t>IRLML6401</t>
-  </si>
-  <si>
-    <t>C347501</t>
-  </si>
-  <si>
-    <t>UMW(Youtai Semiconductor Co., Ltd.)</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>12V 4.3A 50mΩ@4.5V,4.3A 1.3W P Channel SOT-23 MOSFETs</t>
-  </si>
-  <si>
-    <t>$0.0551</t>
-  </si>
-  <si>
-    <t>WM8978CGEFL/RV</t>
-  </si>
-  <si>
-    <t>C323850</t>
-  </si>
-  <si>
-    <t>Cirrus Logic</t>
-  </si>
-  <si>
-    <t>WQFN-32-EP(5x5)</t>
-  </si>
-  <si>
-    <t>$5.2422</t>
-  </si>
-  <si>
-    <t>WQFN-32-EP(5x5) Audio Interface ICs ROHS</t>
-  </si>
-  <si>
-    <t>MLG1005S10NHT000</t>
-  </si>
-  <si>
-    <t>$0.0101</t>
-  </si>
-  <si>
-    <t>C76760</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>10nH</t>
-  </si>
-  <si>
-    <t>500mA 10nH ±3% 220mΩ 0402 Inductors</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>0603WAF2200T5E</t>
-  </si>
-  <si>
-    <t>543484</t>
-  </si>
-  <si>
-    <t>C22962</t>
-  </si>
-  <si>
-    <t>100mW Thick Film Resistors ±1% 220Ω 0603 Chip Resistor</t>
-  </si>
-  <si>
-    <t>TPS79333DBVR</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>200mA 70dB@(100Hz),43dB@(100kHz) Fixed 3.3V~3.3V</t>
-  </si>
-  <si>
-    <t>C9840</t>
-  </si>
-  <si>
-    <t>$0.1364</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>520mA 68uH ±20% SMD Power Inductors</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>68uH</t>
-  </si>
-  <si>
-    <t>microgate</t>
-  </si>
-  <si>
-    <t>MPIT4030-680M-LF</t>
-  </si>
-  <si>
-    <t>C281305</t>
-  </si>
-  <si>
-    <t>$0.081</t>
-  </si>
-  <si>
-    <t>TLV62569DBVR</t>
-  </si>
-  <si>
-    <t>C141836</t>
-  </si>
-  <si>
-    <t>$0.0942</t>
-  </si>
-  <si>
-    <t>19-218_BHC-ZL1M2QY_3T</t>
-  </si>
-  <si>
-    <t>C264488</t>
-  </si>
-  <si>
-    <t>Everlight Elec</t>
-  </si>
-  <si>
-    <t>$0.064</t>
-  </si>
-  <si>
-    <t>blue 0603 Light Emitting Diodes</t>
+    <t>SMD3225-4P</t>
+  </si>
+  <si>
+    <t>SMD3225-4P Crystals</t>
   </si>
 </sst>
 </file>
@@ -881,7 +878,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -916,12 +913,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1000,55 +991,55 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1063,15 +1054,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1080,70 +1071,58 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1155,19 +1134,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1390,8 +1383,8 @@
   </sheetPr>
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1414,22 +1407,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1492,22 +1485,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1564,33 +1557,33 @@
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A5" s="22"/>
       <c r="B5" s="31" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>25</v>
@@ -1608,29 +1601,29 @@
     <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="28">
@@ -1652,7 +1645,7 @@
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>17</v>
@@ -1665,13 +1658,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>23</v>
@@ -1958,22 +1951,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2424,22 +2417,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2452,29 +2445,29 @@
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A26" s="48"/>
       <c r="B26" s="71" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="50">
@@ -2581,67 +2574,67 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" s="88" customFormat="1" ht="13">
-      <c r="A29" s="84"/>
+    <row r="29" spans="1:22" s="85" customFormat="1" ht="13">
+      <c r="A29" s="81"/>
       <c r="B29" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81" t="s">
+        <v>244</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="H29" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="J29" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="84"/>
+        <v>246</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" s="81"/>
       <c r="L29" s="33">
         <v>965</v>
       </c>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="84"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
     </row>
     <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2696,22 +2689,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2768,27 +2761,27 @@
     <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A34" s="61"/>
       <c r="B34" s="31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
       <c r="F34" s="31" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H34" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J34" s="64" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K34" s="65"/>
       <c r="L34" s="33">
@@ -2898,27 +2891,27 @@
     <row r="37" spans="1:22" ht="13">
       <c r="A37" s="38"/>
       <c r="B37" s="71" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37" s="71" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K37" s="73"/>
       <c r="L37" s="74">
@@ -2940,27 +2933,27 @@
     <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A38" s="22"/>
       <c r="B38" s="31" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="31" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J38" s="64" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K38" s="70"/>
       <c r="L38" s="33">
@@ -2980,22 +2973,22 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3005,52 +2998,52 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="101" customFormat="1" ht="13">
-      <c r="A40" s="94"/>
+    <row r="40" spans="1:22" s="95" customFormat="1" ht="13">
+      <c r="A40" s="88"/>
       <c r="B40" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
       <c r="F40" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H40" s="77" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J40" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="98"/>
+        <v>249</v>
+      </c>
+      <c r="J40" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" s="92"/>
       <c r="L40" s="28">
         <v>41649</v>
       </c>
-      <c r="M40" s="99" t="s">
+      <c r="M40" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="94"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
     </row>
     <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A41" s="22"/>
       <c r="B41" s="31" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C41" s="75" t="s">
         <v>172</v>
@@ -3058,23 +3051,23 @@
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G41" s="76" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H41" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J41" s="64" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K41" s="70"/>
       <c r="L41" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>60</v>
@@ -3092,27 +3085,27 @@
     <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
       <c r="A42" s="17"/>
       <c r="B42" s="26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="26" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H42" s="77" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K42" s="78"/>
       <c r="L42" s="28">
@@ -3134,27 +3127,27 @@
     <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A43" s="22"/>
       <c r="B43" s="31" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="31" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H43" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J43" s="64" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K43" s="70"/>
       <c r="L43" s="33">
@@ -3173,65 +3166,65 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" spans="1:22" s="101" customFormat="1" ht="13">
-      <c r="A44" s="94"/>
-      <c r="B44" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="C44" s="96" t="s">
+    <row r="44" spans="1:22" s="95" customFormat="1" ht="13">
+      <c r="A44" s="88"/>
+      <c r="B44" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95" t="s">
-        <v>261</v>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89" t="s">
+        <v>253</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H44" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="J44" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="95">
+      <c r="I44" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="J44" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="92"/>
+      <c r="L44" s="89">
         <v>2849</v>
       </c>
-      <c r="M44" s="99" t="s">
+      <c r="M44" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="N44" s="94"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
     </row>
     <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3241,81 +3234,79 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="38"/>
-      <c r="B46" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="38" t="s">
+    <row r="46" spans="1:22" s="95" customFormat="1" ht="13">
+      <c r="A46" s="88"/>
+      <c r="B46" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="88"/>
+      <c r="F46" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="K46" s="73"/>
-      <c r="L46" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="M46" s="39" t="s">
+      <c r="I46" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="92"/>
+      <c r="L46" s="100">
+        <v>2955</v>
+      </c>
+      <c r="M46" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="N46" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
     </row>
     <row r="47" spans="1:22" ht="13">
       <c r="A47" s="43"/>
       <c r="B47" s="44" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H47" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J47" s="46" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K47" s="43"/>
-      <c r="L47" s="82">
+      <c r="L47" s="79">
         <v>2019</v>
       </c>
       <c r="M47" s="45" t="s">
@@ -3331,22 +3322,22 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:22" ht="13">
-      <c r="A48" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
+      <c r="A48" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3357,36 +3348,36 @@
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A49" s="83"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
+        <v>211</v>
+      </c>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="71" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="71" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="K49" s="83"/>
+        <v>210</v>
+      </c>
+      <c r="K49" s="80"/>
       <c r="L49" s="74">
         <v>4957</v>
       </c>
       <c r="M49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="83"/>
+      <c r="N49" s="80"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782EF75-992C-4D6A-8926-CA86C44921AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B2F66-E425-4C73-8FBE-4682D36B09F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="265">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -140,21 +140,6 @@
   </si>
   <si>
     <t>857122</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 33kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>33k</t>
-  </si>
-  <si>
-    <t>0402WGF3302TCE</t>
-  </si>
-  <si>
-    <t>C25779</t>
-  </si>
-  <si>
-    <t>539252</t>
   </si>
   <si>
     <t>62.5mW Thick Film Resistors ±1% 100kΩ 0402 Chip Resistor</t>
@@ -545,27 +530,9 @@
     <t>CRYSTALS</t>
   </si>
   <si>
-    <t>Yangxing Tech</t>
-  </si>
-  <si>
-    <t>32.768kHz 7pF ±20ppm SMD2012-2P Crystals</t>
-  </si>
-  <si>
-    <t>SMD2012-2P</t>
-  </si>
-  <si>
     <t>32.768 MHz</t>
   </si>
   <si>
-    <t>X201232768KJD2SI</t>
-  </si>
-  <si>
-    <t>C383843</t>
-  </si>
-  <si>
-    <t>$0.3472</t>
-  </si>
-  <si>
     <t>0402WGF2201TCE</t>
   </si>
   <si>
@@ -810,6 +777,45 @@
   </si>
   <si>
     <t>SMD3225-4P Crystals</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>62.5mW Thick Film Resistors ±1% 30kΩ 0402 Chip Resistor</t>
+  </si>
+  <si>
+    <t>AF0402FR-0730KL</t>
+  </si>
+  <si>
+    <t>C144036</t>
+  </si>
+  <si>
+    <t>$0.004</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>Q13FC1350000200</t>
+  </si>
+  <si>
+    <t>SMD3215-2P</t>
+  </si>
+  <si>
+    <t>Seiko Epson</t>
+  </si>
+  <si>
+    <t>C48615</t>
+  </si>
+  <si>
+    <t>$0.2144</t>
+  </si>
+  <si>
+    <t>32.768kHz 7pF ±20ppm SMD3215-2P Crystals</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -875,6 +881,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Posterama"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -985,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1097,9 +1109,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1125,13 +1134,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,18 +1152,16 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1383,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1407,22 +1408,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1485,22 +1486,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1557,33 +1558,33 @@
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A5" s="22"/>
       <c r="B5" s="31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>25</v>
@@ -1601,36 +1602,36 @@
     <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="28">
         <v>4500</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="5"/>
@@ -1645,7 +1646,7 @@
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>17</v>
@@ -1658,13 +1659,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>23</v>
@@ -1777,36 +1778,36 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="21" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="5"/>
@@ -1821,33 +1822,33 @@
     <row r="11" spans="1:22" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>25</v>
@@ -1865,33 +1866,33 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>25</v>
@@ -1909,36 +1910,36 @@
     <row r="13" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A13" s="29"/>
       <c r="B13" s="34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N13" s="29"/>
       <c r="O13" s="13"/>
@@ -1951,22 +1952,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
+      <c r="A14" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1979,36 +1980,36 @@
     <row r="15" spans="1:22" ht="13">
       <c r="A15" s="38"/>
       <c r="B15" s="38" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="2"/>
@@ -2023,36 +2024,36 @@
     <row r="16" spans="1:22" ht="13">
       <c r="A16" s="43"/>
       <c r="B16" s="44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E16" s="43"/>
       <c r="F16" s="44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N16" s="43"/>
       <c r="O16" s="2"/>
@@ -2067,33 +2068,33 @@
     <row r="17" spans="1:22" ht="13">
       <c r="A17" s="38"/>
       <c r="B17" s="38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M17" s="39" t="s">
         <v>25</v>
@@ -2111,33 +2112,33 @@
     <row r="18" spans="1:22" ht="13">
       <c r="A18" s="43"/>
       <c r="B18" s="43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M18" s="45" t="s">
         <v>25</v>
@@ -2155,33 +2156,33 @@
     <row r="19" spans="1:22" ht="13">
       <c r="A19" s="38"/>
       <c r="B19" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M19" s="39" t="s">
         <v>25</v>
@@ -2199,33 +2200,33 @@
     <row r="20" spans="1:22" ht="13">
       <c r="A20" s="43"/>
       <c r="B20" s="44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K20" s="43"/>
       <c r="L20" s="47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M20" s="45" t="s">
         <v>25</v>
@@ -2243,33 +2244,33 @@
     <row r="21" spans="1:22" ht="13">
       <c r="A21" s="38"/>
       <c r="B21" s="40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M21" s="39" t="s">
         <v>25</v>
@@ -2287,33 +2288,33 @@
     <row r="22" spans="1:22" ht="13">
       <c r="A22" s="43"/>
       <c r="B22" s="44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M22" s="45" t="s">
         <v>25</v>
@@ -2331,33 +2332,33 @@
     <row r="23" spans="1:22" ht="13">
       <c r="A23" s="38"/>
       <c r="B23" s="40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M23" s="39" t="s">
         <v>25</v>
@@ -2375,33 +2376,33 @@
     <row r="24" spans="1:22" ht="13">
       <c r="A24" s="43"/>
       <c r="B24" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K24" s="43"/>
       <c r="L24" s="47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M24" s="45" t="s">
         <v>25</v>
@@ -2417,22 +2418,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
+      <c r="A25" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2445,36 +2446,36 @@
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A26" s="48"/>
       <c r="B26" s="71" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="50">
         <v>20488</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N26" s="48"/>
       <c r="O26" s="5"/>
@@ -2489,36 +2490,36 @@
     <row r="27" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A27" s="22"/>
       <c r="B27" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="7"/>
@@ -2533,36 +2534,36 @@
     <row r="28" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A28" s="51"/>
       <c r="B28" s="52" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H28" s="51" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K28" s="51"/>
       <c r="L28" s="53" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N28" s="51"/>
       <c r="O28" s="5"/>
@@ -2574,67 +2575,67 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" s="85" customFormat="1" ht="13">
-      <c r="A29" s="81"/>
+    <row r="29" spans="1:22" s="84" customFormat="1" ht="13">
+      <c r="A29" s="80"/>
       <c r="B29" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80" t="s">
+        <v>233</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="80" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="J29" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="K29" s="81"/>
+        <v>235</v>
+      </c>
+      <c r="J29" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="80"/>
       <c r="L29" s="33">
         <v>965</v>
       </c>
-      <c r="M29" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
+      <c r="M29" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="80"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
     </row>
     <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
+      <c r="A30" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2647,36 +2648,36 @@
     <row r="31" spans="1:22" ht="13">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="2"/>
@@ -2689,22 +2690,22 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
+      <c r="A32" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2717,37 +2718,37 @@
     <row r="33" spans="1:22" ht="13">
       <c r="A33" s="55"/>
       <c r="B33" s="56" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="58"/>
       <c r="F33" s="40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H33" s="58" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N33" s="58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2761,34 +2762,34 @@
     <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A34" s="61"/>
       <c r="B34" s="31" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="63"/>
       <c r="F34" s="31" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H34" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J34" s="64" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K34" s="65"/>
       <c r="L34" s="33">
         <v>1266</v>
       </c>
       <c r="M34" s="66" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N34" s="63"/>
       <c r="O34" s="7"/>
@@ -2803,36 +2804,36 @@
     <row r="35" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A35" s="51"/>
       <c r="B35" s="67" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H35" s="51" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J35" s="67" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K35" s="69"/>
       <c r="L35" s="53">
         <v>280</v>
       </c>
       <c r="M35" s="49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N35" s="51"/>
       <c r="O35" s="9"/>
@@ -2847,36 +2848,36 @@
     <row r="36" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A36" s="22"/>
       <c r="B36" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K36" s="70"/>
       <c r="L36" s="23">
         <v>2304</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="11"/>
@@ -2891,34 +2892,34 @@
     <row r="37" spans="1:22" ht="13">
       <c r="A37" s="38"/>
       <c r="B37" s="71" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37" s="71" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K37" s="73"/>
       <c r="L37" s="74">
         <v>5850</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N37" s="38"/>
       <c r="O37" s="3"/>
@@ -2933,34 +2934,34 @@
     <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A38" s="22"/>
       <c r="B38" s="31" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="31" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J38" s="64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K38" s="70"/>
       <c r="L38" s="33">
         <v>4376</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="12"/>
@@ -2973,22 +2974,22 @@
       <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
+      <c r="A39" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2998,79 +2999,79 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" s="95" customFormat="1" ht="13">
-      <c r="A40" s="88"/>
+    <row r="40" spans="1:22" s="92" customFormat="1" ht="13">
+      <c r="A40" s="87"/>
       <c r="B40" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
+        <v>166</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="28" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H40" s="77" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="J40" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="K40" s="92"/>
+        <v>238</v>
+      </c>
+      <c r="J40" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" s="89"/>
       <c r="L40" s="28">
         <v>41649</v>
       </c>
-      <c r="M40" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="N40" s="88"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="94"/>
+      <c r="M40" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="87"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
     </row>
     <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A41" s="22"/>
       <c r="B41" s="31" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="31" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G41" s="76" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H41" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J41" s="64" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K41" s="70"/>
       <c r="L41" s="23" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="7"/>
@@ -3085,34 +3086,34 @@
     <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
       <c r="A42" s="17"/>
       <c r="B42" s="26" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="26" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G42" s="77" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H42" s="77" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K42" s="78"/>
       <c r="L42" s="28">
         <v>392</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="5"/>
@@ -3127,34 +3128,34 @@
     <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A43" s="22"/>
       <c r="B43" s="31" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="31" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H43" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J43" s="64" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K43" s="70"/>
       <c r="L43" s="33">
         <v>41306</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="7"/>
@@ -3166,65 +3167,65 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" spans="1:22" s="95" customFormat="1" ht="13">
-      <c r="A44" s="88"/>
-      <c r="B44" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="90" t="s">
+    <row r="44" spans="1:22" s="92" customFormat="1" ht="13">
+      <c r="A44" s="87"/>
+      <c r="B44" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89" t="s">
-        <v>253</v>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="74" t="s">
+        <v>242</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H44" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="89" t="s">
-        <v>252</v>
-      </c>
-      <c r="J44" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="89">
+      <c r="I44" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="J44" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" s="89"/>
+      <c r="L44" s="74">
         <v>2849</v>
       </c>
-      <c r="M44" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="N44" s="88"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
+      <c r="M44" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="87"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
     </row>
     <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
+      <c r="A45" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3234,85 +3235,85 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" s="95" customFormat="1" ht="13">
-      <c r="A46" s="88"/>
-      <c r="B46" s="100" t="s">
+    <row r="46" spans="1:22" s="92" customFormat="1" ht="13">
+      <c r="A46" s="87"/>
+      <c r="B46" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="87"/>
+      <c r="F46" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="K46" s="89"/>
+      <c r="L46" s="28">
+        <v>2955</v>
+      </c>
+      <c r="M46" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="87"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+    </row>
+    <row r="47" spans="1:22" ht="14.5">
+      <c r="A47" s="80"/>
+      <c r="B47" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="G46" s="101" t="s">
-        <v>256</v>
-      </c>
-      <c r="H46" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="J46" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="K46" s="92"/>
-      <c r="L46" s="100">
-        <v>2955</v>
-      </c>
-      <c r="M46" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="N46" s="88"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-    </row>
-    <row r="47" spans="1:22" ht="13">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="79">
-        <v>2019</v>
-      </c>
-      <c r="M47" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="N47" s="43"/>
+      <c r="J47" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="K47" s="80"/>
+      <c r="L47" s="33">
+        <v>1441</v>
+      </c>
+      <c r="M47" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="80"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3322,22 +3323,22 @@
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:22" ht="13">
-      <c r="A48" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
+      <c r="A48" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3348,36 +3349,36 @@
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A49" s="80"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
+        <v>200</v>
+      </c>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="71" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G49" s="71" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="71" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="K49" s="80"/>
+        <v>199</v>
+      </c>
+      <c r="K49" s="79"/>
       <c r="L49" s="74">
         <v>4957</v>
       </c>
       <c r="M49" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="N49" s="80"/>
+        <v>55</v>
+      </c>
+      <c r="N49" s="79"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B2F66-E425-4C73-8FBE-4682D36B09F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1AEA2-E32E-4E08-8CA0-5DC543342F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="244">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -383,51 +383,6 @@
     <t>INDUCTORS</t>
   </si>
   <si>
-    <t>Inductor - 1.8A - ±20% - 80mΩ</t>
-  </si>
-  <si>
-    <t>SMD 3.5x3x2.1mm</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>YJYCOIN</t>
-  </si>
-  <si>
-    <t>CD32YP0302-2R2M</t>
-  </si>
-  <si>
-    <t>C492258</t>
-  </si>
-  <si>
-    <t>$0.0345</t>
-  </si>
-  <si>
-    <t>4599</t>
-  </si>
-  <si>
-    <t>Inductor - 1.5A - ±20% - 170mΩ</t>
-  </si>
-  <si>
-    <t>SMD,3.5x3x2.1mm</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>CD32YP0302-4R7M</t>
-  </si>
-  <si>
-    <t>C492259</t>
-  </si>
-  <si>
-    <t>$0.0366</t>
-  </si>
-  <si>
-    <t>9628</t>
-  </si>
-  <si>
     <t>FERRITE BEAD</t>
   </si>
   <si>
@@ -713,27 +668,6 @@
     <t>2988</t>
   </si>
   <si>
-    <t>520mA 68uH ±20% SMD Power Inductors</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>68uH</t>
-  </si>
-  <si>
-    <t>microgate</t>
-  </si>
-  <si>
-    <t>MPIT4030-680M-LF</t>
-  </si>
-  <si>
-    <t>C281305</t>
-  </si>
-  <si>
-    <t>$0.081</t>
-  </si>
-  <si>
     <t>TLV62569DBVR</t>
   </si>
   <si>
@@ -816,6 +750,9 @@
   </si>
   <si>
     <t>32.768kHz 7pF ±20ppm SMD3215-2P Crystals</t>
+  </si>
+  <si>
+    <t>LQM21PN4R7MGRD</t>
   </si>
 </sst>
 </file>
@@ -997,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1074,9 +1011,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1113,16 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,13 +1080,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1382,10 +1307,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V955"/>
+  <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1408,22 +1333,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1486,22 +1411,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1558,33 +1483,33 @@
     <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A5" s="22"/>
       <c r="B5" s="31" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="63" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="25" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>25</v>
@@ -1602,29 +1527,29 @@
     <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="28">
@@ -1646,7 +1571,7 @@
     <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
       <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>17</v>
@@ -1659,13 +1584,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>23</v>
@@ -1778,33 +1703,33 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="21" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>55</v>
@@ -1952,22 +1877,22 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2418,22 +2343,22 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2445,30 +2370,30 @@
     </row>
     <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
       <c r="A26" s="48"/>
-      <c r="B26" s="71" t="s">
-        <v>218</v>
+      <c r="B26" s="70" t="s">
+        <v>203</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="J26" s="72" t="s">
-        <v>214</v>
+      <c r="I26" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" s="71" t="s">
+        <v>199</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="50">
@@ -2487,155 +2412,119 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A27" s="48"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" ht="13">
+      <c r="A28" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" ht="13">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="C29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G29" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I29" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J29" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23" t="s">
+      <c r="K29" s="38"/>
+      <c r="L29" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M29" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
+      <c r="N29" s="38"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" ht="13">
+      <c r="A30" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="M28" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" s="84" customFormat="1" ht="13">
-      <c r="A29" s="80"/>
-      <c r="B29" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="J29" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="33">
-        <v>965</v>
-      </c>
-      <c r="M29" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="80"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-    </row>
-    <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2646,40 +2535,40 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22" ht="13">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="38"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2689,386 +2578,400 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="13">
-      <c r="A32" s="95" t="s">
+    <row r="32" spans="1:22" s="10" customFormat="1" ht="13">
+      <c r="A32" s="60"/>
+      <c r="B32" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="33">
+        <v>1266</v>
+      </c>
+      <c r="M32" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="62"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A33" s="51"/>
+      <c r="B33" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:22" ht="13">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56" t="s">
+      <c r="K33" s="68"/>
+      <c r="L33" s="53">
+        <v>280</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C34" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="40" t="s">
+      <c r="D34" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H34" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I34" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="M33" s="60" t="s">
+      <c r="K34" s="69"/>
+      <c r="L34" s="23">
+        <v>2304</v>
+      </c>
+      <c r="M34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A34" s="61"/>
-      <c r="B34" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" s="63" t="s">
+      <c r="N34" s="22"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="1:22" ht="13">
+      <c r="A35" s="38"/>
+      <c r="B35" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J34" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="33">
-        <v>1266</v>
-      </c>
-      <c r="M34" s="66" t="s">
+      <c r="I35" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73">
+        <v>5850</v>
+      </c>
+      <c r="M35" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="63"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-    </row>
-    <row r="35" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A35" s="51"/>
-      <c r="B35" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="53">
-        <v>280</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="N35" s="38"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="B36" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="22"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
-        <v>155</v>
+      <c r="F36" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="K36" s="70"/>
-      <c r="L36" s="23">
-        <v>2304</v>
+      <c r="I36" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="69"/>
+      <c r="L36" s="33">
+        <v>4376</v>
       </c>
       <c r="M36" s="23" t="s">
         <v>55</v>
       </c>
       <c r="N36" s="22"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" ht="13">
-      <c r="A37" s="38"/>
-      <c r="B37" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="38" t="s">
+      <c r="A37" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" s="88" customFormat="1" ht="13">
+      <c r="A38" s="83"/>
+      <c r="B38" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="85"/>
+      <c r="L38" s="28">
+        <v>41649</v>
+      </c>
+      <c r="M38" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="83"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+    </row>
+    <row r="39" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="A39" s="22"/>
+      <c r="B39" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="69"/>
+      <c r="L39" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="1:22" s="14" customFormat="1" ht="13">
+      <c r="A40" s="17"/>
+      <c r="B40" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H37" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="74">
-        <v>5850</v>
-      </c>
-      <c r="M37" s="39" t="s">
+      <c r="K40" s="77"/>
+      <c r="L40" s="28">
+        <v>392</v>
+      </c>
+      <c r="M40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A38" s="22"/>
-      <c r="B38" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="K38" s="70"/>
-      <c r="L38" s="33">
-        <v>4376</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-    </row>
-    <row r="39" spans="1:22" ht="13">
-      <c r="A39" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-    </row>
-    <row r="40" spans="1:22" s="92" customFormat="1" ht="13">
-      <c r="A40" s="87"/>
-      <c r="B40" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="J40" s="93" t="s">
-        <v>239</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="28">
-        <v>41649</v>
-      </c>
-      <c r="M40" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="87"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-    </row>
-    <row r="41" spans="1:22" s="8" customFormat="1" ht="13">
+      <c r="N40" s="17"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" s="10" customFormat="1" ht="13">
       <c r="A41" s="22"/>
       <c r="B41" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>167</v>
+        <v>190</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="75" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="J41" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="K41" s="70"/>
-      <c r="L41" s="23" t="s">
-        <v>229</v>
+        <v>187</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" s="69"/>
+      <c r="L41" s="33">
+        <v>41306</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>55</v>
@@ -3083,149 +2986,153 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
     </row>
-    <row r="42" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A42" s="17"/>
-      <c r="B42" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="H42" s="77" t="s">
+    <row r="42" spans="1:22" s="88" customFormat="1" ht="13">
+      <c r="A42" s="83"/>
+      <c r="B42" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="78"/>
-      <c r="L42" s="28">
-        <v>392</v>
-      </c>
-      <c r="M42" s="19" t="s">
+      <c r="I42" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" s="85"/>
+      <c r="L42" s="73">
+        <v>2849</v>
+      </c>
+      <c r="M42" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A43" s="22"/>
-      <c r="B43" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="76" t="s">
+      <c r="N42" s="83"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+    </row>
+    <row r="43" spans="1:22" ht="13">
+      <c r="A43" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" s="88" customFormat="1" ht="13">
+      <c r="A44" s="83"/>
+      <c r="B44" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="83"/>
+      <c r="F44" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="33">
-        <v>41306</v>
-      </c>
-      <c r="M43" s="23" t="s">
+      <c r="I44" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" s="85"/>
+      <c r="L44" s="28">
+        <v>2955</v>
+      </c>
+      <c r="M44" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-    </row>
-    <row r="44" spans="1:22" s="92" customFormat="1" ht="13">
-      <c r="A44" s="87"/>
-      <c r="B44" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="74" t="s">
+      <c r="N44" s="83"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+    </row>
+    <row r="45" spans="1:22" ht="14.5">
+      <c r="A45" s="79"/>
+      <c r="B45" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="C45" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="79"/>
+      <c r="F45" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="H44" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="74" t="s">
+      <c r="J45" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="J44" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="74">
-        <v>2849</v>
-      </c>
-      <c r="M44" s="90" t="s">
+      <c r="K45" s="79"/>
+      <c r="L45" s="33">
+        <v>1441</v>
+      </c>
+      <c r="M45" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="N44" s="87"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-    </row>
-    <row r="45" spans="1:22" ht="13">
-      <c r="A45" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="N45" s="79"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3233,152 +3140,112 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" s="92" customFormat="1" ht="13">
-      <c r="A46" s="87"/>
-      <c r="B46" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="87" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="13">
+      <c r="A46" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" s="4" customFormat="1" ht="13">
+      <c r="A47" s="78"/>
+      <c r="B47" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="K46" s="89"/>
-      <c r="L46" s="28">
-        <v>2955</v>
-      </c>
-      <c r="M46" s="90" t="s">
+      <c r="I47" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="K47" s="78"/>
+      <c r="L47" s="73">
+        <v>4957</v>
+      </c>
+      <c r="M47" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="N46" s="87"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-    </row>
-    <row r="47" spans="1:22" ht="14.5">
-      <c r="A47" s="80"/>
-      <c r="B47" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="H47" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="J47" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="K47" s="80"/>
-      <c r="L47" s="33">
-        <v>1441</v>
-      </c>
-      <c r="M47" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="N47" s="80"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="1:22" ht="13">
-      <c r="A48" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-    </row>
-    <row r="49" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A49" s="79"/>
-      <c r="B49" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="K49" s="79"/>
-      <c r="L49" s="74">
-        <v>4957</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="79"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" ht="12.5" hidden="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" ht="12.5" hidden="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -25060,66 +24927,21 @@
       <c r="U952" s="1"/>
       <c r="V952" s="1"/>
     </row>
-    <row r="953" spans="1:22" ht="12.5" hidden="1">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
-      <c r="E953" s="1"/>
-      <c r="F953" s="1"/>
-      <c r="G953" s="1"/>
-      <c r="H953" s="1"/>
-      <c r="I953" s="1"/>
-      <c r="J953" s="1"/>
-      <c r="K953" s="1"/>
-      <c r="L953" s="1"/>
-      <c r="M953" s="1"/>
-      <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
-      <c r="P953" s="1"/>
-      <c r="Q953" s="1"/>
-      <c r="R953" s="1"/>
-      <c r="S953" s="1"/>
-      <c r="T953" s="1"/>
-      <c r="U953" s="1"/>
-      <c r="V953" s="1"/>
-    </row>
-    <row r="954" spans="1:22" ht="12.5" hidden="1">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
-      <c r="I954" s="1"/>
-      <c r="J954" s="1"/>
-      <c r="K954" s="1"/>
-      <c r="L954" s="1"/>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-    </row>
+    <row r="953" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="954" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="955" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="956" spans="1:22" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A46:N46"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1AEA2-E32E-4E08-8CA0-5DC543342F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F07ED-8B39-4934-ABFA-9B615E017814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -70,43 +70,22 @@
     <t>RESISTORS</t>
   </si>
   <si>
-    <t>62.5mW Thick Film Resistors ±1% 0Ω 0402 Chip Resistor</t>
-  </si>
-  <si>
     <t>0402</t>
-  </si>
-  <si>
-    <t>0R</t>
   </si>
   <si>
     <t>UNI-ROYAL</t>
   </si>
   <si>
-    <t>0402WGF0000TCE</t>
-  </si>
-  <si>
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>C17168</t>
-  </si>
-  <si>
     <t>$0.0005</t>
-  </si>
-  <si>
-    <t>2278141</t>
   </si>
   <si>
     <t>Basic</t>
   </si>
   <si>
     <t>0603</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>$0.001</t>
   </si>
   <si>
     <t>62.5mW Thick Film Resistors ±1% 10kΩ 0402 Chip Resistor</t>
@@ -125,51 +104,6 @@
   </si>
   <si>
     <t>7272300</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 22kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>0402WGF2202TCE</t>
-  </si>
-  <si>
-    <t>C25768</t>
-  </si>
-  <si>
-    <t>857122</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 100kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>0402WGF1003TCE</t>
-  </si>
-  <si>
-    <t>C25741</t>
-  </si>
-  <si>
-    <t>1481561</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 200kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>0402WGF2003TCE</t>
-  </si>
-  <si>
-    <t>C25764</t>
-  </si>
-  <si>
-    <t>508564</t>
   </si>
   <si>
     <t>62.5mW Thick Film Resistors ±5%2,2MΩ 0402 Chip Resistor</t>
@@ -232,44 +166,7 @@
     <t>6768</t>
   </si>
   <si>
-    <t xml:space="preserve">
-50V 22pF C0G ±5% 0402 Multilayer Ceramic Capacitors MLCC</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>FH (Guangdong Fenghua Advanced Tech)</t>
-  </si>
-  <si>
-    <t>0402CG220J500NT</t>
-  </si>
-  <si>
-    <t>C1555</t>
-  </si>
-  <si>
-    <t>459384</t>
-  </si>
-  <si>
-    <t>50V 10nF X7R ±10% 0402 Multilayer Ceramic Capacitors MLCC</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
     <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
-    <t>CL05B103KB5NNNC</t>
-  </si>
-  <si>
-    <t>C15195</t>
-  </si>
-  <si>
-    <t>$0.0012</t>
-  </si>
-  <si>
-    <t>405358</t>
   </si>
   <si>
     <t>50V 100nF X7R ±10% 0402 Multilayer Ceramic Capacitors MLCC</t>
@@ -360,24 +257,6 @@
   </si>
   <si>
     <t>1119998</t>
-  </si>
-  <si>
-    <t>6.3V 22uF X5R ±20% 0603 Multilayer Ceramic Capacitors MLCC</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>CL10A226MQ8NRNC</t>
-  </si>
-  <si>
-    <t>C59461</t>
-  </si>
-  <si>
-    <t>$0.0087</t>
-  </si>
-  <si>
-    <t>1816692</t>
   </si>
   <si>
     <t>INDUCTORS</t>
@@ -473,94 +352,10 @@
     <t>$1.0281</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>Step-down DC-DC Converters</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
     <t>CRYSTALS</t>
   </si>
   <si>
     <t>32.768 MHz</t>
-  </si>
-  <si>
-    <t>0402WGF2201TCE</t>
-  </si>
-  <si>
-    <t>C25879</t>
-  </si>
-  <si>
-    <t>CQ02WGF1501TCE</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
-    <t>62,5mW Thick Film Resistors ±1% 2.2kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>62.5mW Thick Film Resistors ±1% 1.5kΩ 0402 Chip Resistor</t>
-  </si>
-  <si>
-    <t>C2759802</t>
-  </si>
-  <si>
-    <t>$0.0013</t>
-  </si>
-  <si>
-    <t>UM803RS</t>
-  </si>
-  <si>
-    <t>C620009</t>
-  </si>
-  <si>
-    <t>$0.2594</t>
-  </si>
-  <si>
-    <t>Union Semiconductor</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>SOT-23-3 Monitors &amp; Reset Circuits </t>
-  </si>
-  <si>
-    <t>UM805RE</t>
-  </si>
-  <si>
-    <t>C620010</t>
-  </si>
-  <si>
-    <t>$0.2633</t>
-  </si>
-  <si>
-    <t>SOT-143-4</t>
-  </si>
-  <si>
-    <t>SOT-143-4 Monitors &amp; Reset Circuits</t>
-  </si>
-  <si>
-    <t>RB521S30_R1_00001</t>
-  </si>
-  <si>
-    <t>30V 500mV@200mA 200mA SOD-523 Schottky Barrier Diodes</t>
-  </si>
-  <si>
-    <t>SOD-523</t>
-  </si>
-  <si>
-    <t>PANJIT International</t>
-  </si>
-  <si>
-    <t>$0.0195</t>
-  </si>
-  <si>
-    <t>C391666</t>
   </si>
   <si>
     <t>MECHANICALS</t>
@@ -579,117 +374,6 @@
   </si>
   <si>
     <t>Deck MicroSD card (TF card) Self bomb SMD SD Card Connectors</t>
-  </si>
-  <si>
-    <t>IRLML6401</t>
-  </si>
-  <si>
-    <t>C347501</t>
-  </si>
-  <si>
-    <t>UMW(Youtai Semiconductor Co., Ltd.)</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>12V 4.3A 50mΩ@4.5V,4.3A 1.3W P Channel SOT-23 MOSFETs</t>
-  </si>
-  <si>
-    <t>$0.0551</t>
-  </si>
-  <si>
-    <t>WM8978CGEFL/RV</t>
-  </si>
-  <si>
-    <t>C323850</t>
-  </si>
-  <si>
-    <t>Cirrus Logic</t>
-  </si>
-  <si>
-    <t>WQFN-32-EP(5x5)</t>
-  </si>
-  <si>
-    <t>$5.2422</t>
-  </si>
-  <si>
-    <t>WQFN-32-EP(5x5) Audio Interface ICs ROHS</t>
-  </si>
-  <si>
-    <t>MLG1005S10NHT000</t>
-  </si>
-  <si>
-    <t>$0.0101</t>
-  </si>
-  <si>
-    <t>C76760</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>10nH</t>
-  </si>
-  <si>
-    <t>500mA 10nH ±3% 220mΩ 0402 Inductors</t>
-  </si>
-  <si>
-    <t>220R</t>
-  </si>
-  <si>
-    <t>0603WAF2200T5E</t>
-  </si>
-  <si>
-    <t>543484</t>
-  </si>
-  <si>
-    <t>C22962</t>
-  </si>
-  <si>
-    <t>100mW Thick Film Resistors ±1% 220Ω 0603 Chip Resistor</t>
-  </si>
-  <si>
-    <t>TPS79333DBVR</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>200mA 70dB@(100Hz),43dB@(100kHz) Fixed 3.3V~3.3V</t>
-  </si>
-  <si>
-    <t>C9840</t>
-  </si>
-  <si>
-    <t>$0.1364</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>TLV62569DBVR</t>
-  </si>
-  <si>
-    <t>C141836</t>
-  </si>
-  <si>
-    <t>$0.0942</t>
-  </si>
-  <si>
-    <t>19-218_BHC-ZL1M2QY_3T</t>
-  </si>
-  <si>
-    <t>C264488</t>
-  </si>
-  <si>
-    <t>Everlight Elec</t>
-  </si>
-  <si>
-    <t>$0.064</t>
-  </si>
-  <si>
-    <t>blue 0603 Light Emitting Diodes</t>
   </si>
   <si>
     <t>7V24000026</t>
@@ -934,22 +618,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,26 +644,15 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1017,32 +685,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1050,16 +701,10 @@
     <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,9 +726,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1333,22 +975,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1359,46 +1001,46 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="1"/>
@@ -1411,22 +1053,22 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="13">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1436,507 +1078,489 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="I4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="13">
+      <c r="A7" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="13">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="13">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="13">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="13">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="13">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="13">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="13">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>22</v>
+      <c r="D14" s="26" t="s">
+        <v>74</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A5" s="22"/>
-      <c r="B5" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="28">
-        <v>4500</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A7" s="29"/>
-      <c r="B7" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="33">
-        <v>751492</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A9" s="29"/>
-      <c r="B9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-    </row>
-    <row r="12" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
+      <c r="G14" s="28" t="s">
+        <v>75</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="21" t="s">
-        <v>49</v>
+      <c r="H14" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>25</v>
+      <c r="I14" s="28" t="s">
+        <v>76</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34" t="s">
-        <v>50</v>
+      <c r="J14" s="29" t="s">
+        <v>77</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>17</v>
+      <c r="K14" s="26"/>
+      <c r="L14" s="30" t="s">
+        <v>78</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>51</v>
+      <c r="M14" s="27" t="s">
+        <v>20</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
-        <v>19</v>
+      <c r="N14" s="26"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="13">
+      <c r="A15" s="68" t="s">
+        <v>79</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" ht="13">
-      <c r="A14" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" ht="13">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="38"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1946,85 +1570,49 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="13">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44" t="s">
-        <v>64</v>
+    <row r="16" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A16" s="36"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>138</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>17</v>
+      <c r="H16" s="26"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" ht="13">
+      <c r="A17" s="68" t="s">
+        <v>80</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" ht="13">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="38"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2035,40 +1623,40 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="13">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43" t="s">
-        <v>76</v>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>81</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="43" t="s">
+      <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="47" t="s">
+      <c r="D18" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="45" t="s">
-        <v>25</v>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>83</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="G18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="26"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2079,40 +1667,22 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="13">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="42" t="s">
+      <c r="A19" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="38"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2123,40 +1693,40 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="44" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="44" t="s">
+      <c r="G20" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="H20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="47" t="s">
+      <c r="J20" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="45" t="s">
-        <v>25</v>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47" t="s">
+        <v>95</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="M20" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2166,129 +1736,111 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="13">
-      <c r="A21" s="38"/>
-      <c r="B21" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="40" t="s">
+    <row r="21" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A21" s="39"/>
+      <c r="B21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="38" t="s">
-        <v>21</v>
+      <c r="C21" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>99</v>
+      <c r="J21" s="48" t="s">
+        <v>103</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="42" t="s">
+      <c r="K21" s="50"/>
+      <c r="L21" s="41">
+        <v>280</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" ht="13">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" ht="13">
-      <c r="A23" s="38"/>
-      <c r="B23" s="40" t="s">
+      <c r="G22" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>26</v>
+      <c r="H22" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="I22" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="J22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="38" t="s">
-        <v>21</v>
+      <c r="K22" s="51"/>
+      <c r="L22" s="18">
+        <v>2304</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="M22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" ht="13">
+      <c r="A23" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="38"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2298,67 +1850,85 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="13">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44" t="s">
-        <v>113</v>
+    <row r="24" spans="1:22" s="63" customFormat="1" ht="13">
+      <c r="A24" s="59"/>
+      <c r="B24" s="19" t="s">
+        <v>124</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>26</v>
+      <c r="C24" s="19" t="s">
+        <v>123</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>114</v>
+      <c r="D24" s="59" t="s">
+        <v>122</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
-        <v>78</v>
+      <c r="E24" s="59"/>
+      <c r="F24" s="19" t="s">
+        <v>121</v>
       </c>
-      <c r="G24" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="47" t="s">
+      <c r="G24" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="M24" s="45" t="s">
-        <v>25</v>
+      <c r="H24" s="59" t="s">
+        <v>18</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" ht="13">
-      <c r="A25" s="94" t="s">
+      <c r="I24" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
+      <c r="J24" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="19">
+        <v>2955</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+    </row>
+    <row r="25" spans="1:22" ht="14.5">
+      <c r="A25" s="56"/>
+      <c r="B25" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="22">
+        <v>1441</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="56"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2366,838 +1936,544 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A26" s="48"/>
-      <c r="B26" s="70" t="s">
-        <v>203</v>
+    </row>
+    <row r="26" spans="1:22" ht="13">
+      <c r="A26" s="68" t="s">
+        <v>112</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>17</v>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="13">
+      <c r="A27" s="55"/>
+      <c r="B27" s="52" t="s">
+        <v>117</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>202</v>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="52" t="s">
+        <v>113</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48" t="s">
-        <v>201</v>
+      <c r="G27" s="52" t="s">
+        <v>114</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>198</v>
+      <c r="H27" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="H26" s="38" t="s">
-        <v>21</v>
+      <c r="I27" s="52" t="s">
+        <v>115</v>
       </c>
-      <c r="I26" s="70" t="s">
-        <v>200</v>
+      <c r="J27" s="53" t="s">
+        <v>116</v>
       </c>
-      <c r="J26" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="50">
-        <v>20488</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A27" s="48"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" ht="13">
-      <c r="A28" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" ht="13">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" ht="13">
-      <c r="A30" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" ht="13">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="M31" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A32" s="60"/>
-      <c r="B32" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="33">
-        <v>1266</v>
-      </c>
-      <c r="M32" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A33" s="51"/>
-      <c r="B33" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="53">
-        <v>280</v>
-      </c>
-      <c r="M33" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="69"/>
-      <c r="L34" s="23">
-        <v>2304</v>
-      </c>
-      <c r="M34" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="22"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-    </row>
-    <row r="35" spans="1:22" ht="13">
-      <c r="A35" s="38"/>
-      <c r="B35" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="J35" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73">
-        <v>5850</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A36" s="22"/>
-      <c r="B36" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="33">
-        <v>4376</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="22"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-    </row>
-    <row r="37" spans="1:22" ht="13">
-      <c r="A37" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:22" s="88" customFormat="1" ht="13">
-      <c r="A38" s="83"/>
-      <c r="B38" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="J38" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="K38" s="85"/>
-      <c r="L38" s="28">
-        <v>41649</v>
-      </c>
-      <c r="M38" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="83"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-    </row>
-    <row r="39" spans="1:22" s="8" customFormat="1" ht="13">
-      <c r="A39" s="22"/>
-      <c r="B39" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-    </row>
-    <row r="40" spans="1:22" s="14" customFormat="1" ht="13">
-      <c r="A40" s="17"/>
-      <c r="B40" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="77"/>
-      <c r="L40" s="28">
-        <v>392</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" s="10" customFormat="1" ht="13">
-      <c r="A41" s="22"/>
-      <c r="B41" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J41" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="33">
-        <v>41306</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-    </row>
-    <row r="42" spans="1:22" s="88" customFormat="1" ht="13">
-      <c r="A42" s="83"/>
-      <c r="B42" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="K42" s="85"/>
-      <c r="L42" s="73">
-        <v>2849</v>
-      </c>
-      <c r="M42" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="83"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-    </row>
-    <row r="43" spans="1:22" ht="13">
-      <c r="A43" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" s="88" customFormat="1" ht="13">
-      <c r="A44" s="83"/>
-      <c r="B44" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="J44" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="K44" s="85"/>
-      <c r="L44" s="28">
-        <v>2955</v>
-      </c>
-      <c r="M44" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="83"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="87"/>
-    </row>
-    <row r="45" spans="1:22" ht="14.5">
-      <c r="A45" s="79"/>
-      <c r="B45" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="79"/>
-      <c r="F45" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="J45" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="K45" s="79"/>
-      <c r="L45" s="33">
-        <v>1441</v>
-      </c>
-      <c r="M45" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="N45" s="79"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" spans="1:22" ht="13">
-      <c r="A46" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:22" s="4" customFormat="1" ht="13">
-      <c r="A47" s="78"/>
-      <c r="B47" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="78"/>
-      <c r="L47" s="73">
+      <c r="K27" s="55"/>
+      <c r="L27" s="54">
         <v>4957</v>
       </c>
-      <c r="M47" s="39" t="s">
-        <v>55</v>
+      <c r="M27" s="27" t="s">
+        <v>33</v>
       </c>
-      <c r="N47" s="78"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="12.5" hidden="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.5" hidden="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" ht="12.5" hidden="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" ht="12.5" hidden="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.5" hidden="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" ht="12.5" hidden="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" ht="12.5" hidden="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" ht="12.5" hidden="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" ht="12.5" hidden="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" ht="12.5" hidden="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" ht="12.5" hidden="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" ht="12.5" hidden="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" ht="12.5" hidden="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" ht="12.5" hidden="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" ht="12.5" hidden="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" ht="12.5" hidden="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" ht="12.5" hidden="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" ht="12.5" hidden="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" ht="12.5" hidden="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" ht="12.5" hidden="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -24447,501 +23723,40 @@
       <c r="U932" s="1"/>
       <c r="V932" s="1"/>
     </row>
-    <row r="933" spans="1:22" ht="12.5" hidden="1">
-      <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-      <c r="E933" s="1"/>
-      <c r="F933" s="1"/>
-      <c r="G933" s="1"/>
-      <c r="H933" s="1"/>
-      <c r="I933" s="1"/>
-      <c r="J933" s="1"/>
-      <c r="K933" s="1"/>
-      <c r="L933" s="1"/>
-      <c r="M933" s="1"/>
-      <c r="N933" s="1"/>
-      <c r="O933" s="1"/>
-      <c r="P933" s="1"/>
-      <c r="Q933" s="1"/>
-      <c r="R933" s="1"/>
-      <c r="S933" s="1"/>
-      <c r="T933" s="1"/>
-      <c r="U933" s="1"/>
-      <c r="V933" s="1"/>
-    </row>
-    <row r="934" spans="1:22" ht="12.5" hidden="1">
-      <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-      <c r="E934" s="1"/>
-      <c r="F934" s="1"/>
-      <c r="G934" s="1"/>
-      <c r="H934" s="1"/>
-      <c r="I934" s="1"/>
-      <c r="J934" s="1"/>
-      <c r="K934" s="1"/>
-      <c r="L934" s="1"/>
-      <c r="M934" s="1"/>
-      <c r="N934" s="1"/>
-      <c r="O934" s="1"/>
-      <c r="P934" s="1"/>
-      <c r="Q934" s="1"/>
-      <c r="R934" s="1"/>
-      <c r="S934" s="1"/>
-      <c r="T934" s="1"/>
-      <c r="U934" s="1"/>
-      <c r="V934" s="1"/>
-    </row>
-    <row r="935" spans="1:22" ht="12.5" hidden="1">
-      <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-      <c r="E935" s="1"/>
-      <c r="F935" s="1"/>
-      <c r="G935" s="1"/>
-      <c r="H935" s="1"/>
-      <c r="I935" s="1"/>
-      <c r="J935" s="1"/>
-      <c r="K935" s="1"/>
-      <c r="L935" s="1"/>
-      <c r="M935" s="1"/>
-      <c r="N935" s="1"/>
-      <c r="O935" s="1"/>
-      <c r="P935" s="1"/>
-      <c r="Q935" s="1"/>
-      <c r="R935" s="1"/>
-      <c r="S935" s="1"/>
-      <c r="T935" s="1"/>
-      <c r="U935" s="1"/>
-      <c r="V935" s="1"/>
-    </row>
-    <row r="936" spans="1:22" ht="12.5" hidden="1">
-      <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-      <c r="E936" s="1"/>
-      <c r="F936" s="1"/>
-      <c r="G936" s="1"/>
-      <c r="H936" s="1"/>
-      <c r="I936" s="1"/>
-      <c r="J936" s="1"/>
-      <c r="K936" s="1"/>
-      <c r="L936" s="1"/>
-      <c r="M936" s="1"/>
-      <c r="N936" s="1"/>
-      <c r="O936" s="1"/>
-      <c r="P936" s="1"/>
-      <c r="Q936" s="1"/>
-      <c r="R936" s="1"/>
-      <c r="S936" s="1"/>
-      <c r="T936" s="1"/>
-      <c r="U936" s="1"/>
-      <c r="V936" s="1"/>
-    </row>
-    <row r="937" spans="1:22" ht="12.5" hidden="1">
-      <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
-      <c r="E937" s="1"/>
-      <c r="F937" s="1"/>
-      <c r="G937" s="1"/>
-      <c r="H937" s="1"/>
-      <c r="I937" s="1"/>
-      <c r="J937" s="1"/>
-      <c r="K937" s="1"/>
-      <c r="L937" s="1"/>
-      <c r="M937" s="1"/>
-      <c r="N937" s="1"/>
-      <c r="O937" s="1"/>
-      <c r="P937" s="1"/>
-      <c r="Q937" s="1"/>
-      <c r="R937" s="1"/>
-      <c r="S937" s="1"/>
-      <c r="T937" s="1"/>
-      <c r="U937" s="1"/>
-      <c r="V937" s="1"/>
-    </row>
-    <row r="938" spans="1:22" ht="12.5" hidden="1">
-      <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
-      <c r="G938" s="1"/>
-      <c r="H938" s="1"/>
-      <c r="I938" s="1"/>
-      <c r="J938" s="1"/>
-      <c r="K938" s="1"/>
-      <c r="L938" s="1"/>
-      <c r="M938" s="1"/>
-      <c r="N938" s="1"/>
-      <c r="O938" s="1"/>
-      <c r="P938" s="1"/>
-      <c r="Q938" s="1"/>
-      <c r="R938" s="1"/>
-      <c r="S938" s="1"/>
-      <c r="T938" s="1"/>
-      <c r="U938" s="1"/>
-      <c r="V938" s="1"/>
-    </row>
-    <row r="939" spans="1:22" ht="12.5" hidden="1">
-      <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
-      <c r="E939" s="1"/>
-      <c r="F939" s="1"/>
-      <c r="G939" s="1"/>
-      <c r="H939" s="1"/>
-      <c r="I939" s="1"/>
-      <c r="J939" s="1"/>
-      <c r="K939" s="1"/>
-      <c r="L939" s="1"/>
-      <c r="M939" s="1"/>
-      <c r="N939" s="1"/>
-      <c r="O939" s="1"/>
-      <c r="P939" s="1"/>
-      <c r="Q939" s="1"/>
-      <c r="R939" s="1"/>
-      <c r="S939" s="1"/>
-      <c r="T939" s="1"/>
-      <c r="U939" s="1"/>
-      <c r="V939" s="1"/>
-    </row>
-    <row r="940" spans="1:22" ht="12.5" hidden="1">
-      <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="1"/>
-      <c r="G940" s="1"/>
-      <c r="H940" s="1"/>
-      <c r="I940" s="1"/>
-      <c r="J940" s="1"/>
-      <c r="K940" s="1"/>
-      <c r="L940" s="1"/>
-      <c r="M940" s="1"/>
-      <c r="N940" s="1"/>
-      <c r="O940" s="1"/>
-      <c r="P940" s="1"/>
-      <c r="Q940" s="1"/>
-      <c r="R940" s="1"/>
-      <c r="S940" s="1"/>
-      <c r="T940" s="1"/>
-      <c r="U940" s="1"/>
-      <c r="V940" s="1"/>
-    </row>
-    <row r="941" spans="1:22" ht="12.5" hidden="1">
-      <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
-      <c r="E941" s="1"/>
-      <c r="F941" s="1"/>
-      <c r="G941" s="1"/>
-      <c r="H941" s="1"/>
-      <c r="I941" s="1"/>
-      <c r="J941" s="1"/>
-      <c r="K941" s="1"/>
-      <c r="L941" s="1"/>
-      <c r="M941" s="1"/>
-      <c r="N941" s="1"/>
-      <c r="O941" s="1"/>
-      <c r="P941" s="1"/>
-      <c r="Q941" s="1"/>
-      <c r="R941" s="1"/>
-      <c r="S941" s="1"/>
-      <c r="T941" s="1"/>
-      <c r="U941" s="1"/>
-      <c r="V941" s="1"/>
-    </row>
-    <row r="942" spans="1:22" ht="12.5" hidden="1">
-      <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
-      <c r="G942" s="1"/>
-      <c r="H942" s="1"/>
-      <c r="I942" s="1"/>
-      <c r="J942" s="1"/>
-      <c r="K942" s="1"/>
-      <c r="L942" s="1"/>
-      <c r="M942" s="1"/>
-      <c r="N942" s="1"/>
-      <c r="O942" s="1"/>
-      <c r="P942" s="1"/>
-      <c r="Q942" s="1"/>
-      <c r="R942" s="1"/>
-      <c r="S942" s="1"/>
-      <c r="T942" s="1"/>
-      <c r="U942" s="1"/>
-      <c r="V942" s="1"/>
-    </row>
-    <row r="943" spans="1:22" ht="12.5" hidden="1">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="1"/>
-      <c r="G943" s="1"/>
-      <c r="H943" s="1"/>
-      <c r="I943" s="1"/>
-      <c r="J943" s="1"/>
-      <c r="K943" s="1"/>
-      <c r="L943" s="1"/>
-      <c r="M943" s="1"/>
-      <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
-      <c r="P943" s="1"/>
-      <c r="Q943" s="1"/>
-      <c r="R943" s="1"/>
-      <c r="S943" s="1"/>
-      <c r="T943" s="1"/>
-      <c r="U943" s="1"/>
-      <c r="V943" s="1"/>
-    </row>
-    <row r="944" spans="1:22" ht="12.5" hidden="1">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
-      <c r="G944" s="1"/>
-      <c r="H944" s="1"/>
-      <c r="I944" s="1"/>
-      <c r="J944" s="1"/>
-      <c r="K944" s="1"/>
-      <c r="L944" s="1"/>
-      <c r="M944" s="1"/>
-      <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
-      <c r="P944" s="1"/>
-      <c r="Q944" s="1"/>
-      <c r="R944" s="1"/>
-      <c r="S944" s="1"/>
-      <c r="T944" s="1"/>
-      <c r="U944" s="1"/>
-      <c r="V944" s="1"/>
-    </row>
-    <row r="945" spans="1:22" ht="12.5" hidden="1">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="1"/>
-      <c r="G945" s="1"/>
-      <c r="H945" s="1"/>
-      <c r="I945" s="1"/>
-      <c r="J945" s="1"/>
-      <c r="K945" s="1"/>
-      <c r="L945" s="1"/>
-      <c r="M945" s="1"/>
-      <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
-      <c r="P945" s="1"/>
-      <c r="Q945" s="1"/>
-      <c r="R945" s="1"/>
-      <c r="S945" s="1"/>
-      <c r="T945" s="1"/>
-      <c r="U945" s="1"/>
-      <c r="V945" s="1"/>
-    </row>
-    <row r="946" spans="1:22" ht="12.5" hidden="1">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
-      <c r="G946" s="1"/>
-      <c r="H946" s="1"/>
-      <c r="I946" s="1"/>
-      <c r="J946" s="1"/>
-      <c r="K946" s="1"/>
-      <c r="L946" s="1"/>
-      <c r="M946" s="1"/>
-      <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
-      <c r="P946" s="1"/>
-      <c r="Q946" s="1"/>
-      <c r="R946" s="1"/>
-      <c r="S946" s="1"/>
-      <c r="T946" s="1"/>
-      <c r="U946" s="1"/>
-      <c r="V946" s="1"/>
-    </row>
-    <row r="947" spans="1:22" ht="12.5" hidden="1">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="1"/>
-      <c r="G947" s="1"/>
-      <c r="H947" s="1"/>
-      <c r="I947" s="1"/>
-      <c r="J947" s="1"/>
-      <c r="K947" s="1"/>
-      <c r="L947" s="1"/>
-      <c r="M947" s="1"/>
-      <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
-      <c r="P947" s="1"/>
-      <c r="Q947" s="1"/>
-      <c r="R947" s="1"/>
-      <c r="S947" s="1"/>
-      <c r="T947" s="1"/>
-      <c r="U947" s="1"/>
-      <c r="V947" s="1"/>
-    </row>
-    <row r="948" spans="1:22" ht="12.5" hidden="1">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="1"/>
-      <c r="G948" s="1"/>
-      <c r="H948" s="1"/>
-      <c r="I948" s="1"/>
-      <c r="J948" s="1"/>
-      <c r="K948" s="1"/>
-      <c r="L948" s="1"/>
-      <c r="M948" s="1"/>
-      <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
-      <c r="P948" s="1"/>
-      <c r="Q948" s="1"/>
-      <c r="R948" s="1"/>
-      <c r="S948" s="1"/>
-      <c r="T948" s="1"/>
-      <c r="U948" s="1"/>
-      <c r="V948" s="1"/>
-    </row>
-    <row r="949" spans="1:22" ht="12.5" hidden="1">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
-      <c r="G949" s="1"/>
-      <c r="H949" s="1"/>
-      <c r="I949" s="1"/>
-      <c r="J949" s="1"/>
-      <c r="K949" s="1"/>
-      <c r="L949" s="1"/>
-      <c r="M949" s="1"/>
-      <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
-      <c r="P949" s="1"/>
-      <c r="Q949" s="1"/>
-      <c r="R949" s="1"/>
-      <c r="S949" s="1"/>
-      <c r="T949" s="1"/>
-      <c r="U949" s="1"/>
-      <c r="V949" s="1"/>
-    </row>
-    <row r="950" spans="1:22" ht="12.5" hidden="1">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="1"/>
-      <c r="G950" s="1"/>
-      <c r="H950" s="1"/>
-      <c r="I950" s="1"/>
-      <c r="J950" s="1"/>
-      <c r="K950" s="1"/>
-      <c r="L950" s="1"/>
-      <c r="M950" s="1"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
-      <c r="P950" s="1"/>
-      <c r="Q950" s="1"/>
-      <c r="R950" s="1"/>
-      <c r="S950" s="1"/>
-      <c r="T950" s="1"/>
-      <c r="U950" s="1"/>
-      <c r="V950" s="1"/>
-    </row>
-    <row r="951" spans="1:22" ht="12.5" hidden="1">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
-      <c r="E951" s="1"/>
-      <c r="F951" s="1"/>
-      <c r="G951" s="1"/>
-      <c r="H951" s="1"/>
-      <c r="I951" s="1"/>
-      <c r="J951" s="1"/>
-      <c r="K951" s="1"/>
-      <c r="L951" s="1"/>
-      <c r="M951" s="1"/>
-      <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
-      <c r="P951" s="1"/>
-      <c r="Q951" s="1"/>
-      <c r="R951" s="1"/>
-      <c r="S951" s="1"/>
-      <c r="T951" s="1"/>
-      <c r="U951" s="1"/>
-      <c r="V951" s="1"/>
-    </row>
-    <row r="952" spans="1:22" ht="12.5" hidden="1">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="1"/>
-      <c r="G952" s="1"/>
-      <c r="H952" s="1"/>
-      <c r="I952" s="1"/>
-      <c r="J952" s="1"/>
-      <c r="K952" s="1"/>
-      <c r="L952" s="1"/>
-      <c r="M952" s="1"/>
-      <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
-      <c r="P952" s="1"/>
-      <c r="Q952" s="1"/>
-      <c r="R952" s="1"/>
-      <c r="S952" s="1"/>
-      <c r="T952" s="1"/>
-      <c r="U952" s="1"/>
-      <c r="V952" s="1"/>
-    </row>
-    <row r="953" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="954" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="955" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="956" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="933" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="934" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="935" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="936" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="937" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="938" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="939" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="940" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="941" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="942" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="943" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="944" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A46:N46"/>
+  <mergeCells count="8">
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
+++ b/BOM/MIMXRT1064 MCU Module  - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32470\Documents\GitHub\MIMXRT1064-MCU-Module\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F07ED-8B39-4934-ABFA-9B615E017814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39FC3E6-82D4-4A85-8A89-11A08E833775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
   <si>
     <t>MIMXRT1064 MCU Module  - BOM</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>LQM21PN4R7MGRD</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>CL10A226MQ8NRNC</t>
   </si>
 </sst>
 </file>
@@ -949,10 +955,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V956"/>
+  <dimension ref="A1:V957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -1545,22 +1551,24 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="13">
-      <c r="A15" s="68" t="s">
-        <v>79</v>
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26" t="s">
+        <v>139</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1570,93 +1578,75 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" s="5" customFormat="1" ht="13">
-      <c r="A16" s="36"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+    <row r="16" spans="1:22" ht="13">
+      <c r="A16" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A17" s="36"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" ht="13">
-      <c r="A17" s="68" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" ht="13">
+      <c r="A18" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" ht="13">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="26"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1667,22 +1657,40 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="13">
-      <c r="A19" s="67" t="s">
-        <v>88</v>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
+        <v>81</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="C19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="26"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1693,40 +1701,22 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="13">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
-        <v>89</v>
+      <c r="A20" s="67" t="s">
+        <v>88</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>96</v>
-      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1736,224 +1726,243 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" s="5" customFormat="1" ht="13">
-      <c r="A21" s="39"/>
-      <c r="B21" s="48" t="s">
+    <row r="21" spans="1:22" ht="13">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" s="5" customFormat="1" ht="13">
+      <c r="A22" s="39"/>
+      <c r="B22" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C22" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G22" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H22" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I22" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J22" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="41">
+      <c r="K22" s="50"/>
+      <c r="L22" s="41">
         <v>280</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" s="6" customFormat="1" ht="13">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17" t="s">
+      <c r="N22" s="39"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="13">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I23" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="18">
+      <c r="K23" s="51"/>
+      <c r="L23" s="18">
         <v>2304</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22" ht="13">
-      <c r="A23" s="68" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" ht="13">
+      <c r="A24" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" s="63" customFormat="1" ht="13">
-      <c r="A24" s="59"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" s="63" customFormat="1" ht="13">
+      <c r="A25" s="59"/>
+      <c r="B25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D25" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="19" t="s">
+      <c r="E25" s="59"/>
+      <c r="F25" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G25" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J25" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="19">
+      <c r="K25" s="60"/>
+      <c r="L25" s="19">
         <v>2955</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="M25" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-    </row>
-    <row r="25" spans="1:22" ht="14.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="66" t="s">
+      <c r="N25" s="59"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+    </row>
+    <row r="26" spans="1:22" ht="14.5">
+      <c r="A26" s="56"/>
+      <c r="B26" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D26" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="22" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G26" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H26" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J26" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="22">
+      <c r="K26" s="56"/>
+      <c r="L26" s="22">
         <v>1441</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M26" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" ht="13">
-      <c r="A26" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1961,63 +1970,64 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="13">
-      <c r="A27" s="55"/>
-      <c r="B27" s="52" t="s">
+    </row>
+    <row r="27" spans="1:22" ht="13">
+      <c r="A27" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="13">
+      <c r="A28" s="55"/>
+      <c r="B28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="52" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G28" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I28" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J28" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="54">
+      <c r="K28" s="55"/>
+      <c r="L28" s="54">
         <v>4957</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" ht="12.5" hidden="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="55"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -23723,7 +23733,30 @@
       <c r="U932" s="1"/>
       <c r="V932" s="1"/>
     </row>
-    <row r="933" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="933" spans="1:22" ht="12.5" hidden="1">
+      <c r="A933" s="1"/>
+      <c r="B933" s="1"/>
+      <c r="C933" s="1"/>
+      <c r="D933" s="1"/>
+      <c r="E933" s="1"/>
+      <c r="F933" s="1"/>
+      <c r="G933" s="1"/>
+      <c r="H933" s="1"/>
+      <c r="I933" s="1"/>
+      <c r="J933" s="1"/>
+      <c r="K933" s="1"/>
+      <c r="L933" s="1"/>
+      <c r="M933" s="1"/>
+      <c r="N933" s="1"/>
+      <c r="O933" s="1"/>
+      <c r="P933" s="1"/>
+      <c r="Q933" s="1"/>
+      <c r="R933" s="1"/>
+      <c r="S933" s="1"/>
+      <c r="T933" s="1"/>
+      <c r="U933" s="1"/>
+      <c r="V933" s="1"/>
+    </row>
     <row r="934" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="935" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="936" spans="1:22" ht="15.75" customHeight="1"/>
@@ -23747,16 +23780,17 @@
     <row r="954" ht="15.75" customHeight="1"/>
     <row r="955" ht="15.75" customHeight="1"/>
     <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A27:N27"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
